--- a/NH Q11 - Q4 - PV/TRÀ VINH/KU 88.000USD/NKSC16 - NHTV.xlsx
+++ b/NH Q11 - Q4 - PV/TRÀ VINH/KU 88.000USD/NKSC16 - NHTV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="14820" windowHeight="7845" tabRatio="894" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="14820" windowHeight="7845" tabRatio="894" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CDPS" sheetId="15" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_C111">TH!$R$10:$R$201</definedName>
-    <definedName name="_C112">TH!$U$10:$U$201</definedName>
+    <definedName name="_C111">TH!$R$10:$R$178</definedName>
+    <definedName name="_C112">TH!$U$10:$U$178</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'111'!$A$12:$J$107</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TH!$A$9:$W$80</definedName>
-    <definedName name="_N111">TH!$Q$10:$Q$201</definedName>
-    <definedName name="_N112">TH!$T$10:$T$201</definedName>
-    <definedName name="_TH">TH!$K$10:$K$201</definedName>
-    <definedName name="DG">TH!$J$10:$J$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TH!$A$9:$W$57</definedName>
+    <definedName name="_N111">TH!$Q$10:$Q$178</definedName>
+    <definedName name="_N112">TH!$T$10:$T$178</definedName>
+    <definedName name="_TH">TH!$K$10:$K$178</definedName>
+    <definedName name="DG">TH!$J$10:$J$178</definedName>
     <definedName name="Dong">IF(Loai="x",ROW(Loai)-1,"")</definedName>
     <definedName name="Dong1">IF(!Loai1="x",ROW(Loai1)-1,"")</definedName>
     <definedName name="Dong10">IF(!Loai7="x",ROW(Loai7)-1,"")</definedName>
@@ -73,38 +73,38 @@
     <definedName name="DSTK">CDPS!$A$10:$D$71</definedName>
     <definedName name="DSTS1">#REF!</definedName>
     <definedName name="DSTS2">#REF!</definedName>
-    <definedName name="KH">TH!$H$10:$H$201</definedName>
-    <definedName name="KHC">TH!$O$10:$O$201</definedName>
-    <definedName name="KHN">TH!$N$10:$N$201</definedName>
+    <definedName name="KH">TH!$H$10:$H$178</definedName>
+    <definedName name="KHC">TH!$O$10:$O$178</definedName>
+    <definedName name="KHN">TH!$N$10:$N$178</definedName>
     <definedName name="Loai">OFFSET(TH!#REF!,,,COUNTA(TH!#REF!))</definedName>
-    <definedName name="Loai1">OFFSET(TH!$P$5,,,COUNTA(TH!$P$5:$P$38511))</definedName>
+    <definedName name="Loai1">OFFSET(TH!$P$5,,,COUNTA(TH!$P$5:$P$38488))</definedName>
     <definedName name="Loai10">OFFSET(TH!#REF!,,,COUNTA(TH!#REF!))</definedName>
     <definedName name="Loai11">OFFSET(TH!#REF!,,,COUNTA(TH!#REF!))</definedName>
-    <definedName name="Loai2">OFFSET(TH!$S$5,,,COUNTA(TH!$S$5:$S$38511))</definedName>
+    <definedName name="Loai2">OFFSET(TH!$S$5,,,COUNTA(TH!$S$5:$S$38488))</definedName>
     <definedName name="Loai3">OFFSET(#REF!,,,COUNTA(#REF!))</definedName>
     <definedName name="Loai4">OFFSET(TH!#REF!,,,COUNTA(TH!#REF!))</definedName>
     <definedName name="Loai5">OFFSET(TH!#REF!,,,COUNTA(TH!#REF!))</definedName>
-    <definedName name="Loai6">OFFSET(TH!$V$5,,,COUNTA(TH!$V$5:$V$38511))</definedName>
-    <definedName name="Loai7">OFFSET(TH!$W$5,,,COUNTA(TH!$W$5:$W$38511))</definedName>
+    <definedName name="Loai6">OFFSET(TH!$V$5,,,COUNTA(TH!$V$5:$V$38488))</definedName>
+    <definedName name="Loai7">OFFSET(TH!$W$5,,,COUNTA(TH!$W$5:$W$38488))</definedName>
     <definedName name="Loai8">OFFSET(TH!#REF!,,,COUNTA(TH!#REF!))</definedName>
     <definedName name="Loai9">OFFSET(TH!#REF!,,,COUNTA(TH!#REF!))</definedName>
-    <definedName name="MH">TH!$F$10:$F$201</definedName>
+    <definedName name="MH">TH!$F$10:$F$178</definedName>
     <definedName name="NXT">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'111'!$A$1:$J$120</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">CDPS!$A$8:$H$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'IN-NX'!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'IN-NX'!$A$1:$I$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'IN-TC'!$B$1:$O$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'111'!$10:$12</definedName>
-    <definedName name="SL">TH!$I$10:$I$201</definedName>
-    <definedName name="TH">TH!$M$10:$M$201</definedName>
-    <definedName name="TM">TH!$A$10:$O$201</definedName>
+    <definedName name="SL">TH!$I$10:$I$178</definedName>
+    <definedName name="TH">TH!$M$10:$M$178</definedName>
+    <definedName name="TM">TH!$A$10:$O$178</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="270">
   <si>
     <t>Diễn giải</t>
   </si>
@@ -740,9 +740,6 @@
     <t>Đơn vị tính</t>
   </si>
   <si>
-    <t>Lê Thị Diệu</t>
-  </si>
-  <si>
     <t>Lê Thị Thiện Em</t>
   </si>
   <si>
@@ -758,9 +755,6 @@
     <t>Trần Thị Thu Hiếu</t>
   </si>
   <si>
-    <t>Nguyễn Văn Nhân</t>
-  </si>
-  <si>
     <t>Tháng</t>
   </si>
   <si>
@@ -947,33 +941,6 @@
     <t>NL/N14</t>
   </si>
   <si>
-    <t>NL/N15</t>
-  </si>
-  <si>
-    <t>NL/N16</t>
-  </si>
-  <si>
-    <t>NL/N17</t>
-  </si>
-  <si>
-    <t>NL/N18</t>
-  </si>
-  <si>
-    <t>NL/N19</t>
-  </si>
-  <si>
-    <t>NL/N20</t>
-  </si>
-  <si>
-    <t>NL/N21</t>
-  </si>
-  <si>
-    <t>NL/N22</t>
-  </si>
-  <si>
-    <t>NL/N23</t>
-  </si>
-  <si>
     <t>Thanh toán tiền - Cá cơm NL</t>
   </si>
   <si>
@@ -1004,49 +971,7 @@
     <t>Địa chỉ: Số 20 Lô E, KCN Long Đức, TP. Trà Vinh, Tỉnh Trà Vinh</t>
   </si>
   <si>
-    <t xml:space="preserve">Cá cơm trắng NL </t>
-  </si>
-  <si>
-    <t>NL/N24</t>
-  </si>
-  <si>
-    <t>NL/N25</t>
-  </si>
-  <si>
-    <t>NL/N26</t>
-  </si>
-  <si>
-    <t>NL/N27</t>
-  </si>
-  <si>
-    <t>NL/N28</t>
-  </si>
-  <si>
-    <t>NL/N29</t>
-  </si>
-  <si>
-    <t>NL/N30</t>
-  </si>
-  <si>
-    <t>NL/N31</t>
-  </si>
-  <si>
-    <t>NL/N32</t>
-  </si>
-  <si>
-    <t>NL/N33</t>
-  </si>
-  <si>
-    <t>NL/N34</t>
-  </si>
-  <si>
-    <t>NL/N35</t>
-  </si>
-  <si>
-    <t>C07</t>
-  </si>
-  <si>
-    <t>C08</t>
+    <t xml:space="preserve">       Võ Uyên Phương                                                      Trần Minh Nghĩa</t>
   </si>
 </sst>
 </file>
@@ -1065,9 +990,9 @@
     <numFmt numFmtId="171" formatCode="&quot;Ngày&quot;\ dd&quot; tháng&quot;\ mm&quot; năm&quot;\ yyyy"/>
     <numFmt numFmtId="172" formatCode="&quot;Ngày  &quot;dd&quot; tháng &quot;mm&quot; năm &quot;yyyy"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="62">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1422,10 +1347,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="VNI-Helve"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2131,7 +2052,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2716,34 +2637,6 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="93" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="19" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="19" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="19" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -2752,15 +2645,232 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="173" fontId="32" fillId="0" borderId="16" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="32" fillId="0" borderId="16" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="32" fillId="0" borderId="16" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="32" fillId="0" borderId="16" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="61" fillId="0" borderId="16" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="0" borderId="16" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="16" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="0" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="61" fillId="0" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="0" borderId="16" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="16" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="61" fillId="0" borderId="16" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="16" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="0" borderId="16" xfId="29" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="61" fillId="0" borderId="16" xfId="29" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="16" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="88" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="88" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="17" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="18" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="20" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="2" xfId="75" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2769,15 +2879,6 @@
     </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="75" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2795,214 +2896,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="173" fontId="32" fillId="0" borderId="16" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="32" fillId="0" borderId="16" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="32" fillId="0" borderId="16" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="32" fillId="0" borderId="16" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="20" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="17" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="18" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="16" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="62" fillId="0" borderId="16" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="16" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="62" fillId="0" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="62" fillId="0" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="62" fillId="0" borderId="16" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="16" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="62" fillId="0" borderId="16" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="16" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="62" fillId="0" borderId="16" xfId="29" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="62" fillId="0" borderId="16" xfId="29" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="16" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="88" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="88" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="74" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="94">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3666,15 +3559,15 @@
       </c>
       <c r="F10" s="17">
         <f t="array" ref="F10">SUM(IF(A10=KHC,TH))</f>
-        <v>5802224000</v>
+        <v>2479046750</v>
       </c>
       <c r="G10" s="18">
         <f>MAX(C10+E10-D10-F10,0)</f>
-        <v>0</v>
+        <v>1225992345</v>
       </c>
       <c r="H10" s="18">
         <f>MAX(D10+F10-E10-C10,0)</f>
-        <v>2097184905</v>
+        <v>0</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -3698,15 +3591,15 @@
       </c>
       <c r="F11" s="22">
         <f>F10</f>
-        <v>5802224000</v>
+        <v>2479046750</v>
       </c>
       <c r="G11" s="22">
         <f>G10</f>
-        <v>0</v>
+        <v>1225992345</v>
       </c>
       <c r="H11" s="22">
         <f>H10</f>
-        <v>2097184905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1">
@@ -3805,10 +3698,10 @@
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1">
       <c r="A15" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" s="22">
         <v>3343381600</v>
@@ -3996,7 +3889,7 @@
       </c>
       <c r="E21" s="17">
         <f t="array" ref="E21">SUM(IF(A21=KHN,TH))</f>
-        <v>11282544000</v>
+        <v>2479046750</v>
       </c>
       <c r="F21" s="17">
         <f t="array" ref="F21">SUM(IF(A21=KHC,TH))</f>
@@ -4004,7 +3897,7 @@
       </c>
       <c r="G21" s="18">
         <f t="shared" si="0"/>
-        <v>14054944000</v>
+        <v>5251446750</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="1"/>
@@ -4058,7 +3951,7 @@
       </c>
       <c r="E23" s="22">
         <f>E21+E22</f>
-        <v>11282544000</v>
+        <v>2479046750</v>
       </c>
       <c r="F23" s="22">
         <f>F21+F22</f>
@@ -4066,7 +3959,7 @@
       </c>
       <c r="G23" s="22">
         <f t="shared" si="0"/>
-        <v>14581463887</v>
+        <v>5777966637</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
@@ -4281,10 +4174,10 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1">
       <c r="A31" s="130" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B31" s="131" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C31" s="132">
         <v>5405781300</v>
@@ -4311,10 +4204,10 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1">
       <c r="A32" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C32" s="22">
         <f t="shared" ref="C32:H32" si="2">C31</f>
@@ -4343,10 +4236,10 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1">
       <c r="A33" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C33" s="17">
         <v>0</v>
@@ -4373,10 +4266,10 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1">
       <c r="A34" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C34" s="17">
         <v>0</v>
@@ -4403,10 +4296,10 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C35" s="22">
         <f t="shared" ref="C35:H35" si="3">C33+C34</f>
@@ -4504,11 +4397,11 @@
       </c>
       <c r="E38" s="32">
         <f t="array" ref="E38">SUM(IF(A38=KHN,TH))</f>
-        <v>5802224000</v>
+        <v>2479046750</v>
       </c>
       <c r="F38" s="32">
         <f t="array" ref="F38">SUM(IF(A38=KHC,TH))</f>
-        <v>11282544000</v>
+        <v>2479046750</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="0"/>
@@ -4516,7 +4409,7 @@
       </c>
       <c r="H38" s="22">
         <f t="shared" si="1"/>
-        <v>5957273252</v>
+        <v>476953252</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1">
@@ -4551,10 +4444,10 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1">
       <c r="A40" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C40" s="17">
         <v>3389804</v>
@@ -4673,10 +4566,10 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1">
       <c r="A44" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
@@ -4703,10 +4596,10 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1">
       <c r="A45" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C45" s="22">
         <v>0</v>
@@ -4733,10 +4626,10 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A46" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C46" s="17">
         <v>0</v>
@@ -4763,10 +4656,10 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1">
       <c r="A47" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C47" s="17">
         <v>0</v>
@@ -4793,10 +4686,10 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1">
       <c r="A48" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C48" s="17">
         <v>0</v>
@@ -5076,11 +4969,11 @@
         <v>30160884.000000477</v>
       </c>
       <c r="E57" s="17">
-        <f t="array" ref="E57">SUM(IF(A57=TH!$N$10:$N$80,TH!$M$10:$M$80))</f>
+        <f t="array" ref="E57">SUM(IF(A57=TH!$N$10:$N$57,TH!$M$10:$M$57))</f>
         <v>217473894.5999999</v>
       </c>
       <c r="F57" s="17">
-        <f t="array" ref="F57">SUM(IF(A57=TH!$O$10:$O$80,TH!$M$10:$M$80))</f>
+        <f t="array" ref="F57">SUM(IF(A57=TH!$O$10:$O$57,TH!$M$10:$M$57))</f>
         <v>0</v>
       </c>
       <c r="G57" s="17">
@@ -5290,10 +5183,10 @@
     </row>
     <row r="66" spans="1:9" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -5420,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="33">
-        <f t="array" ref="F71">SUM(IF(A71=TH!$O$10:$O$80,TH!$M$10:$M$80))</f>
+        <f t="array" ref="F71">SUM(IF(A71=TH!$O$10:$O$57,TH!$M$10:$M$57))</f>
         <v>187313010.59999943</v>
       </c>
       <c r="G71" s="22"/>
@@ -5445,19 +5338,19 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="10"/>
-        <v>25840228167.599998</v>
+        <v>13713553667.6</v>
       </c>
       <c r="F72" s="28">
         <f t="shared" si="10"/>
-        <v>25840228167.599998</v>
+        <v>13713553667.599998</v>
       </c>
       <c r="G72" s="28">
         <f t="shared" si="10"/>
-        <v>51916261442.599998</v>
+        <v>44338756537.599998</v>
       </c>
       <c r="H72" s="28">
         <f t="shared" si="10"/>
-        <v>51728948432</v>
+        <v>44151443527</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5509,5181 +5402,3493 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:W90"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="204" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="212" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="212" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="212" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="212" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="212" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="269" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="270" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="270" customWidth="1"/>
-    <col min="11" max="11" width="10" style="270" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="270" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="212" customWidth="1"/>
-    <col min="14" max="15" width="7" style="212" customWidth="1"/>
-    <col min="16" max="18" width="2.7109375" style="212" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="2.5703125" style="212" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" style="212" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="2.7109375" style="212" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="212" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="212"/>
+    <col min="1" max="1" width="4.5703125" style="184" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="192" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="192" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="192" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="192" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="192" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="228" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="229" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="229" customWidth="1"/>
+    <col min="11" max="11" width="10" style="229" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="229" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="192" customWidth="1"/>
+    <col min="14" max="15" width="7" style="192" customWidth="1"/>
+    <col min="16" max="18" width="2.7109375" style="192" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="2.5703125" style="192" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="4.140625" style="192" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.7109375" style="192" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="192" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="192"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="B1" s="205"/>
-      <c r="C1" s="205" t="s">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="W1" s="211"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="W1" s="191"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="B2" s="205"/>
-      <c r="C2" s="205" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="W2" s="211"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="191"/>
+      <c r="W2" s="191"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="215"/>
-      <c r="O3" s="215"/>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="215"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="W3" s="215"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="W3" s="195"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="210"/>
-      <c r="C4" s="187" t="s">
+      <c r="B4" s="190"/>
+      <c r="C4" s="233" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="187"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="233"/>
+      <c r="G4" s="233"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="233"/>
+      <c r="M4" s="233"/>
+      <c r="N4" s="233"/>
+      <c r="O4" s="233"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="B5" s="210"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="233"/>
+      <c r="O5" s="233"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="B6" s="210"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="211"/>
-      <c r="P6" s="211"/>
-      <c r="Q6" s="211"/>
-      <c r="R6" s="211"/>
-      <c r="S6" s="211"/>
-      <c r="T6" s="211"/>
-      <c r="U6" s="211"/>
-      <c r="W6" s="211"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="190"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="W6" s="191"/>
     </row>
     <row r="7" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="219" t="s">
+      <c r="C7" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="219" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="222" t="s">
+      <c r="E7" s="236"/>
+      <c r="F7" s="234" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="238" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="223" t="s">
+      <c r="H7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="224" t="s">
-        <v>208</v>
-      </c>
-      <c r="J7" s="225"/>
-      <c r="K7" s="219" t="s">
+      <c r="I7" s="251" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="252"/>
+      <c r="K7" s="234" t="s">
         <v>153</v>
       </c>
-      <c r="L7" s="219"/>
-      <c r="M7" s="219" t="s">
+      <c r="L7" s="234"/>
+      <c r="M7" s="234" t="s">
         <v>152</v>
       </c>
-      <c r="N7" s="226" t="s">
+      <c r="N7" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="226"/>
-      <c r="P7" s="227" t="s">
+      <c r="O7" s="237"/>
+      <c r="P7" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="229"/>
-      <c r="S7" s="227" t="s">
+      <c r="Q7" s="240"/>
+      <c r="R7" s="241"/>
+      <c r="S7" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="228"/>
-      <c r="U7" s="229"/>
-      <c r="V7" s="230" t="s">
+      <c r="T7" s="240"/>
+      <c r="U7" s="241"/>
+      <c r="V7" s="249" t="s">
         <v>142</v>
       </c>
-      <c r="W7" s="227" t="s">
+      <c r="W7" s="231" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A8" s="231"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="233" t="s">
+      <c r="A8" s="245"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="234" t="s">
+      <c r="E8" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="219"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="236" t="s">
-        <v>202</v>
-      </c>
-      <c r="J8" s="236" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="234" t="s">
+      <c r="F8" s="234"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="199" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="L8" s="234" t="s">
+      <c r="L8" s="198" t="s">
         <v>156</v>
       </c>
-      <c r="M8" s="219"/>
-      <c r="N8" s="237" t="s">
+      <c r="M8" s="234"/>
+      <c r="N8" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="237" t="s">
+      <c r="O8" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="238"/>
-      <c r="Q8" s="239"/>
-      <c r="R8" s="240"/>
-      <c r="S8" s="238"/>
-      <c r="T8" s="239"/>
-      <c r="U8" s="240"/>
-      <c r="V8" s="241"/>
-      <c r="W8" s="238"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="242"/>
+      <c r="R8" s="243"/>
+      <c r="S8" s="232"/>
+      <c r="T8" s="242"/>
+      <c r="U8" s="243"/>
+      <c r="V8" s="250"/>
+      <c r="W8" s="232"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="242">
+      <c r="A9" s="201">
         <v>1</v>
       </c>
-      <c r="B9" s="243">
+      <c r="B9" s="202">
         <v>2</v>
       </c>
-      <c r="C9" s="243">
+      <c r="C9" s="202">
         <v>3</v>
       </c>
-      <c r="D9" s="243">
+      <c r="D9" s="202">
         <v>4</v>
       </c>
-      <c r="E9" s="243">
+      <c r="E9" s="202">
         <v>5</v>
       </c>
-      <c r="F9" s="243">
+      <c r="F9" s="202">
         <v>6</v>
       </c>
-      <c r="G9" s="244">
+      <c r="G9" s="203">
         <v>7</v>
       </c>
-      <c r="H9" s="243">
+      <c r="H9" s="202">
         <v>8</v>
       </c>
-      <c r="I9" s="245">
+      <c r="I9" s="204">
         <v>9</v>
       </c>
-      <c r="J9" s="243">
+      <c r="J9" s="202">
         <v>10</v>
       </c>
-      <c r="K9" s="245">
+      <c r="K9" s="204">
         <v>11</v>
       </c>
-      <c r="L9" s="243">
+      <c r="L9" s="202">
         <v>12</v>
       </c>
-      <c r="M9" s="245">
+      <c r="M9" s="204">
         <v>13</v>
       </c>
-      <c r="N9" s="243">
+      <c r="N9" s="202">
         <v>14</v>
       </c>
-      <c r="O9" s="245">
+      <c r="O9" s="204">
         <v>15</v>
       </c>
-      <c r="P9" s="245">
+      <c r="P9" s="204">
         <v>17</v>
       </c>
-      <c r="Q9" s="243">
+      <c r="Q9" s="202">
         <v>18</v>
       </c>
-      <c r="R9" s="245">
+      <c r="R9" s="204">
         <v>19</v>
       </c>
-      <c r="S9" s="243">
+      <c r="S9" s="202">
         <v>20</v>
       </c>
-      <c r="T9" s="243"/>
-      <c r="U9" s="243"/>
-      <c r="V9" s="243">
+      <c r="T9" s="202"/>
+      <c r="U9" s="202"/>
+      <c r="V9" s="202">
         <v>24</v>
       </c>
-      <c r="W9" s="243">
+      <c r="W9" s="202">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="246" t="str">
+    <row r="10" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="205" t="str">
         <f>IF(B10&lt;&gt;"",IF(AND(B10='IN-TC'!$S$4,OR(TH!N10="1111",TH!O10="1111")),TH!D10,""),"")</f>
         <v/>
       </c>
-      <c r="B10" s="247">
+      <c r="B10" s="206">
         <f t="shared" ref="B10:B15" si="0">IF(C10&lt;&gt;"",MONTH(C10),"")</f>
         <v>1</v>
       </c>
-      <c r="C10" s="248">
+      <c r="C10" s="207">
         <f>E10</f>
         <v>42400</v>
       </c>
-      <c r="D10" s="248" t="s">
+      <c r="D10" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="248">
+      <c r="E10" s="207">
         <v>42400</v>
       </c>
-      <c r="F10" s="249" t="s">
+      <c r="F10" s="208" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="249"/>
-      <c r="H10" s="250"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="251"/>
-      <c r="K10" s="252"/>
-      <c r="L10" s="251"/>
-      <c r="M10" s="253">
+      <c r="G10" s="208"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="212">
         <f>CDPS!D57</f>
         <v>30160884.000000477</v>
       </c>
-      <c r="N10" s="254" t="s">
+      <c r="N10" s="213" t="s">
         <v>72</v>
       </c>
-      <c r="O10" s="254" t="s">
+      <c r="O10" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="254" t="str">
+      <c r="P10" s="213" t="str">
         <f>IF(AND(B10='111'!$L$11,OR($N10=$P$7,$O10=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q10" s="254" t="str">
+      <c r="Q10" s="213" t="str">
         <f>IF(AND($N10=$P$7,$B10&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R10" s="254" t="str">
+      <c r="R10" s="213" t="str">
         <f>IF(AND($O10=$P$7,$B10&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S10" s="254" t="str">
+      <c r="S10" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G10,1)),"",IF((AND(FIND(#REF!,G10,1)&gt;=1,B10=#REF!,OR($N10=#REF!,$O10=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T10" s="254" t="str">
+      <c r="T10" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G10,1)),"",IF((AND(LEFT(G10,2)=LEFT(#REF!,2),B10&lt;#REF!,$N10=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U10" s="254" t="str">
+      <c r="U10" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G10,1)),"",IF((AND(RIGHT(G10,2)=RIGHT(#REF!,2),B10&lt;#REF!,$O10=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V10" s="254"/>
-      <c r="W10" s="254" t="str">
+      <c r="V10" s="213"/>
+      <c r="W10" s="213" t="str">
         <f>IF(AND(MONTH(E10)='IN-NX'!$J$5,'IN-NX'!$D$7=D10),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="246" t="str">
+    <row r="11" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="205" t="str">
         <f>IF(B11&lt;&gt;"",IF(AND(B11='IN-TC'!$S$4,OR(TH!N11="1111",TH!O11="1111")),TH!D11,""),"")</f>
         <v/>
       </c>
-      <c r="B11" s="247">
+      <c r="B11" s="206">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C11" s="248">
+      <c r="C11" s="207">
         <f t="shared" ref="C11:C20" si="1">E11</f>
         <v>42400</v>
       </c>
-      <c r="D11" s="248" t="s">
+      <c r="D11" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="248">
+      <c r="E11" s="207">
         <v>42400</v>
       </c>
-      <c r="F11" s="249" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="249"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="251"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="251"/>
-      <c r="M11" s="253">
+      <c r="F11" s="208" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="208"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="210"/>
+      <c r="M11" s="212">
         <f>SUMIF(KHC,N11,TH)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="256" t="s">
-        <v>239</v>
-      </c>
-      <c r="O11" s="254" t="s">
+      <c r="N11" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="O11" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="254" t="str">
+      <c r="P11" s="213" t="str">
         <f>IF(AND(B11='111'!$L$11,OR($N11=$P$7,$O11=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q11" s="254" t="str">
+      <c r="Q11" s="213" t="str">
         <f>IF(AND($N11=$P$7,$B11&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R11" s="254" t="str">
+      <c r="R11" s="213" t="str">
         <f>IF(AND($O11=$P$7,$B11&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S11" s="254" t="str">
+      <c r="S11" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G11,1)),"",IF((AND(FIND(#REF!,G11,1)&gt;=1,B11=#REF!,OR($N11=#REF!,$O11=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T11" s="254" t="str">
+      <c r="T11" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G11,1)),"",IF((AND(LEFT(G11,2)=LEFT(#REF!,2),B11&lt;#REF!,$N11=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U11" s="254" t="str">
+      <c r="U11" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G11,1)),"",IF((AND(RIGHT(G11,2)=RIGHT(#REF!,2),B11&lt;#REF!,$O11=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V11" s="254"/>
-      <c r="W11" s="254" t="str">
+      <c r="V11" s="213"/>
+      <c r="W11" s="213" t="str">
         <f>IF(AND(MONTH(E11)='IN-NX'!$J$5,'IN-NX'!$D$7=D11),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="246" t="str">
+    <row r="12" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="205" t="str">
         <f>IF(B12&lt;&gt;"",IF(AND(B12='IN-TC'!$S$4,OR(TH!N12="1111",TH!O12="1111")),TH!D12,""),"")</f>
         <v/>
       </c>
-      <c r="B12" s="247">
+      <c r="B12" s="206">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="248">
+      <c r="C12" s="207">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
-      <c r="D12" s="248" t="s">
+      <c r="D12" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="248">
+      <c r="E12" s="207">
         <v>42400</v>
       </c>
-      <c r="F12" s="249" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="249"/>
-      <c r="H12" s="250"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="251"/>
-      <c r="K12" s="252"/>
-      <c r="L12" s="251"/>
-      <c r="M12" s="253">
+      <c r="F12" s="208" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="208"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="212">
         <f>SUMIF(KHN,O12,TH)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="256" t="s">
+      <c r="N12" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="O12" s="254" t="s">
+      <c r="O12" s="213" t="s">
         <v>180</v>
       </c>
-      <c r="P12" s="254" t="str">
+      <c r="P12" s="213" t="str">
         <f>IF(AND(B12='111'!$L$11,OR($N12=$P$7,$O12=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q12" s="254" t="str">
+      <c r="Q12" s="213" t="str">
         <f>IF(AND($N12=$P$7,$B12&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R12" s="254" t="str">
+      <c r="R12" s="213" t="str">
         <f>IF(AND($O12=$P$7,$B12&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S12" s="254" t="str">
+      <c r="S12" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G12,1)),"",IF((AND(FIND(#REF!,G12,1)&gt;=1,B12=#REF!,OR($N12=#REF!,$O12=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T12" s="254" t="str">
+      <c r="T12" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G12,1)),"",IF((AND(LEFT(G12,2)=LEFT(#REF!,2),B12&lt;#REF!,$N12=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U12" s="254" t="str">
+      <c r="U12" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G12,1)),"",IF((AND(RIGHT(G12,2)=RIGHT(#REF!,2),B12&lt;#REF!,$O12=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V12" s="254"/>
-      <c r="W12" s="254" t="str">
+      <c r="V12" s="213"/>
+      <c r="W12" s="213" t="str">
         <f>IF(AND(MONTH(E12)='IN-NX'!$J$5,'IN-NX'!$D$7=D12),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="246" t="str">
+    <row r="13" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="205" t="str">
         <f>IF(B13&lt;&gt;"",IF(AND(B13='IN-TC'!$S$4,OR(TH!N13="1111",TH!O13="1111")),TH!D13,""),"")</f>
         <v/>
       </c>
-      <c r="B13" s="247">
+      <c r="B13" s="206">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="248">
+      <c r="C13" s="207">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
-      <c r="D13" s="248" t="s">
+      <c r="D13" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="248">
+      <c r="E13" s="207">
         <v>42400</v>
       </c>
-      <c r="F13" s="249" t="s">
+      <c r="F13" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="249"/>
-      <c r="H13" s="257"/>
-      <c r="I13" s="258"/>
-      <c r="J13" s="258"/>
-      <c r="K13" s="259"/>
-      <c r="L13" s="258"/>
-      <c r="M13" s="253">
+      <c r="G13" s="208"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="217"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="217"/>
+      <c r="M13" s="212">
         <f>SUMIF(KHN,O13,TH)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="254" t="s">
+      <c r="N13" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="O13" s="254" t="s">
+      <c r="O13" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="254" t="str">
+      <c r="P13" s="213" t="str">
         <f>IF(AND(B13='111'!$L$11,OR($N13=$P$7,$O13=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q13" s="254" t="str">
+      <c r="Q13" s="213" t="str">
         <f>IF(AND($N13=$P$7,$B13&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R13" s="254" t="str">
+      <c r="R13" s="213" t="str">
         <f>IF(AND($O13=$P$7,$B13&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S13" s="254" t="str">
+      <c r="S13" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G13,1)),"",IF((AND(FIND(#REF!,G13,1)&gt;=1,B13=#REF!,OR($N13=#REF!,$O13=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T13" s="254" t="str">
+      <c r="T13" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G13,1)),"",IF((AND(LEFT(G13,2)=LEFT(#REF!,2),B13&lt;#REF!,$N13=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U13" s="254" t="str">
+      <c r="U13" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G13,1)),"",IF((AND(RIGHT(G13,2)=RIGHT(#REF!,2),B13&lt;#REF!,$O13=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V13" s="254"/>
-      <c r="W13" s="254" t="str">
+      <c r="V13" s="213"/>
+      <c r="W13" s="213" t="str">
         <f>IF(AND(MONTH(E13)='IN-NX'!$J$5,'IN-NX'!$D$7=D13),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="246" t="str">
+    <row r="14" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="205" t="str">
         <f>IF(B14&lt;&gt;"",IF(AND(B14='IN-TC'!$S$4,OR(TH!N14="1111",TH!O14="1111")),TH!D14,""),"")</f>
         <v/>
       </c>
-      <c r="B14" s="247">
+      <c r="B14" s="206">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="248">
+      <c r="C14" s="207">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
-      <c r="D14" s="248" t="s">
+      <c r="D14" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="248">
+      <c r="E14" s="207">
         <v>42400</v>
       </c>
-      <c r="F14" s="249" t="s">
-        <v>236</v>
-      </c>
-      <c r="G14" s="249"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="251"/>
-      <c r="K14" s="252"/>
-      <c r="L14" s="251"/>
-      <c r="M14" s="253">
+      <c r="F14" s="208" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="208"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="210"/>
+      <c r="M14" s="212">
         <f>SUMIF(KHN,O14,TH)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="254" t="s">
+      <c r="N14" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="254" t="s">
-        <v>212</v>
-      </c>
-      <c r="P14" s="254" t="str">
+      <c r="O14" s="213" t="s">
+        <v>210</v>
+      </c>
+      <c r="P14" s="213" t="str">
         <f>IF(AND(B14='111'!$L$11,OR($N14=$P$7,$O14=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q14" s="254" t="str">
+      <c r="Q14" s="213" t="str">
         <f>IF(AND($N14=$P$7,$B14&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R14" s="254" t="str">
+      <c r="R14" s="213" t="str">
         <f>IF(AND($O14=$P$7,$B14&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S14" s="254" t="str">
+      <c r="S14" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G14,1)),"",IF((AND(FIND(#REF!,G14,1)&gt;=1,B14=#REF!,OR($N14=#REF!,$O14=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T14" s="254" t="str">
+      <c r="T14" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G14,1)),"",IF((AND(LEFT(G14,2)=LEFT(#REF!,2),B14&lt;#REF!,$N14=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U14" s="254" t="str">
+      <c r="U14" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G14,1)),"",IF((AND(RIGHT(G14,2)=RIGHT(#REF!,2),B14&lt;#REF!,$O14=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V14" s="254"/>
-      <c r="W14" s="254" t="str">
+      <c r="V14" s="213"/>
+      <c r="W14" s="213" t="str">
         <f>IF(AND(MONTH(E14)='IN-NX'!$J$5,'IN-NX'!$D$7=D14),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="246" t="str">
+    <row r="15" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="205" t="str">
         <f>IF(B15&lt;&gt;"",IF(AND(B15='IN-TC'!$S$4,OR(TH!N15="1111",TH!O15="1111")),TH!D15,""),"")</f>
         <v/>
       </c>
-      <c r="B15" s="247">
+      <c r="B15" s="206">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C15" s="248">
+      <c r="C15" s="207">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
-      <c r="D15" s="248" t="s">
+      <c r="D15" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="248">
+      <c r="E15" s="207">
         <v>42400</v>
       </c>
-      <c r="F15" s="249" t="s">
+      <c r="F15" s="208" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="249"/>
-      <c r="H15" s="250"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="251"/>
-      <c r="K15" s="252"/>
-      <c r="L15" s="251"/>
-      <c r="M15" s="253">
+      <c r="G15" s="208"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="211"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="212">
         <f>SUMIF(KHN,O15,TH)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="254" t="s">
+      <c r="N15" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="O15" s="254" t="s">
+      <c r="O15" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="P15" s="254" t="str">
+      <c r="P15" s="213" t="str">
         <f>IF(AND(B15='111'!$L$11,OR($N15=$P$7,$O15=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q15" s="254" t="str">
+      <c r="Q15" s="213" t="str">
         <f>IF(AND($N15=$P$7,$B15&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R15" s="254" t="str">
+      <c r="R15" s="213" t="str">
         <f>IF(AND($O15=$P$7,$B15&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S15" s="254" t="str">
+      <c r="S15" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G15,1)),"",IF((AND(FIND(#REF!,G15,1)&gt;=1,B15=#REF!,OR($N15=#REF!,$O15=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T15" s="254" t="str">
+      <c r="T15" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G15,1)),"",IF((AND(LEFT(G15,2)=LEFT(#REF!,2),B15&lt;#REF!,$N15=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U15" s="254" t="str">
+      <c r="U15" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G15,1)),"",IF((AND(RIGHT(G15,2)=RIGHT(#REF!,2),B15&lt;#REF!,$O15=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V15" s="254"/>
-      <c r="W15" s="254" t="str">
+      <c r="V15" s="213"/>
+      <c r="W15" s="213" t="str">
         <f>IF(AND(MONTH(E15)='IN-NX'!$J$5,'IN-NX'!$D$7=D15),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="246" t="str">
+    <row r="16" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="205" t="str">
         <f>IF(B16&lt;&gt;"",IF(AND(B16='IN-TC'!$S$4,OR(TH!N16="1111",TH!O16="1111")),TH!D16,""),"")</f>
         <v/>
       </c>
-      <c r="B16" s="247">
+      <c r="B16" s="206">
         <f t="shared" ref="B16:B24" si="2">IF(C16&lt;&gt;"",MONTH(C16),"")</f>
         <v>1</v>
       </c>
-      <c r="C16" s="248">
+      <c r="C16" s="207">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
-      <c r="D16" s="248" t="s">
+      <c r="D16" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="248">
+      <c r="E16" s="207">
         <v>42400</v>
       </c>
-      <c r="F16" s="249" t="s">
+      <c r="F16" s="208" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="249"/>
-      <c r="H16" s="250"/>
-      <c r="I16" s="251"/>
-      <c r="J16" s="251"/>
-      <c r="K16" s="252"/>
-      <c r="L16" s="251"/>
-      <c r="M16" s="253">
+      <c r="G16" s="208"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="210"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="210"/>
+      <c r="M16" s="212">
         <f>SUMIF(KHC,N16,TH)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="256" t="s">
+      <c r="N16" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="254" t="s">
+      <c r="O16" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="254" t="str">
+      <c r="P16" s="213" t="str">
         <f>IF(AND(B16='111'!$L$11,OR($N16=$P$7,$O16=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q16" s="254" t="str">
+      <c r="Q16" s="213" t="str">
         <f>IF(AND($N16=$P$7,$B16&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R16" s="254" t="str">
+      <c r="R16" s="213" t="str">
         <f>IF(AND($O16=$P$7,$B16&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S16" s="254" t="str">
+      <c r="S16" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G16,1)),"",IF((AND(FIND(#REF!,G16,1)&gt;=1,B16=#REF!,OR($N16=#REF!,$O16=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T16" s="254" t="str">
+      <c r="T16" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G16,1)),"",IF((AND(LEFT(G16,2)=LEFT(#REF!,2),B16&lt;#REF!,$N16=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U16" s="254" t="str">
+      <c r="U16" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G16,1)),"",IF((AND(RIGHT(G16,2)=RIGHT(#REF!,2),B16&lt;#REF!,$O16=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V16" s="254"/>
-      <c r="W16" s="254" t="str">
+      <c r="V16" s="213"/>
+      <c r="W16" s="213" t="str">
         <f>IF(AND(MONTH(E16)='IN-NX'!$J$5,'IN-NX'!$D$7=D16),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="246" t="str">
+    <row r="17" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="205" t="str">
         <f>IF(B17&lt;&gt;"",IF(AND(B17='IN-TC'!$S$4,OR(TH!N17="1111",TH!O17="1111")),TH!D17,""),"")</f>
         <v/>
       </c>
-      <c r="B17" s="247">
+      <c r="B17" s="206">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C17" s="248">
+      <c r="C17" s="207">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
-      <c r="D17" s="248" t="s">
+      <c r="D17" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="248">
+      <c r="E17" s="207">
         <v>42400</v>
       </c>
-      <c r="F17" s="249" t="s">
-        <v>237</v>
-      </c>
-      <c r="G17" s="249"/>
-      <c r="H17" s="257"/>
-      <c r="I17" s="258"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="259"/>
-      <c r="L17" s="258"/>
-      <c r="M17" s="253">
+      <c r="F17" s="208" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="208"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="217"/>
+      <c r="M17" s="212">
         <f>SUMIF(KHC,N17,TH)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="254" t="s">
+      <c r="N17" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="O17" s="254" t="s">
+      <c r="O17" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="254" t="str">
+      <c r="P17" s="213" t="str">
         <f>IF(AND(B17='111'!$L$11,OR($N17=$P$7,$O17=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q17" s="254" t="str">
+      <c r="Q17" s="213" t="str">
         <f>IF(AND($N17=$P$7,$B17&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R17" s="254" t="str">
+      <c r="R17" s="213" t="str">
         <f>IF(AND($O17=$P$7,$B17&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S17" s="254" t="str">
+      <c r="S17" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G17,1)),"",IF((AND(FIND(#REF!,G17,1)&gt;=1,B17=#REF!,OR($N17=#REF!,$O17=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T17" s="254" t="str">
+      <c r="T17" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G17,1)),"",IF((AND(LEFT(G17,2)=LEFT(#REF!,2),B17&lt;#REF!,$N17=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U17" s="254" t="str">
+      <c r="U17" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G17,1)),"",IF((AND(RIGHT(G17,2)=RIGHT(#REF!,2),B17&lt;#REF!,$O17=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V17" s="254"/>
-      <c r="W17" s="254" t="str">
+      <c r="V17" s="213"/>
+      <c r="W17" s="213" t="str">
         <f>IF(AND(MONTH(E17)='IN-NX'!$J$5,'IN-NX'!$D$7=D17),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="246" t="str">
+    <row r="18" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="205" t="str">
         <f>IF(B18&lt;&gt;"",IF(AND(B18='IN-TC'!$S$4,OR(TH!N18="1111",TH!O18="1111")),TH!D18,""),"")</f>
         <v/>
       </c>
-      <c r="B18" s="247">
+      <c r="B18" s="206">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C18" s="248">
+      <c r="C18" s="207">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
-      <c r="D18" s="248" t="s">
+      <c r="D18" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="248">
+      <c r="E18" s="207">
         <v>42400</v>
       </c>
-      <c r="F18" s="249" t="s">
-        <v>238</v>
-      </c>
-      <c r="G18" s="249"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="251"/>
-      <c r="K18" s="252"/>
-      <c r="L18" s="251"/>
-      <c r="M18" s="253">
+      <c r="F18" s="208" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" s="208"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="211"/>
+      <c r="L18" s="210"/>
+      <c r="M18" s="212">
         <f>SUMIF(KHC,N18,TH)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="254" t="s">
+      <c r="N18" s="213" t="s">
         <v>184</v>
       </c>
-      <c r="O18" s="254" t="s">
+      <c r="O18" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="254" t="str">
+      <c r="P18" s="213" t="str">
         <f>IF(AND(B18='111'!$L$11,OR($N18=$P$7,$O18=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q18" s="254" t="str">
+      <c r="Q18" s="213" t="str">
         <f>IF(AND($N18=$P$7,$B18&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R18" s="254" t="str">
+      <c r="R18" s="213" t="str">
         <f>IF(AND($O18=$P$7,$B18&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S18" s="254" t="str">
+      <c r="S18" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G18,1)),"",IF((AND(FIND(#REF!,G18,1)&gt;=1,B18=#REF!,OR($N18=#REF!,$O18=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T18" s="254" t="str">
+      <c r="T18" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G18,1)),"",IF((AND(LEFT(G18,2)=LEFT(#REF!,2),B18&lt;#REF!,$N18=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U18" s="254" t="str">
+      <c r="U18" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G18,1)),"",IF((AND(RIGHT(G18,2)=RIGHT(#REF!,2),B18&lt;#REF!,$O18=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V18" s="254"/>
-      <c r="W18" s="254" t="str">
+      <c r="V18" s="213"/>
+      <c r="W18" s="213" t="str">
         <f>IF(AND(MONTH(E18)='IN-NX'!$J$5,'IN-NX'!$D$7=D18),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="246" t="str">
+    <row r="19" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="205" t="str">
         <f>IF(B19&lt;&gt;"",IF(AND(B19='IN-TC'!$S$4,OR(TH!N19="1111",TH!O19="1111")),TH!D19,""),"")</f>
         <v/>
       </c>
-      <c r="B19" s="247">
+      <c r="B19" s="206">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C19" s="248">
+      <c r="C19" s="207">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
-      <c r="D19" s="248" t="s">
+      <c r="D19" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="248">
+      <c r="E19" s="207">
         <v>42400</v>
       </c>
-      <c r="F19" s="249" t="s">
+      <c r="F19" s="208" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="249"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="251"/>
-      <c r="K19" s="252"/>
-      <c r="L19" s="251"/>
-      <c r="M19" s="253">
+      <c r="G19" s="208"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="211"/>
+      <c r="L19" s="210"/>
+      <c r="M19" s="212">
         <f>SUMIF(KHC,N19,TH)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="254" t="s">
+      <c r="N19" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="O19" s="254" t="s">
+      <c r="O19" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="P19" s="254" t="str">
+      <c r="P19" s="213" t="str">
         <f>IF(AND(B19='111'!$L$11,OR($N19=$P$7,$O19=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q19" s="254" t="str">
+      <c r="Q19" s="213" t="str">
         <f>IF(AND($N19=$P$7,$B19&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R19" s="254" t="str">
+      <c r="R19" s="213" t="str">
         <f>IF(AND($O19=$P$7,$B19&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S19" s="254" t="str">
+      <c r="S19" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G19,1)),"",IF((AND(FIND(#REF!,G19,1)&gt;=1,B19=#REF!,OR($N19=#REF!,$O19=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T19" s="254" t="str">
+      <c r="T19" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G19,1)),"",IF((AND(LEFT(G19,2)=LEFT(#REF!,2),B19&lt;#REF!,$N19=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U19" s="254" t="str">
+      <c r="U19" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G19,1)),"",IF((AND(RIGHT(G19,2)=RIGHT(#REF!,2),B19&lt;#REF!,$O19=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V19" s="254"/>
-      <c r="W19" s="254" t="str">
+      <c r="V19" s="213"/>
+      <c r="W19" s="213" t="str">
         <f>IF(AND(MONTH(E19)='IN-NX'!$J$5,'IN-NX'!$D$7=D19),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="246" t="str">
+    <row r="20" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="205" t="str">
         <f>IF(B20&lt;&gt;"",IF(AND(B20='IN-TC'!$S$4,OR(TH!N20="1111",TH!O20="1111")),TH!D20,""),"")</f>
         <v/>
       </c>
-      <c r="B20" s="247">
+      <c r="B20" s="206">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C20" s="248">
+      <c r="C20" s="207">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
-      <c r="D20" s="248" t="s">
+      <c r="D20" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="248">
+      <c r="E20" s="207">
         <v>42400</v>
       </c>
-      <c r="F20" s="249" t="s">
+      <c r="F20" s="208" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="249"/>
-      <c r="H20" s="250"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="251"/>
-      <c r="K20" s="252"/>
-      <c r="L20" s="251"/>
-      <c r="M20" s="253">
+      <c r="G20" s="208"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="211"/>
+      <c r="L20" s="210"/>
+      <c r="M20" s="212">
         <f>SUMIF(KHN,O20,TH)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="256" t="s">
+      <c r="N20" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="O20" s="254" t="s">
+      <c r="O20" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="P20" s="254" t="str">
+      <c r="P20" s="213" t="str">
         <f>IF(AND(B20='111'!$L$11,OR($N20=$P$7,$O20=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q20" s="254" t="str">
+      <c r="Q20" s="213" t="str">
         <f>IF(AND($N20=$P$7,$B20&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R20" s="254" t="str">
+      <c r="R20" s="213" t="str">
         <f>IF(AND($O20=$P$7,$B20&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S20" s="254" t="str">
+      <c r="S20" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G20,1)),"",IF((AND(FIND(#REF!,G20,1)&gt;=1,B20=#REF!,OR($N20=#REF!,$O20=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T20" s="254" t="str">
+      <c r="T20" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G20,1)),"",IF((AND(LEFT(G20,2)=LEFT(#REF!,2),B20&lt;#REF!,$N20=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U20" s="254" t="str">
+      <c r="U20" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G20,1)),"",IF((AND(RIGHT(G20,2)=RIGHT(#REF!,2),B20&lt;#REF!,$O20=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V20" s="254"/>
-      <c r="W20" s="254" t="str">
+      <c r="V20" s="213"/>
+      <c r="W20" s="213" t="str">
         <f>IF(AND(MONTH(E20)='IN-NX'!$J$5,'IN-NX'!$D$7=D20),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="246" t="str">
+    <row r="21" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="205" t="str">
         <f>IF(B21&lt;&gt;"",IF(AND(B21='IN-TC'!$S$4,OR(TH!N21="1111",TH!O21="1111")),TH!D21,""),"")</f>
         <v/>
       </c>
-      <c r="B21" s="247">
+      <c r="B21" s="206">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C21" s="248">
+      <c r="C21" s="207">
         <f>E21</f>
         <v>42400</v>
       </c>
-      <c r="D21" s="248" t="s">
+      <c r="D21" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="248">
+      <c r="E21" s="207">
         <v>42400</v>
       </c>
-      <c r="F21" s="249" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="249"/>
-      <c r="H21" s="250"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="252"/>
-      <c r="L21" s="251"/>
-      <c r="M21" s="253">
+      <c r="F21" s="208" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="208"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="211"/>
+      <c r="L21" s="210"/>
+      <c r="M21" s="212">
         <v>83335133.599999428</v>
       </c>
-      <c r="N21" s="256" t="s">
+      <c r="N21" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="O21" s="254" t="s">
+      <c r="O21" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="P21" s="254" t="str">
+      <c r="P21" s="213" t="str">
         <f>IF(AND(B21='111'!$L$11,OR($N21=$P$7,$O21=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q21" s="254" t="str">
+      <c r="Q21" s="213" t="str">
         <f>IF(AND($N21=$P$7,$B21&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R21" s="254" t="str">
+      <c r="R21" s="213" t="str">
         <f>IF(AND($O21=$P$7,$B21&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S21" s="254" t="str">
+      <c r="S21" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G21,1)),"",IF((AND(FIND(#REF!,G21,1)&gt;=1,B21=#REF!,OR($N21=#REF!,$O21=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T21" s="254" t="str">
+      <c r="T21" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G21,1)),"",IF((AND(LEFT(G21,2)=LEFT(#REF!,2),B21&lt;#REF!,$N21=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U21" s="254" t="str">
+      <c r="U21" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G21,1)),"",IF((AND(RIGHT(G21,2)=RIGHT(#REF!,2),B21&lt;#REF!,$O21=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V21" s="254"/>
-      <c r="W21" s="254" t="str">
+      <c r="V21" s="213"/>
+      <c r="W21" s="213" t="str">
         <f>IF(AND(MONTH(E21)='IN-NX'!$J$5,'IN-NX'!$D$7=D21),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="246" t="str">
+    <row r="22" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="205" t="str">
         <f>IF(B22&lt;&gt;"",IF(AND(B22='IN-TC'!$S$4,OR(TH!N22="1111",TH!O22="1111")),TH!D22,""),"")</f>
         <v/>
       </c>
-      <c r="B22" s="247">
+      <c r="B22" s="206">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C22" s="248">
+      <c r="C22" s="207">
         <f>E22</f>
         <v>42400</v>
       </c>
-      <c r="D22" s="248" t="s">
+      <c r="D22" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="248">
+      <c r="E22" s="207">
         <v>42400</v>
       </c>
-      <c r="F22" s="249" t="s">
-        <v>242</v>
-      </c>
-      <c r="G22" s="249"/>
-      <c r="H22" s="250"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="251"/>
-      <c r="K22" s="252"/>
-      <c r="L22" s="251"/>
-      <c r="M22" s="253">
+      <c r="F22" s="208" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="208"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="211"/>
+      <c r="L22" s="210"/>
+      <c r="M22" s="212">
         <v>103977877</v>
       </c>
-      <c r="N22" s="256" t="s">
+      <c r="N22" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="254" t="s">
+      <c r="O22" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="254" t="str">
+      <c r="P22" s="213" t="str">
         <f>IF(AND(B22='111'!$L$11,OR($N22=$P$7,$O22=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q22" s="254" t="str">
+      <c r="Q22" s="213" t="str">
         <f>IF(AND($N22=$P$7,$B22&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R22" s="254" t="str">
+      <c r="R22" s="213" t="str">
         <f>IF(AND($O22=$P$7,$B22&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S22" s="254" t="str">
+      <c r="S22" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G22,1)),"",IF((AND(FIND(#REF!,G22,1)&gt;=1,B22=#REF!,OR($N22=#REF!,$O22=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T22" s="254" t="str">
+      <c r="T22" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G22,1)),"",IF((AND(LEFT(G22,2)=LEFT(#REF!,2),B22&lt;#REF!,$N22=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U22" s="254" t="str">
+      <c r="U22" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G22,1)),"",IF((AND(RIGHT(G22,2)=RIGHT(#REF!,2),B22&lt;#REF!,$O22=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V22" s="254"/>
-      <c r="W22" s="254" t="str">
+      <c r="V22" s="213"/>
+      <c r="W22" s="213" t="str">
         <f>IF(AND(MONTH(E22)='IN-NX'!$J$5,'IN-NX'!$D$7=D22),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="246" t="str">
+    <row r="23" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="205" t="str">
         <f>IF(B23&lt;&gt;"",IF(AND(B23='IN-TC'!$S$4,OR(TH!N23="1111",TH!O23="1111")),TH!D23,""),"")</f>
         <v/>
       </c>
-      <c r="B23" s="247">
+      <c r="B23" s="206">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C23" s="248">
+      <c r="C23" s="207">
         <f>E23</f>
         <v>42400</v>
       </c>
-      <c r="D23" s="248" t="s">
+      <c r="D23" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="248">
+      <c r="E23" s="207">
         <v>42400</v>
       </c>
-      <c r="F23" s="249" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="249"/>
-      <c r="H23" s="250"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="251"/>
-      <c r="K23" s="252"/>
-      <c r="L23" s="251"/>
-      <c r="M23" s="253"/>
-      <c r="N23" s="256" t="s">
+      <c r="F23" s="208" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="208"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="211"/>
+      <c r="L23" s="210"/>
+      <c r="M23" s="212"/>
+      <c r="N23" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="O23" s="254" t="s">
+      <c r="O23" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="P23" s="254" t="str">
+      <c r="P23" s="213" t="str">
         <f>IF(AND(B23='111'!$L$11,OR($N23=$P$7,$O23=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q23" s="254" t="str">
+      <c r="Q23" s="213" t="str">
         <f>IF(AND($N23=$P$7,$B23&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R23" s="254" t="str">
+      <c r="R23" s="213" t="str">
         <f>IF(AND($O23=$P$7,$B23&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S23" s="254" t="str">
+      <c r="S23" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G23,1)),"",IF((AND(FIND(#REF!,G23,1)&gt;=1,B23=#REF!,OR($N23=#REF!,$O23=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T23" s="254" t="str">
+      <c r="T23" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G23,1)),"",IF((AND(LEFT(G23,2)=LEFT(#REF!,2),B23&lt;#REF!,$N23=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U23" s="254" t="str">
+      <c r="U23" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G23,1)),"",IF((AND(RIGHT(G23,2)=RIGHT(#REF!,2),B23&lt;#REF!,$O23=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V23" s="254"/>
-      <c r="W23" s="254" t="str">
+      <c r="V23" s="213"/>
+      <c r="W23" s="213" t="str">
         <f>IF(AND(MONTH(E23)='IN-NX'!$J$5,'IN-NX'!$D$7=D23),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:23" s="255" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="246" t="str">
+    <row r="24" spans="1:23" s="214" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="205" t="str">
         <f>IF(B24&lt;&gt;"",IF(AND(B24='IN-TC'!$S$4,OR(TH!N24="1111",TH!O24="1111")),TH!D24,""),"")</f>
         <v/>
       </c>
-      <c r="B24" s="247">
+      <c r="B24" s="206">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C24" s="248">
+      <c r="C24" s="207">
         <f>E24</f>
         <v>42400</v>
       </c>
-      <c r="D24" s="248" t="s">
+      <c r="D24" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="248">
+      <c r="E24" s="207">
         <v>42400</v>
       </c>
-      <c r="F24" s="249" t="s">
+      <c r="F24" s="208" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="208"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="210"/>
+      <c r="M24" s="212"/>
+      <c r="N24" s="215" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="213" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" s="213" t="str">
+        <f>IF(AND(B24='111'!$L$11,OR($N24=$P$7,$O24=$P$7)),"x","")</f>
+        <v/>
+      </c>
+      <c r="Q24" s="213" t="str">
+        <f>IF(AND($N24=$P$7,$B24&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="R24" s="213" t="str">
+        <f>IF(AND($O24=$P$7,$B24&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="S24" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G24,1)),"",IF((AND(FIND(#REF!,G24,1)&gt;=1,B24=#REF!,OR($N24=#REF!,$O24=#REF!))),"x",""))</f>
+        <v/>
+      </c>
+      <c r="T24" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G24,1)),"",IF((AND(LEFT(G24,2)=LEFT(#REF!,2),B24&lt;#REF!,$N24=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="U24" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G24,1)),"",IF((AND(RIGHT(G24,2)=RIGHT(#REF!,2),B24&lt;#REF!,$O24=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="V24" s="213"/>
+      <c r="W24" s="213" t="str">
+        <f>IF(AND(MONTH(E24)='IN-NX'!$J$5,'IN-NX'!$D$7=D24),"x","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A25" s="205" t="str">
+        <f>IF(B25&lt;&gt;"",IF(AND(B25='IN-TC'!$S$4,OR(TH!N25="1111",TH!O25="1111")),TH!D25,""),"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="206">
+        <f t="shared" ref="B25:B30" si="3">IF(C25&lt;&gt;"",MONTH(C25),"")</f>
+        <v>8</v>
+      </c>
+      <c r="C25" s="219">
+        <f t="shared" ref="C25:C44" si="4">E25</f>
+        <v>42959</v>
+      </c>
+      <c r="D25" s="219" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="219">
+        <v>42959</v>
+      </c>
+      <c r="F25" s="180" t="s">
         <v>244</v>
       </c>
-      <c r="G24" s="249"/>
-      <c r="H24" s="250"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="251"/>
-      <c r="K24" s="252"/>
-      <c r="L24" s="251"/>
-      <c r="M24" s="253"/>
-      <c r="N24" s="256" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" s="254" t="s">
-        <v>87</v>
-      </c>
-      <c r="P24" s="254" t="str">
-        <f>IF(AND(B24='111'!$L$11,OR($N24=$P$7,$O24=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q24" s="254" t="str">
-        <f>IF(AND($N24=$P$7,$B24&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R24" s="254" t="str">
-        <f>IF(AND($O24=$P$7,$B24&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S24" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G24,1)),"",IF((AND(FIND(#REF!,G24,1)&gt;=1,B24=#REF!,OR($N24=#REF!,$O24=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T24" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G24,1)),"",IF((AND(LEFT(G24,2)=LEFT(#REF!,2),B24&lt;#REF!,$N24=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U24" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G24,1)),"",IF((AND(RIGHT(G24,2)=RIGHT(#REF!,2),B24&lt;#REF!,$O24=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V24" s="254"/>
-      <c r="W24" s="254" t="str">
-        <f>IF(AND(MONTH(E24)='IN-NX'!$J$5,'IN-NX'!$D$7=D24),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A25" s="246" t="str">
-        <f>IF(B25&lt;&gt;"",IF(AND(B25='IN-TC'!$S$4,OR(TH!N25="1111",TH!O25="1111")),TH!D25,""),"")</f>
-        <v/>
-      </c>
-      <c r="B25" s="247">
-        <f t="shared" ref="B25:B30" si="3">IF(C25&lt;&gt;"",MONTH(C25),"")</f>
-        <v>4</v>
-      </c>
-      <c r="C25" s="260">
-        <f t="shared" ref="C25:C67" si="4">E25</f>
-        <v>42833</v>
-      </c>
-      <c r="D25" s="260" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="260">
-        <v>42833</v>
-      </c>
-      <c r="F25" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" s="261"/>
+      <c r="G25" s="220"/>
       <c r="H25" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I25" s="201">
-        <v>20470</v>
-      </c>
-      <c r="J25" s="202">
-        <v>13000</v>
-      </c>
-      <c r="K25" s="262"/>
-      <c r="L25" s="263"/>
+        <v>194</v>
+      </c>
+      <c r="I25" s="181">
+        <v>11020</v>
+      </c>
+      <c r="J25" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K25" s="221"/>
+      <c r="L25" s="222"/>
       <c r="M25" s="117">
-        <f t="shared" ref="M25:M59" si="5">ROUND(I25*J25,0)</f>
-        <v>266110000</v>
-      </c>
-      <c r="N25" s="264" t="s">
+        <f t="shared" ref="M25:M38" si="5">ROUND(I25*J25,0)</f>
+        <v>170810000</v>
+      </c>
+      <c r="N25" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O25" s="264" t="s">
+      <c r="O25" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="254" t="str">
+      <c r="P25" s="213" t="str">
         <f>IF(AND(B25='111'!$L$11,OR($N25=$P$7,$O25=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q25" s="254" t="str">
+      <c r="Q25" s="213" t="str">
         <f>IF(AND($N25=$P$7,$B25&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R25" s="254" t="str">
+      <c r="R25" s="213" t="str">
         <f>IF(AND($O25=$P$7,$B25&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S25" s="254" t="str">
+      <c r="S25" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G25,1)),"",IF((AND(FIND(#REF!,G25,1)&gt;=1,B25=#REF!,OR($N25=#REF!,$O25=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T25" s="254" t="str">
+      <c r="T25" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G25,1)),"",IF((AND(LEFT(G25,2)=LEFT(#REF!,2),B25&lt;#REF!,$N25=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U25" s="254" t="str">
+      <c r="U25" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G25,1)),"",IF((AND(RIGHT(G25,2)=RIGHT(#REF!,2),B25&lt;#REF!,$O25=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V25" s="254"/>
-      <c r="W25" s="254" t="str">
+      <c r="V25" s="213"/>
+      <c r="W25" s="213" t="str">
         <f>IF(AND(MONTH(E25)='IN-NX'!$J$5,'IN-NX'!$D$7=D25),"x","")</f>
         <v>x</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A26" s="246" t="str">
+      <c r="A26" s="205" t="str">
         <f>IF(B26&lt;&gt;"",IF(AND(B26='IN-TC'!$S$4,OR(TH!N26="1111",TH!O26="1111")),TH!D26,""),"")</f>
         <v/>
       </c>
-      <c r="B26" s="247">
+      <c r="B26" s="206">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C26" s="260">
+        <v>8</v>
+      </c>
+      <c r="C26" s="219">
         <f t="shared" si="4"/>
-        <v>42833</v>
-      </c>
-      <c r="D26" s="260" t="s">
-        <v>248</v>
-      </c>
-      <c r="E26" s="260">
-        <v>42833</v>
-      </c>
-      <c r="F26" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="G26" s="261"/>
+        <v>42959</v>
+      </c>
+      <c r="D26" s="219" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="219">
+        <v>42959</v>
+      </c>
+      <c r="F26" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" s="220"/>
       <c r="H26" s="170" t="s">
-        <v>192</v>
-      </c>
-      <c r="I26" s="201">
-        <v>20450</v>
-      </c>
-      <c r="J26" s="202">
-        <v>13000</v>
-      </c>
-      <c r="K26" s="262"/>
-      <c r="L26" s="263"/>
+        <v>195</v>
+      </c>
+      <c r="I26" s="181">
+        <v>11470</v>
+      </c>
+      <c r="J26" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K26" s="221"/>
+      <c r="L26" s="222"/>
       <c r="M26" s="117">
         <f t="shared" si="5"/>
-        <v>265850000</v>
-      </c>
-      <c r="N26" s="264" t="s">
+        <v>177785000</v>
+      </c>
+      <c r="N26" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O26" s="264" t="s">
+      <c r="O26" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P26" s="254" t="str">
+      <c r="P26" s="213" t="str">
         <f>IF(AND(B26='111'!$L$11,OR($N26=$P$7,$O26=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q26" s="254" t="str">
+      <c r="Q26" s="213" t="str">
         <f>IF(AND($N26=$P$7,$B26&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R26" s="254" t="str">
+      <c r="R26" s="213" t="str">
         <f>IF(AND($O26=$P$7,$B26&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S26" s="254" t="str">
+      <c r="S26" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G26,1)),"",IF((AND(FIND(#REF!,G26,1)&gt;=1,B26=#REF!,OR($N26=#REF!,$O26=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T26" s="254" t="str">
+      <c r="T26" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G26,1)),"",IF((AND(LEFT(G26,2)=LEFT(#REF!,2),B26&lt;#REF!,$N26=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U26" s="254" t="str">
+      <c r="U26" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G26,1)),"",IF((AND(RIGHT(G26,2)=RIGHT(#REF!,2),B26&lt;#REF!,$O26=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V26" s="254"/>
-      <c r="W26" s="254" t="str">
+      <c r="V26" s="213"/>
+      <c r="W26" s="213" t="str">
         <f>IF(AND(MONTH(E26)='IN-NX'!$J$5,'IN-NX'!$D$7=D26),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A27" s="246" t="str">
+      <c r="A27" s="205" t="str">
         <f>IF(B27&lt;&gt;"",IF(AND(B27='IN-TC'!$S$4,OR(TH!N27="1111",TH!O27="1111")),TH!D27,""),"")</f>
         <v/>
       </c>
-      <c r="B27" s="247">
+      <c r="B27" s="206">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C27" s="260">
+        <v>8</v>
+      </c>
+      <c r="C27" s="219">
         <f t="shared" si="4"/>
-        <v>42833</v>
-      </c>
-      <c r="D27" s="260" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="260">
-        <v>42833</v>
-      </c>
-      <c r="F27" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="G27" s="261"/>
+        <v>42959</v>
+      </c>
+      <c r="D27" s="219" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="219">
+        <v>42959</v>
+      </c>
+      <c r="F27" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="220"/>
       <c r="H27" s="170" t="s">
-        <v>245</v>
-      </c>
-      <c r="I27" s="201">
-        <v>19810</v>
-      </c>
-      <c r="J27" s="202">
-        <v>13000</v>
-      </c>
-      <c r="K27" s="262"/>
-      <c r="L27" s="263"/>
+        <v>196</v>
+      </c>
+      <c r="I27" s="181">
+        <v>11250.5</v>
+      </c>
+      <c r="J27" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K27" s="221"/>
+      <c r="L27" s="222"/>
       <c r="M27" s="117">
         <f t="shared" si="5"/>
-        <v>257530000</v>
-      </c>
-      <c r="N27" s="264" t="s">
+        <v>174382750</v>
+      </c>
+      <c r="N27" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O27" s="264" t="s">
+      <c r="O27" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="254" t="str">
+      <c r="P27" s="213" t="str">
         <f>IF(AND(B27='111'!$L$11,OR($N27=$P$7,$O27=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q27" s="254" t="str">
+      <c r="Q27" s="213" t="str">
         <f>IF(AND($N27=$P$7,$B27&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R27" s="254" t="str">
+      <c r="R27" s="213" t="str">
         <f>IF(AND($O27=$P$7,$B27&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S27" s="254" t="str">
+      <c r="S27" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G27,1)),"",IF((AND(FIND(#REF!,G27,1)&gt;=1,B27=#REF!,OR($N27=#REF!,$O27=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T27" s="254" t="str">
+      <c r="T27" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G27,1)),"",IF((AND(LEFT(G27,2)=LEFT(#REF!,2),B27&lt;#REF!,$N27=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U27" s="254" t="str">
+      <c r="U27" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G27,1)),"",IF((AND(RIGHT(G27,2)=RIGHT(#REF!,2),B27&lt;#REF!,$O27=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V27" s="254"/>
-      <c r="W27" s="254" t="str">
+      <c r="V27" s="213"/>
+      <c r="W27" s="213" t="str">
         <f>IF(AND(MONTH(E27)='IN-NX'!$J$5,'IN-NX'!$D$7=D27),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A28" s="246" t="str">
+      <c r="A28" s="205" t="str">
         <f>IF(B28&lt;&gt;"",IF(AND(B28='IN-TC'!$S$4,OR(TH!N28="1111",TH!O28="1111")),TH!D28,""),"")</f>
         <v/>
       </c>
-      <c r="B28" s="247">
+      <c r="B28" s="206">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C28" s="260">
+        <v>8</v>
+      </c>
+      <c r="C28" s="219">
         <f t="shared" si="4"/>
-        <v>42833</v>
-      </c>
-      <c r="D28" s="260" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="260">
-        <v>42833</v>
-      </c>
-      <c r="F28" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="G28" s="261"/>
+        <v>42962</v>
+      </c>
+      <c r="D28" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="219">
+        <v>42962</v>
+      </c>
+      <c r="F28" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" s="220"/>
       <c r="H28" s="170" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="201">
-        <v>21330</v>
-      </c>
-      <c r="J28" s="202">
-        <v>13000</v>
-      </c>
-      <c r="K28" s="262"/>
-      <c r="L28" s="263"/>
+        <v>193</v>
+      </c>
+      <c r="I28" s="181">
+        <v>11465</v>
+      </c>
+      <c r="J28" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K28" s="221"/>
+      <c r="L28" s="222"/>
       <c r="M28" s="117">
         <f t="shared" si="5"/>
-        <v>277290000</v>
-      </c>
-      <c r="N28" s="264" t="s">
+        <v>177707500</v>
+      </c>
+      <c r="N28" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O28" s="264" t="s">
+      <c r="O28" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="254" t="str">
+      <c r="P28" s="213" t="str">
         <f>IF(AND(B28='111'!$L$11,OR($N28=$P$7,$O28=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q28" s="254" t="str">
+      <c r="Q28" s="213" t="str">
         <f>IF(AND($N28=$P$7,$B28&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R28" s="254" t="str">
+      <c r="R28" s="213" t="str">
         <f>IF(AND($O28=$P$7,$B28&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S28" s="254" t="str">
+      <c r="S28" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G28,1)),"",IF((AND(FIND(#REF!,G28,1)&gt;=1,B28=#REF!,OR($N28=#REF!,$O28=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T28" s="254" t="str">
+      <c r="T28" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G28,1)),"",IF((AND(LEFT(G28,2)=LEFT(#REF!,2),B28&lt;#REF!,$N28=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U28" s="254" t="str">
+      <c r="U28" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G28,1)),"",IF((AND(RIGHT(G28,2)=RIGHT(#REF!,2),B28&lt;#REF!,$O28=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V28" s="254"/>
-      <c r="W28" s="254" t="str">
+      <c r="V28" s="213"/>
+      <c r="W28" s="213" t="str">
         <f>IF(AND(MONTH(E28)='IN-NX'!$J$5,'IN-NX'!$D$7=D28),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A29" s="246" t="str">
+      <c r="A29" s="205" t="str">
         <f>IF(B29&lt;&gt;"",IF(AND(B29='IN-TC'!$S$4,OR(TH!N29="1111",TH!O29="1111")),TH!D29,""),"")</f>
         <v/>
       </c>
-      <c r="B29" s="247">
+      <c r="B29" s="206">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C29" s="260">
+        <v>8</v>
+      </c>
+      <c r="C29" s="219">
         <f t="shared" si="4"/>
-        <v>42836</v>
-      </c>
-      <c r="D29" s="260" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="260">
-        <v>42836</v>
-      </c>
-      <c r="F29" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="G29" s="261"/>
+        <v>42962</v>
+      </c>
+      <c r="D29" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="219">
+        <v>42962</v>
+      </c>
+      <c r="F29" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="220"/>
       <c r="H29" s="170" t="s">
-        <v>193</v>
-      </c>
-      <c r="I29" s="201">
-        <v>20350</v>
-      </c>
-      <c r="J29" s="202">
-        <v>13000</v>
-      </c>
-      <c r="K29" s="262"/>
-      <c r="L29" s="263"/>
+        <v>195</v>
+      </c>
+      <c r="I29" s="181">
+        <v>11782</v>
+      </c>
+      <c r="J29" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K29" s="221"/>
+      <c r="L29" s="222"/>
       <c r="M29" s="117">
         <f t="shared" si="5"/>
-        <v>264550000</v>
-      </c>
-      <c r="N29" s="264" t="s">
+        <v>182621000</v>
+      </c>
+      <c r="N29" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O29" s="264" t="s">
+      <c r="O29" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P29" s="254" t="str">
+      <c r="P29" s="213" t="str">
         <f>IF(AND(B29='111'!$L$11,OR($N29=$P$7,$O29=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q29" s="254" t="str">
+      <c r="Q29" s="213" t="str">
         <f>IF(AND($N29=$P$7,$B29&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R29" s="254" t="str">
+      <c r="R29" s="213" t="str">
         <f>IF(AND($O29=$P$7,$B29&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S29" s="254" t="str">
+      <c r="S29" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G29,1)),"",IF((AND(FIND(#REF!,G29,1)&gt;=1,B29=#REF!,OR($N29=#REF!,$O29=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T29" s="254" t="str">
+      <c r="T29" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G29,1)),"",IF((AND(LEFT(G29,2)=LEFT(#REF!,2),B29&lt;#REF!,$N29=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U29" s="254" t="str">
+      <c r="U29" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G29,1)),"",IF((AND(RIGHT(G29,2)=RIGHT(#REF!,2),B29&lt;#REF!,$O29=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V29" s="254"/>
-      <c r="W29" s="254" t="str">
+      <c r="V29" s="213"/>
+      <c r="W29" s="213" t="str">
         <f>IF(AND(MONTH(E29)='IN-NX'!$J$5,'IN-NX'!$D$7=D29),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A30" s="246" t="str">
+      <c r="A30" s="205" t="str">
         <f>IF(B30&lt;&gt;"",IF(AND(B30='IN-TC'!$S$4,OR(TH!N30="1111",TH!O30="1111")),TH!D30,""),"")</f>
         <v/>
       </c>
-      <c r="B30" s="247">
+      <c r="B30" s="206">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C30" s="260">
+        <v>8</v>
+      </c>
+      <c r="C30" s="219">
         <f t="shared" si="4"/>
-        <v>42836</v>
-      </c>
-      <c r="D30" s="260" t="s">
-        <v>252</v>
-      </c>
-      <c r="E30" s="260">
-        <v>42836</v>
-      </c>
-      <c r="F30" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="G30" s="265"/>
+        <v>42964</v>
+      </c>
+      <c r="D30" s="219" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" s="219">
+        <v>42964</v>
+      </c>
+      <c r="F30" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" s="224"/>
       <c r="H30" s="170" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="201">
-        <v>21420</v>
-      </c>
-      <c r="J30" s="202">
-        <v>13000</v>
-      </c>
-      <c r="K30" s="262"/>
-      <c r="L30" s="263"/>
+        <v>196</v>
+      </c>
+      <c r="I30" s="181">
+        <v>11860</v>
+      </c>
+      <c r="J30" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K30" s="221"/>
+      <c r="L30" s="222"/>
       <c r="M30" s="117">
         <f t="shared" si="5"/>
-        <v>278460000</v>
-      </c>
-      <c r="N30" s="264" t="s">
+        <v>183830000</v>
+      </c>
+      <c r="N30" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O30" s="264" t="s">
+      <c r="O30" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P30" s="254" t="str">
+      <c r="P30" s="213" t="str">
         <f>IF(AND(B30='111'!$L$11,OR($N30=$P$7,$O30=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q30" s="254" t="str">
+      <c r="Q30" s="213" t="str">
         <f>IF(AND($N30=$P$7,$B30&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R30" s="254" t="str">
+      <c r="R30" s="213" t="str">
         <f>IF(AND($O30=$P$7,$B30&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S30" s="254" t="str">
+      <c r="S30" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G30,1)),"",IF((AND(FIND(#REF!,G30,1)&gt;=1,B30=#REF!,OR($N30=#REF!,$O30=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T30" s="254" t="str">
+      <c r="T30" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G30,1)),"",IF((AND(LEFT(G30,2)=LEFT(#REF!,2),B30&lt;#REF!,$N30=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U30" s="254" t="str">
+      <c r="U30" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G30,1)),"",IF((AND(RIGHT(G30,2)=RIGHT(#REF!,2),B30&lt;#REF!,$O30=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V30" s="254"/>
-      <c r="W30" s="254" t="str">
+      <c r="V30" s="213"/>
+      <c r="W30" s="213" t="str">
         <f>IF(AND(MONTH(E30)='IN-NX'!$J$5,'IN-NX'!$D$7=D30),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A31" s="246" t="str">
+      <c r="A31" s="205" t="str">
         <f>IF(B31&lt;&gt;"",IF(AND(B31='IN-TC'!$S$4,OR(TH!N31="1111",TH!O31="1111")),TH!D31,""),"")</f>
         <v/>
       </c>
-      <c r="B31" s="247">
+      <c r="B31" s="206">
         <f t="shared" ref="B31:B34" si="6">IF(C31&lt;&gt;"",MONTH(C31),"")</f>
-        <v>4</v>
-      </c>
-      <c r="C31" s="260">
+        <v>8</v>
+      </c>
+      <c r="C31" s="219">
         <f t="shared" si="4"/>
-        <v>42836</v>
-      </c>
-      <c r="D31" s="260" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31" s="260">
-        <v>42836</v>
-      </c>
-      <c r="F31" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="G31" s="265"/>
+        <v>42964</v>
+      </c>
+      <c r="D31" s="219" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="219">
+        <v>42964</v>
+      </c>
+      <c r="F31" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="224"/>
       <c r="H31" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="I31" s="201">
-        <v>20845</v>
-      </c>
-      <c r="J31" s="202">
-        <v>13000</v>
-      </c>
-      <c r="K31" s="262"/>
-      <c r="L31" s="263"/>
+        <v>243</v>
+      </c>
+      <c r="I31" s="181">
+        <v>11680</v>
+      </c>
+      <c r="J31" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K31" s="221"/>
+      <c r="L31" s="222"/>
       <c r="M31" s="117">
         <f t="shared" si="5"/>
-        <v>270985000</v>
-      </c>
-      <c r="N31" s="264" t="s">
+        <v>181040000</v>
+      </c>
+      <c r="N31" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O31" s="264" t="s">
+      <c r="O31" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P31" s="254" t="str">
+      <c r="P31" s="213" t="str">
         <f>IF(AND(B31='111'!$L$11,OR($N31=$P$7,$O31=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q31" s="254" t="str">
+      <c r="Q31" s="213" t="str">
         <f>IF(AND($N31=$P$7,$B31&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R31" s="254" t="str">
+      <c r="R31" s="213" t="str">
         <f>IF(AND($O31=$P$7,$B31&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S31" s="254" t="str">
+      <c r="S31" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G31,1)),"",IF((AND(FIND(#REF!,G31,1)&gt;=1,B31=#REF!,OR($N31=#REF!,$O31=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T31" s="254" t="str">
+      <c r="T31" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G31,1)),"",IF((AND(LEFT(G31,2)=LEFT(#REF!,2),B31&lt;#REF!,$N31=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U31" s="254" t="str">
+      <c r="U31" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G31,1)),"",IF((AND(RIGHT(G31,2)=RIGHT(#REF!,2),B31&lt;#REF!,$O31=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V31" s="254"/>
-      <c r="W31" s="254" t="str">
+      <c r="V31" s="213"/>
+      <c r="W31" s="213" t="str">
         <f>IF(AND(MONTH(E31)='IN-NX'!$J$5,'IN-NX'!$D$7=D31),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A32" s="246" t="str">
+      <c r="A32" s="205" t="str">
         <f>IF(B32&lt;&gt;"",IF(AND(B32='IN-TC'!$S$4,OR(TH!N32="1111",TH!O32="1111")),TH!D32,""),"")</f>
         <v/>
       </c>
-      <c r="B32" s="247">
+      <c r="B32" s="206">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C32" s="260">
+        <v>8</v>
+      </c>
+      <c r="C32" s="219">
         <f t="shared" si="4"/>
-        <v>42836</v>
-      </c>
-      <c r="D32" s="260" t="s">
-        <v>254</v>
-      </c>
-      <c r="E32" s="260">
-        <v>42836</v>
-      </c>
-      <c r="F32" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="G32" s="265"/>
+        <v>42967</v>
+      </c>
+      <c r="D32" s="219" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" s="219">
+        <v>42967</v>
+      </c>
+      <c r="F32" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="224"/>
       <c r="H32" s="170" t="s">
-        <v>195</v>
-      </c>
-      <c r="I32" s="201">
-        <v>20613</v>
-      </c>
-      <c r="J32" s="202">
-        <v>13000</v>
-      </c>
-      <c r="K32" s="262"/>
-      <c r="L32" s="263"/>
+        <v>196</v>
+      </c>
+      <c r="I32" s="181">
+        <v>11025</v>
+      </c>
+      <c r="J32" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K32" s="221"/>
+      <c r="L32" s="222"/>
       <c r="M32" s="117">
         <f t="shared" si="5"/>
-        <v>267969000</v>
-      </c>
-      <c r="N32" s="264" t="s">
+        <v>170887500</v>
+      </c>
+      <c r="N32" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O32" s="264" t="s">
+      <c r="O32" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="254" t="str">
+      <c r="P32" s="213" t="str">
         <f>IF(AND(B32='111'!$L$11,OR($N32=$P$7,$O32=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q32" s="254" t="str">
+      <c r="Q32" s="213" t="str">
         <f>IF(AND($N32=$P$7,$B32&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R32" s="254" t="str">
+      <c r="R32" s="213" t="str">
         <f>IF(AND($O32=$P$7,$B32&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S32" s="254" t="str">
+      <c r="S32" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G32,1)),"",IF((AND(FIND(#REF!,G32,1)&gt;=1,B32=#REF!,OR($N32=#REF!,$O32=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T32" s="254" t="str">
+      <c r="T32" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G32,1)),"",IF((AND(LEFT(G32,2)=LEFT(#REF!,2),B32&lt;#REF!,$N32=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U32" s="254" t="str">
+      <c r="U32" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G32,1)),"",IF((AND(RIGHT(G32,2)=RIGHT(#REF!,2),B32&lt;#REF!,$O32=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V32" s="254"/>
-      <c r="W32" s="254" t="str">
+      <c r="V32" s="213"/>
+      <c r="W32" s="213" t="str">
         <f>IF(AND(MONTH(E32)='IN-NX'!$J$5,'IN-NX'!$D$7=D32),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A33" s="246" t="str">
+      <c r="A33" s="205" t="str">
         <f>IF(B33&lt;&gt;"",IF(AND(B33='IN-TC'!$S$4,OR(TH!N33="1111",TH!O33="1111")),TH!D33,""),"")</f>
         <v/>
       </c>
-      <c r="B33" s="247">
+      <c r="B33" s="206">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C33" s="260">
+        <v>8</v>
+      </c>
+      <c r="C33" s="219">
         <f t="shared" si="4"/>
-        <v>42838</v>
-      </c>
-      <c r="D33" s="260" t="s">
-        <v>255</v>
-      </c>
-      <c r="E33" s="260">
-        <v>42838</v>
-      </c>
-      <c r="F33" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="G33" s="265"/>
+        <v>42967</v>
+      </c>
+      <c r="D33" s="219" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="219">
+        <v>42967</v>
+      </c>
+      <c r="F33" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="224"/>
       <c r="H33" s="170" t="s">
-        <v>192</v>
-      </c>
-      <c r="I33" s="201">
-        <v>20520</v>
-      </c>
-      <c r="J33" s="202">
-        <v>13000</v>
-      </c>
-      <c r="K33" s="262"/>
-      <c r="L33" s="263"/>
+        <v>193</v>
+      </c>
+      <c r="I33" s="181">
+        <v>11230</v>
+      </c>
+      <c r="J33" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K33" s="221"/>
+      <c r="L33" s="222"/>
       <c r="M33" s="117">
         <f t="shared" si="5"/>
-        <v>266760000</v>
-      </c>
-      <c r="N33" s="264" t="s">
+        <v>174065000</v>
+      </c>
+      <c r="N33" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O33" s="264" t="s">
+      <c r="O33" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P33" s="254" t="str">
+      <c r="P33" s="213" t="str">
         <f>IF(AND(B33='111'!$L$11,OR($N33=$P$7,$O33=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q33" s="254" t="str">
+      <c r="Q33" s="213" t="str">
         <f>IF(AND($N33=$P$7,$B33&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R33" s="254" t="str">
+      <c r="R33" s="213" t="str">
         <f>IF(AND($O33=$P$7,$B33&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S33" s="254" t="str">
+      <c r="S33" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G33,1)),"",IF((AND(FIND(#REF!,G33,1)&gt;=1,B33=#REF!,OR($N33=#REF!,$O33=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T33" s="254" t="str">
+      <c r="T33" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G33,1)),"",IF((AND(LEFT(G33,2)=LEFT(#REF!,2),B33&lt;#REF!,$N33=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U33" s="254" t="str">
+      <c r="U33" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G33,1)),"",IF((AND(RIGHT(G33,2)=RIGHT(#REF!,2),B33&lt;#REF!,$O33=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V33" s="254"/>
-      <c r="W33" s="254" t="str">
+      <c r="V33" s="213"/>
+      <c r="W33" s="213" t="str">
         <f>IF(AND(MONTH(E33)='IN-NX'!$J$5,'IN-NX'!$D$7=D33),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A34" s="246" t="str">
+      <c r="A34" s="205" t="str">
         <f>IF(B34&lt;&gt;"",IF(AND(B34='IN-TC'!$S$4,OR(TH!N34="1111",TH!O34="1111")),TH!D34,""),"")</f>
         <v/>
       </c>
-      <c r="B34" s="247">
+      <c r="B34" s="206">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C34" s="260">
+        <v>8</v>
+      </c>
+      <c r="C34" s="219">
         <f t="shared" si="4"/>
-        <v>42838</v>
-      </c>
-      <c r="D34" s="260" t="s">
-        <v>256</v>
-      </c>
-      <c r="E34" s="260">
-        <v>42838</v>
-      </c>
-      <c r="F34" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G34" s="265"/>
+        <v>42972</v>
+      </c>
+      <c r="D34" s="219" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="219">
+        <v>42972</v>
+      </c>
+      <c r="F34" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="224"/>
       <c r="H34" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I34" s="203">
-        <v>22340</v>
-      </c>
-      <c r="J34" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K34" s="262"/>
-      <c r="L34" s="263"/>
+        <v>192</v>
+      </c>
+      <c r="I34" s="183">
+        <v>11450</v>
+      </c>
+      <c r="J34" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K34" s="221"/>
+      <c r="L34" s="222"/>
       <c r="M34" s="117">
         <f t="shared" si="5"/>
-        <v>357440000</v>
-      </c>
-      <c r="N34" s="264" t="s">
+        <v>177475000</v>
+      </c>
+      <c r="N34" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O34" s="264" t="s">
+      <c r="O34" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P34" s="254" t="str">
+      <c r="P34" s="213" t="str">
         <f>IF(AND(B34='111'!$L$11,OR($N34=$P$7,$O34=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q34" s="254" t="str">
+      <c r="Q34" s="213" t="str">
         <f>IF(AND($N34=$P$7,$B34&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R34" s="254" t="str">
+      <c r="R34" s="213" t="str">
         <f>IF(AND($O34=$P$7,$B34&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S34" s="254" t="str">
+      <c r="S34" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G34,1)),"",IF((AND(FIND(#REF!,G34,1)&gt;=1,B34=#REF!,OR($N34=#REF!,$O34=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T34" s="254" t="str">
+      <c r="T34" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G34,1)),"",IF((AND(LEFT(G34,2)=LEFT(#REF!,2),B34&lt;#REF!,$N34=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U34" s="254" t="str">
+      <c r="U34" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G34,1)),"",IF((AND(RIGHT(G34,2)=RIGHT(#REF!,2),B34&lt;#REF!,$O34=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V34" s="254"/>
-      <c r="W34" s="254" t="str">
+      <c r="V34" s="213"/>
+      <c r="W34" s="213" t="str">
         <f>IF(AND(MONTH(E34)='IN-NX'!$J$5,'IN-NX'!$D$7=D34),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A35" s="246" t="str">
+      <c r="A35" s="205" t="str">
         <f>IF(B35&lt;&gt;"",IF(AND(B35='IN-TC'!$S$4,OR(TH!N35="1111",TH!O35="1111")),TH!D35,""),"")</f>
         <v/>
       </c>
-      <c r="B35" s="247">
+      <c r="B35" s="206">
         <f t="shared" ref="B35:B36" si="7">IF(C35&lt;&gt;"",MONTH(C35),"")</f>
-        <v>4</v>
-      </c>
-      <c r="C35" s="260">
+        <v>8</v>
+      </c>
+      <c r="C35" s="219">
         <f t="shared" si="4"/>
-        <v>42838</v>
-      </c>
-      <c r="D35" s="260" t="s">
-        <v>257</v>
-      </c>
-      <c r="E35" s="260">
-        <v>42838</v>
-      </c>
-      <c r="F35" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G35" s="261"/>
+        <v>42972</v>
+      </c>
+      <c r="D35" s="219" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="219">
+        <v>42972</v>
+      </c>
+      <c r="F35" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" s="220"/>
       <c r="H35" s="170" t="s">
-        <v>245</v>
-      </c>
-      <c r="I35" s="201">
-        <v>21350</v>
-      </c>
-      <c r="J35" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K35" s="262"/>
-      <c r="L35" s="263"/>
+        <v>194</v>
+      </c>
+      <c r="I35" s="181">
+        <v>11376</v>
+      </c>
+      <c r="J35" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K35" s="221"/>
+      <c r="L35" s="222"/>
       <c r="M35" s="117">
         <f t="shared" si="5"/>
-        <v>341600000</v>
-      </c>
-      <c r="N35" s="264" t="s">
+        <v>176328000</v>
+      </c>
+      <c r="N35" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O35" s="264" t="s">
+      <c r="O35" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="254" t="str">
+      <c r="P35" s="213" t="str">
         <f>IF(AND(B35='111'!$L$11,OR($N35=$P$7,$O35=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q35" s="254" t="str">
+      <c r="Q35" s="213" t="str">
         <f>IF(AND($N35=$P$7,$B35&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R35" s="254" t="str">
+      <c r="R35" s="213" t="str">
         <f>IF(AND($O35=$P$7,$B35&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S35" s="254" t="str">
+      <c r="S35" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G35,1)),"",IF((AND(FIND(#REF!,G35,1)&gt;=1,B35=#REF!,OR($N35=#REF!,$O35=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T35" s="254" t="str">
+      <c r="T35" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G35,1)),"",IF((AND(LEFT(G35,2)=LEFT(#REF!,2),B35&lt;#REF!,$N35=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U35" s="254" t="str">
+      <c r="U35" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G35,1)),"",IF((AND(RIGHT(G35,2)=RIGHT(#REF!,2),B35&lt;#REF!,$O35=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V35" s="254"/>
-      <c r="W35" s="254" t="str">
+      <c r="V35" s="213"/>
+      <c r="W35" s="213" t="str">
         <f>IF(AND(MONTH(E35)='IN-NX'!$J$5,'IN-NX'!$D$7=D35),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A36" s="246" t="str">
+      <c r="A36" s="205" t="str">
         <f>IF(B36&lt;&gt;"",IF(AND(B36='IN-TC'!$S$4,OR(TH!N36="1111",TH!O36="1111")),TH!D36,""),"")</f>
         <v/>
       </c>
-      <c r="B36" s="247">
+      <c r="B36" s="206">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="C36" s="260">
+        <v>8</v>
+      </c>
+      <c r="C36" s="219">
         <f t="shared" si="4"/>
-        <v>42838</v>
-      </c>
-      <c r="D36" s="260" t="s">
-        <v>258</v>
-      </c>
-      <c r="E36" s="260">
-        <v>42838</v>
-      </c>
-      <c r="F36" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G36" s="261"/>
+        <v>42972</v>
+      </c>
+      <c r="D36" s="219" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" s="219">
+        <v>42972</v>
+      </c>
+      <c r="F36" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="220"/>
       <c r="H36" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="I36" s="201">
-        <v>21745</v>
-      </c>
-      <c r="J36" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K36" s="262"/>
-      <c r="L36" s="263"/>
+      <c r="I36" s="181">
+        <v>11500</v>
+      </c>
+      <c r="J36" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K36" s="221"/>
+      <c r="L36" s="222"/>
       <c r="M36" s="117">
         <f t="shared" si="5"/>
-        <v>347920000</v>
-      </c>
-      <c r="N36" s="264" t="s">
+        <v>178250000</v>
+      </c>
+      <c r="N36" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O36" s="264" t="s">
+      <c r="O36" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P36" s="254" t="str">
+      <c r="P36" s="213" t="str">
         <f>IF(AND(B36='111'!$L$11,OR($N36=$P$7,$O36=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q36" s="254" t="str">
+      <c r="Q36" s="213" t="str">
         <f>IF(AND($N36=$P$7,$B36&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R36" s="254" t="str">
+      <c r="R36" s="213" t="str">
         <f>IF(AND($O36=$P$7,$B36&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S36" s="254" t="str">
+      <c r="S36" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G36,1)),"",IF((AND(FIND(#REF!,G36,1)&gt;=1,B36=#REF!,OR($N36=#REF!,$O36=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T36" s="254" t="str">
+      <c r="T36" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G36,1)),"",IF((AND(LEFT(G36,2)=LEFT(#REF!,2),B36&lt;#REF!,$N36=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U36" s="254" t="str">
+      <c r="U36" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G36,1)),"",IF((AND(RIGHT(G36,2)=RIGHT(#REF!,2),B36&lt;#REF!,$O36=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V36" s="254"/>
-      <c r="W36" s="254" t="str">
+      <c r="V36" s="213"/>
+      <c r="W36" s="213" t="str">
         <f>IF(AND(MONTH(E36)='IN-NX'!$J$5,'IN-NX'!$D$7=D36),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A37" s="246" t="str">
+      <c r="A37" s="205" t="str">
         <f>IF(B37&lt;&gt;"",IF(AND(B37='IN-TC'!$S$4,OR(TH!N37="1111",TH!O37="1111")),TH!D37,""),"")</f>
         <v/>
       </c>
-      <c r="B37" s="247">
-        <f t="shared" ref="B37:B40" si="8">IF(C37&lt;&gt;"",MONTH(C37),"")</f>
-        <v>4</v>
-      </c>
-      <c r="C37" s="260">
+      <c r="B37" s="206">
+        <f t="shared" ref="B37:B38" si="8">IF(C37&lt;&gt;"",MONTH(C37),"")</f>
+        <v>8</v>
+      </c>
+      <c r="C37" s="219">
         <f t="shared" si="4"/>
-        <v>42839</v>
-      </c>
-      <c r="D37" s="260" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37" s="260">
-        <v>42839</v>
-      </c>
-      <c r="F37" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G37" s="261"/>
+        <v>42977</v>
+      </c>
+      <c r="D37" s="219" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" s="219">
+        <v>42977</v>
+      </c>
+      <c r="F37" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="220"/>
       <c r="H37" s="170" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="201">
-        <v>20750</v>
-      </c>
-      <c r="J37" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K37" s="262"/>
-      <c r="L37" s="263"/>
+        <v>243</v>
+      </c>
+      <c r="I37" s="181">
+        <v>11375</v>
+      </c>
+      <c r="J37" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K37" s="221"/>
+      <c r="L37" s="222"/>
       <c r="M37" s="117">
         <f t="shared" si="5"/>
-        <v>332000000</v>
-      </c>
-      <c r="N37" s="264" t="s">
+        <v>176312500</v>
+      </c>
+      <c r="N37" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O37" s="264" t="s">
+      <c r="O37" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P37" s="254" t="str">
+      <c r="P37" s="213" t="str">
         <f>IF(AND(B37='111'!$L$11,OR($N37=$P$7,$O37=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q37" s="254" t="str">
+      <c r="Q37" s="213" t="str">
         <f>IF(AND($N37=$P$7,$B37&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R37" s="254" t="str">
+      <c r="R37" s="213" t="str">
         <f>IF(AND($O37=$P$7,$B37&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S37" s="254" t="str">
+      <c r="S37" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G37,1)),"",IF((AND(FIND(#REF!,G37,1)&gt;=1,B37=#REF!,OR($N37=#REF!,$O37=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T37" s="254" t="str">
+      <c r="T37" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G37,1)),"",IF((AND(LEFT(G37,2)=LEFT(#REF!,2),B37&lt;#REF!,$N37=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U37" s="254" t="str">
+      <c r="U37" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G37,1)),"",IF((AND(RIGHT(G37,2)=RIGHT(#REF!,2),B37&lt;#REF!,$O37=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V37" s="254"/>
-      <c r="W37" s="254" t="str">
+      <c r="V37" s="213"/>
+      <c r="W37" s="213" t="str">
         <f>IF(AND(MONTH(E37)='IN-NX'!$J$5,'IN-NX'!$D$7=D37),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A38" s="246" t="str">
+      <c r="A38" s="205" t="str">
         <f>IF(B38&lt;&gt;"",IF(AND(B38='IN-TC'!$S$4,OR(TH!N38="1111",TH!O38="1111")),TH!D38,""),"")</f>
         <v/>
       </c>
-      <c r="B38" s="247">
+      <c r="B38" s="206">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="C38" s="260">
+        <v>8</v>
+      </c>
+      <c r="C38" s="219">
         <f t="shared" si="4"/>
-        <v>42839</v>
-      </c>
-      <c r="D38" s="260" t="s">
-        <v>260</v>
-      </c>
-      <c r="E38" s="260">
-        <v>42839</v>
-      </c>
-      <c r="F38" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38" s="261"/>
+        <v>42977</v>
+      </c>
+      <c r="D38" s="219" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" s="219">
+        <v>42977</v>
+      </c>
+      <c r="F38" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" s="220"/>
       <c r="H38" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="I38" s="201">
-        <v>21456</v>
-      </c>
-      <c r="J38" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K38" s="262"/>
-      <c r="L38" s="263"/>
+        <v>195</v>
+      </c>
+      <c r="I38" s="181">
+        <v>11455</v>
+      </c>
+      <c r="J38" s="182">
+        <v>15500</v>
+      </c>
+      <c r="K38" s="221"/>
+      <c r="L38" s="222"/>
       <c r="M38" s="117">
         <f t="shared" si="5"/>
-        <v>343296000</v>
-      </c>
-      <c r="N38" s="264" t="s">
+        <v>177552500</v>
+      </c>
+      <c r="N38" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="O38" s="264" t="s">
+      <c r="O38" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P38" s="254" t="str">
+      <c r="P38" s="213" t="str">
         <f>IF(AND(B38='111'!$L$11,OR($N38=$P$7,$O38=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q38" s="254" t="str">
+      <c r="Q38" s="213" t="str">
         <f>IF(AND($N38=$P$7,$B38&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R38" s="254" t="str">
+      <c r="R38" s="213" t="str">
         <f>IF(AND($O38=$P$7,$B38&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S38" s="254" t="str">
+      <c r="S38" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G38,1)),"",IF((AND(FIND(#REF!,G38,1)&gt;=1,B38=#REF!,OR($N38=#REF!,$O38=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T38" s="254" t="str">
+      <c r="T38" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G38,1)),"",IF((AND(LEFT(G38,2)=LEFT(#REF!,2),B38&lt;#REF!,$N38=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U38" s="254" t="str">
+      <c r="U38" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G38,1)),"",IF((AND(RIGHT(G38,2)=RIGHT(#REF!,2),B38&lt;#REF!,$O38=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V38" s="254"/>
-      <c r="W38" s="254" t="str">
+      <c r="V38" s="213"/>
+      <c r="W38" s="213" t="str">
         <f>IF(AND(MONTH(E38)='IN-NX'!$J$5,'IN-NX'!$D$7=D38),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A39" s="246" t="str">
+      <c r="A39" s="205" t="str">
         <f>IF(B39&lt;&gt;"",IF(AND(B39='IN-TC'!$S$4,OR(TH!N39="1111",TH!O39="1111")),TH!D39,""),"")</f>
-        <v/>
-      </c>
-      <c r="B39" s="247">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="C39" s="260">
+        <v>C01</v>
+      </c>
+      <c r="B39" s="206">
+        <f t="shared" ref="B39:B44" si="9">IF(C39&lt;&gt;"",MONTH(C39),"")</f>
+        <v>9</v>
+      </c>
+      <c r="C39" s="219">
         <f t="shared" si="4"/>
-        <v>42839</v>
-      </c>
-      <c r="D39" s="260" t="s">
+        <v>42985</v>
+      </c>
+      <c r="D39" s="219" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="219">
+        <v>42985</v>
+      </c>
+      <c r="F39" s="220" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" s="224"/>
+      <c r="H39" s="170" t="s">
+        <v>243</v>
+      </c>
+      <c r="I39" s="222"/>
+      <c r="J39" s="222"/>
+      <c r="K39" s="221"/>
+      <c r="L39" s="222"/>
+      <c r="M39" s="117">
+        <f t="shared" ref="M39:M44" si="10">SUMIF($H$25:$H$38,H39,$M$25:$M$38)</f>
+        <v>357352500</v>
+      </c>
+      <c r="N39" s="223" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" s="213" t="str">
+        <f>IF(AND(B39='111'!$L$11,OR($N39=$P$7,$O39=$P$7)),"x","")</f>
+        <v/>
+      </c>
+      <c r="Q39" s="213" t="str">
+        <f>IF(AND($N39=$P$7,$B39&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="R39" s="213" t="str">
+        <f>IF(AND($O39=$P$7,$B39&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="S39" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G39,1)),"",IF((AND(FIND(#REF!,G39,1)&gt;=1,B39=#REF!,OR($N39=#REF!,$O39=#REF!))),"x",""))</f>
+        <v/>
+      </c>
+      <c r="T39" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G39,1)),"",IF((AND(LEFT(G39,2)=LEFT(#REF!,2),B39&lt;#REF!,$N39=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="U39" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G39,1)),"",IF((AND(RIGHT(G39,2)=RIGHT(#REF!,2),B39&lt;#REF!,$O39=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="V39" s="213"/>
+      <c r="W39" s="213" t="str">
+        <f>IF(AND(MONTH(E39)='IN-NX'!$J$5,'IN-NX'!$D$7=D39),"x","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A40" s="205" t="str">
+        <f>IF(B40&lt;&gt;"",IF(AND(B40='IN-TC'!$S$4,OR(TH!N40="1111",TH!O40="1111")),TH!D40,""),"")</f>
+        <v>C02</v>
+      </c>
+      <c r="B40" s="206">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="C40" s="219">
+        <f t="shared" si="4"/>
+        <v>42985</v>
+      </c>
+      <c r="D40" s="219" t="s">
         <v>261</v>
       </c>
-      <c r="E39" s="260">
-        <v>42839</v>
-      </c>
-      <c r="F39" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G39" s="261"/>
-      <c r="H39" s="170" t="s">
+      <c r="E40" s="219">
+        <v>42985</v>
+      </c>
+      <c r="F40" s="220" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" s="224"/>
+      <c r="H40" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="I39" s="201">
-        <v>20835</v>
-      </c>
-      <c r="J39" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K39" s="262"/>
-      <c r="L39" s="263"/>
-      <c r="M39" s="117">
-        <f t="shared" si="5"/>
-        <v>333360000</v>
-      </c>
-      <c r="N39" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O39" s="264" t="s">
+      <c r="I40" s="222"/>
+      <c r="J40" s="222"/>
+      <c r="K40" s="221"/>
+      <c r="L40" s="222"/>
+      <c r="M40" s="117">
+        <f t="shared" si="10"/>
+        <v>537958500</v>
+      </c>
+      <c r="N40" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P39" s="254" t="str">
-        <f>IF(AND(B39='111'!$L$11,OR($N39=$P$7,$O39=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q39" s="254" t="str">
-        <f>IF(AND($N39=$P$7,$B39&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R39" s="254" t="str">
-        <f>IF(AND($O39=$P$7,$B39&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S39" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G39,1)),"",IF((AND(FIND(#REF!,G39,1)&gt;=1,B39=#REF!,OR($N39=#REF!,$O39=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T39" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G39,1)),"",IF((AND(LEFT(G39,2)=LEFT(#REF!,2),B39&lt;#REF!,$N39=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U39" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G39,1)),"",IF((AND(RIGHT(G39,2)=RIGHT(#REF!,2),B39&lt;#REF!,$O39=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V39" s="254"/>
-      <c r="W39" s="254" t="str">
-        <f>IF(AND(MONTH(E39)='IN-NX'!$J$5,'IN-NX'!$D$7=D39),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A40" s="246" t="str">
-        <f>IF(B40&lt;&gt;"",IF(AND(B40='IN-TC'!$S$4,OR(TH!N40="1111",TH!O40="1111")),TH!D40,""),"")</f>
-        <v/>
-      </c>
-      <c r="B40" s="247">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="C40" s="260">
+      <c r="O40" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" s="213" t="str">
+        <f>IF(AND(B40='111'!$L$11,OR($N40=$P$7,$O40=$P$7)),"x","")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="213" t="str">
+        <f>IF(AND($N40=$P$7,$B40&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="R40" s="213" t="str">
+        <f>IF(AND($O40=$P$7,$B40&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="S40" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G40,1)),"",IF((AND(FIND(#REF!,G40,1)&gt;=1,B40=#REF!,OR($N40=#REF!,$O40=#REF!))),"x",""))</f>
+        <v/>
+      </c>
+      <c r="T40" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G40,1)),"",IF((AND(LEFT(G40,2)=LEFT(#REF!,2),B40&lt;#REF!,$N40=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="U40" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G40,1)),"",IF((AND(RIGHT(G40,2)=RIGHT(#REF!,2),B40&lt;#REF!,$O40=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="V40" s="213"/>
+      <c r="W40" s="213" t="str">
+        <f>IF(AND(MONTH(E40)='IN-NX'!$J$5,'IN-NX'!$D$7=D40),"x","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A41" s="205" t="str">
+        <f>IF(B41&lt;&gt;"",IF(AND(B41='IN-TC'!$S$4,OR(TH!N41="1111",TH!O41="1111")),TH!D41,""),"")</f>
+        <v>C03</v>
+      </c>
+      <c r="B41" s="206">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="C41" s="219">
         <f t="shared" si="4"/>
-        <v>42839</v>
-      </c>
-      <c r="D40" s="260" t="s">
+        <v>42985</v>
+      </c>
+      <c r="D41" s="219" t="s">
         <v>262</v>
       </c>
-      <c r="E40" s="260">
-        <v>42839</v>
-      </c>
-      <c r="F40" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G40" s="265"/>
-      <c r="H40" s="170" t="s">
+      <c r="E41" s="219">
+        <v>42985</v>
+      </c>
+      <c r="F41" s="220" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" s="224"/>
+      <c r="H41" s="170" t="s">
+        <v>192</v>
+      </c>
+      <c r="I41" s="222"/>
+      <c r="J41" s="222"/>
+      <c r="K41" s="221"/>
+      <c r="L41" s="222"/>
+      <c r="M41" s="117">
+        <f t="shared" si="10"/>
+        <v>177475000</v>
+      </c>
+      <c r="N41" s="223" t="s">
+        <v>7</v>
+      </c>
+      <c r="O41" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="P41" s="213" t="str">
+        <f>IF(AND(B41='111'!$L$11,OR($N41=$P$7,$O41=$P$7)),"x","")</f>
+        <v/>
+      </c>
+      <c r="Q41" s="213" t="str">
+        <f>IF(AND($N41=$P$7,$B41&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="R41" s="213" t="str">
+        <f>IF(AND($O41=$P$7,$B41&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="S41" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G41,1)),"",IF((AND(FIND(#REF!,G41,1)&gt;=1,B41=#REF!,OR($N41=#REF!,$O41=#REF!))),"x",""))</f>
+        <v/>
+      </c>
+      <c r="T41" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G41,1)),"",IF((AND(LEFT(G41,2)=LEFT(#REF!,2),B41&lt;#REF!,$N41=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="U41" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G41,1)),"",IF((AND(RIGHT(G41,2)=RIGHT(#REF!,2),B41&lt;#REF!,$O41=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="V41" s="213"/>
+      <c r="W41" s="213" t="str">
+        <f>IF(AND(MONTH(E41)='IN-NX'!$J$5,'IN-NX'!$D$7=D41),"x","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A42" s="205" t="str">
+        <f>IF(B42&lt;&gt;"",IF(AND(B42='IN-TC'!$S$4,OR(TH!N42="1111",TH!O42="1111")),TH!D42,""),"")</f>
+        <v>C04</v>
+      </c>
+      <c r="B42" s="206">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="C42" s="219">
+        <f t="shared" si="4"/>
+        <v>42986</v>
+      </c>
+      <c r="D42" s="219" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="219">
+        <v>42986</v>
+      </c>
+      <c r="F42" s="220" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" s="224"/>
+      <c r="H42" s="170" t="s">
         <v>193</v>
       </c>
-      <c r="I40" s="201">
-        <v>19370</v>
-      </c>
-      <c r="J40" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K40" s="262"/>
-      <c r="L40" s="263"/>
-      <c r="M40" s="117">
-        <f t="shared" si="5"/>
-        <v>309920000</v>
-      </c>
-      <c r="N40" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O40" s="264" t="s">
+      <c r="I42" s="222"/>
+      <c r="J42" s="222"/>
+      <c r="K42" s="221"/>
+      <c r="L42" s="222"/>
+      <c r="M42" s="117">
+        <f t="shared" si="10"/>
+        <v>351772500</v>
+      </c>
+      <c r="N42" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P40" s="254" t="str">
-        <f>IF(AND(B40='111'!$L$11,OR($N40=$P$7,$O40=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q40" s="254" t="str">
-        <f>IF(AND($N40=$P$7,$B40&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R40" s="254" t="str">
-        <f>IF(AND($O40=$P$7,$B40&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S40" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G40,1)),"",IF((AND(FIND(#REF!,G40,1)&gt;=1,B40=#REF!,OR($N40=#REF!,$O40=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T40" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G40,1)),"",IF((AND(LEFT(G40,2)=LEFT(#REF!,2),B40&lt;#REF!,$N40=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U40" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G40,1)),"",IF((AND(RIGHT(G40,2)=RIGHT(#REF!,2),B40&lt;#REF!,$O40=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V40" s="254"/>
-      <c r="W40" s="254" t="str">
-        <f>IF(AND(MONTH(E40)='IN-NX'!$J$5,'IN-NX'!$D$7=D40),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A41" s="246" t="str">
-        <f>IF(B41&lt;&gt;"",IF(AND(B41='IN-TC'!$S$4,OR(TH!N41="1111",TH!O41="1111")),TH!D41,""),"")</f>
-        <v/>
-      </c>
-      <c r="B41" s="247">
-        <f t="shared" ref="B41:B67" si="9">IF(C41&lt;&gt;"",MONTH(C41),"")</f>
-        <v>4</v>
-      </c>
-      <c r="C41" s="260">
+      <c r="O42" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="P42" s="213" t="str">
+        <f>IF(AND(B42='111'!$L$11,OR($N42=$P$7,$O42=$P$7)),"x","")</f>
+        <v/>
+      </c>
+      <c r="Q42" s="213" t="str">
+        <f>IF(AND($N42=$P$7,$B42&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="R42" s="213" t="str">
+        <f>IF(AND($O42=$P$7,$B42&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="S42" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G42,1)),"",IF((AND(FIND(#REF!,G42,1)&gt;=1,B42=#REF!,OR($N42=#REF!,$O42=#REF!))),"x",""))</f>
+        <v/>
+      </c>
+      <c r="T42" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G42,1)),"",IF((AND(LEFT(G42,2)=LEFT(#REF!,2),B42&lt;#REF!,$N42=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="U42" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G42,1)),"",IF((AND(RIGHT(G42,2)=RIGHT(#REF!,2),B42&lt;#REF!,$O42=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="V42" s="213"/>
+      <c r="W42" s="213" t="str">
+        <f>IF(AND(MONTH(E42)='IN-NX'!$J$5,'IN-NX'!$D$7=D42),"x","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A43" s="205" t="str">
+        <f>IF(B43&lt;&gt;"",IF(AND(B43='IN-TC'!$S$4,OR(TH!N43="1111",TH!O43="1111")),TH!D43,""),"")</f>
+        <v>C05</v>
+      </c>
+      <c r="B43" s="206">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="C43" s="219">
         <f t="shared" si="4"/>
-        <v>42840</v>
-      </c>
-      <c r="D41" s="260" t="s">
-        <v>263</v>
-      </c>
-      <c r="E41" s="260">
-        <v>42840</v>
-      </c>
-      <c r="F41" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G41" s="265"/>
-      <c r="H41" s="170" t="s">
+        <v>42986</v>
+      </c>
+      <c r="D43" s="219" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="219">
+        <v>42986</v>
+      </c>
+      <c r="F43" s="220" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" s="224"/>
+      <c r="H43" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="I41" s="201">
-        <v>21154</v>
-      </c>
-      <c r="J41" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K41" s="262"/>
-      <c r="L41" s="263"/>
-      <c r="M41" s="117">
-        <f t="shared" si="5"/>
-        <v>338464000</v>
-      </c>
-      <c r="N41" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O41" s="264" t="s">
+      <c r="I43" s="222"/>
+      <c r="J43" s="222"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="222"/>
+      <c r="M43" s="117">
+        <f t="shared" si="10"/>
+        <v>707350250</v>
+      </c>
+      <c r="N43" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P41" s="254" t="str">
-        <f>IF(AND(B41='111'!$L$11,OR($N41=$P$7,$O41=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q41" s="254" t="str">
-        <f>IF(AND($N41=$P$7,$B41&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R41" s="254" t="str">
-        <f>IF(AND($O41=$P$7,$B41&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S41" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G41,1)),"",IF((AND(FIND(#REF!,G41,1)&gt;=1,B41=#REF!,OR($N41=#REF!,$O41=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T41" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G41,1)),"",IF((AND(LEFT(G41,2)=LEFT(#REF!,2),B41&lt;#REF!,$N41=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U41" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G41,1)),"",IF((AND(RIGHT(G41,2)=RIGHT(#REF!,2),B41&lt;#REF!,$O41=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V41" s="254"/>
-      <c r="W41" s="254" t="str">
-        <f>IF(AND(MONTH(E41)='IN-NX'!$J$5,'IN-NX'!$D$7=D41),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A42" s="246" t="str">
-        <f>IF(B42&lt;&gt;"",IF(AND(B42='IN-TC'!$S$4,OR(TH!N42="1111",TH!O42="1111")),TH!D42,""),"")</f>
-        <v/>
-      </c>
-      <c r="B42" s="247">
+      <c r="O43" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="P43" s="213" t="str">
+        <f>IF(AND(B43='111'!$L$11,OR($N43=$P$7,$O43=$P$7)),"x","")</f>
+        <v/>
+      </c>
+      <c r="Q43" s="213" t="str">
+        <f>IF(AND($N43=$P$7,$B43&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="R43" s="213" t="str">
+        <f>IF(AND($O43=$P$7,$B43&lt;'111'!$L$11),"x","")</f>
+        <v/>
+      </c>
+      <c r="S43" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G43,1)),"",IF((AND(FIND(#REF!,G43,1)&gt;=1,B43=#REF!,OR($N43=#REF!,$O43=#REF!))),"x",""))</f>
+        <v/>
+      </c>
+      <c r="T43" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G43,1)),"",IF((AND(LEFT(G43,2)=LEFT(#REF!,2),B43&lt;#REF!,$N43=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="U43" s="213" t="str">
+        <f>IF(ISERROR(FIND(#REF!,G43,1)),"",IF((AND(RIGHT(G43,2)=RIGHT(#REF!,2),B43&lt;#REF!,$O43=#REF!)),"x",""))</f>
+        <v/>
+      </c>
+      <c r="V43" s="213"/>
+      <c r="W43" s="213" t="str">
+        <f>IF(AND(MONTH(E43)='IN-NX'!$J$5,'IN-NX'!$D$7=D43),"x","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A44" s="205" t="str">
+        <f>IF(B44&lt;&gt;"",IF(AND(B44='IN-TC'!$S$4,OR(TH!N44="1111",TH!O44="1111")),TH!D44,""),"")</f>
+        <v>C06</v>
+      </c>
+      <c r="B44" s="206">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C42" s="260">
+        <v>9</v>
+      </c>
+      <c r="C44" s="219">
         <f t="shared" si="4"/>
-        <v>42840</v>
-      </c>
-      <c r="D42" s="260" t="s">
-        <v>264</v>
-      </c>
-      <c r="E42" s="260">
-        <v>42840</v>
-      </c>
-      <c r="F42" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="265"/>
-      <c r="H42" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I42" s="201">
-        <v>20650</v>
-      </c>
-      <c r="J42" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K42" s="262"/>
-      <c r="L42" s="263"/>
-      <c r="M42" s="117">
-        <f t="shared" si="5"/>
-        <v>330400000</v>
-      </c>
-      <c r="N42" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O42" s="264" t="s">
+        <v>42986</v>
+      </c>
+      <c r="D44" s="219" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="219">
+        <v>42986</v>
+      </c>
+      <c r="F44" s="220" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" s="224"/>
+      <c r="H44" s="170" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="222"/>
+      <c r="J44" s="222"/>
+      <c r="K44" s="221"/>
+      <c r="L44" s="222"/>
+      <c r="M44" s="117">
+        <f t="shared" si="10"/>
+        <v>347138000</v>
+      </c>
+      <c r="N44" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="P42" s="254" t="str">
-        <f>IF(AND(B42='111'!$L$11,OR($N42=$P$7,$O42=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q42" s="254" t="str">
-        <f>IF(AND($N42=$P$7,$B42&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R42" s="254" t="str">
-        <f>IF(AND($O42=$P$7,$B42&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S42" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G42,1)),"",IF((AND(FIND(#REF!,G42,1)&gt;=1,B42=#REF!,OR($N42=#REF!,$O42=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T42" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G42,1)),"",IF((AND(LEFT(G42,2)=LEFT(#REF!,2),B42&lt;#REF!,$N42=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U42" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G42,1)),"",IF((AND(RIGHT(G42,2)=RIGHT(#REF!,2),B42&lt;#REF!,$O42=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V42" s="254"/>
-      <c r="W42" s="254" t="str">
-        <f>IF(AND(MONTH(E42)='IN-NX'!$J$5,'IN-NX'!$D$7=D42),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A43" s="246" t="str">
-        <f>IF(B43&lt;&gt;"",IF(AND(B43='IN-TC'!$S$4,OR(TH!N43="1111",TH!O43="1111")),TH!D43,""),"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C43" s="260">
-        <f t="shared" si="4"/>
-        <v>42840</v>
-      </c>
-      <c r="D43" s="260" t="s">
-        <v>265</v>
-      </c>
-      <c r="E43" s="260">
-        <v>42840</v>
-      </c>
-      <c r="F43" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G43" s="265"/>
-      <c r="H43" s="170" t="s">
-        <v>245</v>
-      </c>
-      <c r="I43" s="201">
-        <v>22020</v>
-      </c>
-      <c r="J43" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K43" s="262"/>
-      <c r="L43" s="263"/>
-      <c r="M43" s="117">
-        <f t="shared" si="5"/>
-        <v>352320000</v>
-      </c>
-      <c r="N43" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O43" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P43" s="254" t="str">
-        <f>IF(AND(B43='111'!$L$11,OR($N43=$P$7,$O43=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q43" s="254" t="str">
-        <f>IF(AND($N43=$P$7,$B43&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R43" s="254" t="str">
-        <f>IF(AND($O43=$P$7,$B43&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S43" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G43,1)),"",IF((AND(FIND(#REF!,G43,1)&gt;=1,B43=#REF!,OR($N43=#REF!,$O43=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T43" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G43,1)),"",IF((AND(LEFT(G43,2)=LEFT(#REF!,2),B43&lt;#REF!,$N43=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U43" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G43,1)),"",IF((AND(RIGHT(G43,2)=RIGHT(#REF!,2),B43&lt;#REF!,$O43=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V43" s="254"/>
-      <c r="W43" s="254" t="str">
-        <f>IF(AND(MONTH(E43)='IN-NX'!$J$5,'IN-NX'!$D$7=D43),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A44" s="246" t="str">
-        <f>IF(B44&lt;&gt;"",IF(AND(B44='IN-TC'!$S$4,OR(TH!N44="1111",TH!O44="1111")),TH!D44,""),"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C44" s="260">
-        <f t="shared" si="4"/>
-        <v>42840</v>
-      </c>
-      <c r="D44" s="260" t="s">
-        <v>266</v>
-      </c>
-      <c r="E44" s="260">
-        <v>42840</v>
-      </c>
-      <c r="F44" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G44" s="265"/>
-      <c r="H44" s="170" t="s">
-        <v>192</v>
-      </c>
-      <c r="I44" s="201">
-        <v>21650</v>
-      </c>
-      <c r="J44" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K44" s="262"/>
-      <c r="L44" s="263"/>
-      <c r="M44" s="117">
-        <f t="shared" si="5"/>
-        <v>346400000</v>
-      </c>
-      <c r="N44" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O44" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P44" s="254" t="str">
+      <c r="O44" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="P44" s="213" t="str">
         <f>IF(AND(B44='111'!$L$11,OR($N44=$P$7,$O44=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q44" s="254" t="str">
+      <c r="Q44" s="213" t="str">
         <f>IF(AND($N44=$P$7,$B44&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R44" s="254" t="str">
+      <c r="R44" s="213" t="str">
         <f>IF(AND($O44=$P$7,$B44&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S44" s="254" t="str">
+      <c r="S44" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G44,1)),"",IF((AND(FIND(#REF!,G44,1)&gt;=1,B44=#REF!,OR($N44=#REF!,$O44=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T44" s="254" t="str">
+      <c r="T44" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G44,1)),"",IF((AND(LEFT(G44,2)=LEFT(#REF!,2),B44&lt;#REF!,$N44=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U44" s="254" t="str">
+      <c r="U44" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G44,1)),"",IF((AND(RIGHT(G44,2)=RIGHT(#REF!,2),B44&lt;#REF!,$O44=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V44" s="254"/>
-      <c r="W44" s="254" t="str">
+      <c r="V44" s="213"/>
+      <c r="W44" s="213" t="str">
         <f>IF(AND(MONTH(E44)='IN-NX'!$J$5,'IN-NX'!$D$7=D44),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A45" s="246" t="str">
+      <c r="A45" s="205" t="str">
         <f>IF(B45&lt;&gt;"",IF(AND(B45='IN-TC'!$S$4,OR(TH!N45="1111",TH!O45="1111")),TH!D45,""),"")</f>
         <v/>
       </c>
-      <c r="B45" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C45" s="260">
-        <f t="shared" si="4"/>
-        <v>42842</v>
-      </c>
-      <c r="D45" s="260" t="s">
-        <v>267</v>
-      </c>
-      <c r="E45" s="260">
-        <v>42842</v>
-      </c>
-      <c r="F45" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G45" s="261"/>
-      <c r="H45" s="170" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" s="201">
-        <v>21370</v>
-      </c>
-      <c r="J45" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K45" s="262"/>
-      <c r="L45" s="263"/>
-      <c r="M45" s="117">
-        <f t="shared" si="5"/>
-        <v>341920000</v>
-      </c>
-      <c r="N45" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O45" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P45" s="254" t="str">
+      <c r="B45" s="206" t="str">
+        <f t="shared" ref="B45:B57" si="11">IF(C45&lt;&gt;"",MONTH(C45),"")</f>
+        <v/>
+      </c>
+      <c r="C45" s="219"/>
+      <c r="D45" s="219"/>
+      <c r="E45" s="219"/>
+      <c r="F45" s="225"/>
+      <c r="G45" s="225"/>
+      <c r="H45" s="169"/>
+      <c r="I45" s="222"/>
+      <c r="J45" s="222"/>
+      <c r="K45" s="221"/>
+      <c r="L45" s="222"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="226"/>
+      <c r="O45" s="226"/>
+      <c r="P45" s="213" t="str">
         <f>IF(AND(B45='111'!$L$11,OR($N45=$P$7,$O45=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q45" s="254" t="str">
+      <c r="Q45" s="213" t="str">
         <f>IF(AND($N45=$P$7,$B45&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R45" s="254" t="str">
+      <c r="R45" s="213" t="str">
         <f>IF(AND($O45=$P$7,$B45&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S45" s="254" t="str">
+      <c r="S45" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G45,1)),"",IF((AND(FIND(#REF!,G45,1)&gt;=1,B45=#REF!,OR($N45=#REF!,$O45=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T45" s="254" t="str">
+      <c r="T45" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G45,1)),"",IF((AND(LEFT(G45,2)=LEFT(#REF!,2),B45&lt;#REF!,$N45=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U45" s="254" t="str">
+      <c r="U45" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G45,1)),"",IF((AND(RIGHT(G45,2)=RIGHT(#REF!,2),B45&lt;#REF!,$O45=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V45" s="254"/>
-      <c r="W45" s="254" t="str">
+      <c r="V45" s="213"/>
+      <c r="W45" s="213" t="str">
         <f>IF(AND(MONTH(E45)='IN-NX'!$J$5,'IN-NX'!$D$7=D45),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A46" s="246" t="str">
+      <c r="A46" s="205" t="str">
         <f>IF(B46&lt;&gt;"",IF(AND(B46='IN-TC'!$S$4,OR(TH!N46="1111",TH!O46="1111")),TH!D46,""),"")</f>
         <v/>
       </c>
-      <c r="B46" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C46" s="260">
-        <f t="shared" si="4"/>
-        <v>42842</v>
-      </c>
-      <c r="D46" s="260" t="s">
-        <v>268</v>
-      </c>
-      <c r="E46" s="260">
-        <v>42842</v>
-      </c>
-      <c r="F46" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G46" s="261"/>
-      <c r="H46" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="I46" s="201">
-        <v>20730</v>
-      </c>
-      <c r="J46" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K46" s="262"/>
-      <c r="L46" s="263"/>
-      <c r="M46" s="117">
-        <f t="shared" si="5"/>
-        <v>331680000</v>
-      </c>
-      <c r="N46" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O46" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P46" s="254" t="str">
+      <c r="B46" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C46" s="219"/>
+      <c r="D46" s="219"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="225"/>
+      <c r="G46" s="227"/>
+      <c r="H46" s="169"/>
+      <c r="I46" s="222"/>
+      <c r="J46" s="222"/>
+      <c r="K46" s="221"/>
+      <c r="L46" s="222"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="226"/>
+      <c r="O46" s="226"/>
+      <c r="P46" s="213" t="str">
         <f>IF(AND(B46='111'!$L$11,OR($N46=$P$7,$O46=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q46" s="254" t="str">
+      <c r="Q46" s="213" t="str">
         <f>IF(AND($N46=$P$7,$B46&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R46" s="254" t="str">
+      <c r="R46" s="213" t="str">
         <f>IF(AND($O46=$P$7,$B46&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S46" s="254" t="str">
+      <c r="S46" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G46,1)),"",IF((AND(FIND(#REF!,G46,1)&gt;=1,B46=#REF!,OR($N46=#REF!,$O46=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T46" s="254" t="str">
+      <c r="T46" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G46,1)),"",IF((AND(LEFT(G46,2)=LEFT(#REF!,2),B46&lt;#REF!,$N46=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U46" s="254" t="str">
+      <c r="U46" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G46,1)),"",IF((AND(RIGHT(G46,2)=RIGHT(#REF!,2),B46&lt;#REF!,$O46=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V46" s="254"/>
-      <c r="W46" s="254" t="str">
+      <c r="V46" s="213"/>
+      <c r="W46" s="213" t="str">
         <f>IF(AND(MONTH(E46)='IN-NX'!$J$5,'IN-NX'!$D$7=D46),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A47" s="246" t="str">
+      <c r="A47" s="205" t="str">
         <f>IF(B47&lt;&gt;"",IF(AND(B47='IN-TC'!$S$4,OR(TH!N47="1111",TH!O47="1111")),TH!D47,""),"")</f>
         <v/>
       </c>
-      <c r="B47" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C47" s="260">
-        <f t="shared" si="4"/>
-        <v>42842</v>
-      </c>
-      <c r="D47" s="260" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" s="260">
-        <v>42842</v>
-      </c>
-      <c r="F47" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G47" s="261"/>
-      <c r="H47" s="170" t="s">
-        <v>194</v>
-      </c>
-      <c r="I47" s="201">
-        <v>20465</v>
-      </c>
-      <c r="J47" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K47" s="262"/>
-      <c r="L47" s="263"/>
-      <c r="M47" s="117">
-        <f t="shared" si="5"/>
-        <v>327440000</v>
-      </c>
-      <c r="N47" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O47" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P47" s="254" t="str">
+      <c r="B47" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C47" s="219"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="219"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="227"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="222"/>
+      <c r="J47" s="222"/>
+      <c r="K47" s="221"/>
+      <c r="L47" s="222"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="226"/>
+      <c r="O47" s="226"/>
+      <c r="P47" s="213" t="str">
         <f>IF(AND(B47='111'!$L$11,OR($N47=$P$7,$O47=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q47" s="254" t="str">
+      <c r="Q47" s="213" t="str">
         <f>IF(AND($N47=$P$7,$B47&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R47" s="254" t="str">
+      <c r="R47" s="213" t="str">
         <f>IF(AND($O47=$P$7,$B47&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S47" s="254" t="str">
+      <c r="S47" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G47,1)),"",IF((AND(FIND(#REF!,G47,1)&gt;=1,B47=#REF!,OR($N47=#REF!,$O47=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T47" s="254" t="str">
+      <c r="T47" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G47,1)),"",IF((AND(LEFT(G47,2)=LEFT(#REF!,2),B47&lt;#REF!,$N47=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U47" s="254" t="str">
+      <c r="U47" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G47,1)),"",IF((AND(RIGHT(G47,2)=RIGHT(#REF!,2),B47&lt;#REF!,$O47=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V47" s="254"/>
-      <c r="W47" s="254" t="str">
+      <c r="V47" s="213"/>
+      <c r="W47" s="213" t="str">
         <f>IF(AND(MONTH(E47)='IN-NX'!$J$5,'IN-NX'!$D$7=D47),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A48" s="246" t="str">
+      <c r="A48" s="205" t="str">
         <f>IF(B48&lt;&gt;"",IF(AND(B48='IN-TC'!$S$4,OR(TH!N48="1111",TH!O48="1111")),TH!D48,""),"")</f>
         <v/>
       </c>
-      <c r="B48" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C48" s="260">
-        <f t="shared" si="4"/>
-        <v>42842</v>
-      </c>
-      <c r="D48" s="260" t="s">
-        <v>281</v>
-      </c>
-      <c r="E48" s="260">
-        <v>42842</v>
-      </c>
-      <c r="F48" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G48" s="261"/>
-      <c r="H48" s="170" t="s">
-        <v>193</v>
-      </c>
-      <c r="I48" s="201">
-        <v>21420</v>
-      </c>
-      <c r="J48" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K48" s="262"/>
-      <c r="L48" s="263"/>
-      <c r="M48" s="117">
-        <f t="shared" si="5"/>
-        <v>342720000</v>
-      </c>
-      <c r="N48" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O48" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P48" s="254" t="str">
+      <c r="B48" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C48" s="219"/>
+      <c r="D48" s="219"/>
+      <c r="E48" s="219"/>
+      <c r="F48" s="225"/>
+      <c r="G48" s="227"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="222"/>
+      <c r="J48" s="222"/>
+      <c r="K48" s="221"/>
+      <c r="L48" s="222"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="226"/>
+      <c r="O48" s="226"/>
+      <c r="P48" s="213" t="str">
         <f>IF(AND(B48='111'!$L$11,OR($N48=$P$7,$O48=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q48" s="254" t="str">
+      <c r="Q48" s="213" t="str">
         <f>IF(AND($N48=$P$7,$B48&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R48" s="254" t="str">
+      <c r="R48" s="213" t="str">
         <f>IF(AND($O48=$P$7,$B48&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S48" s="254" t="str">
+      <c r="S48" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G48,1)),"",IF((AND(FIND(#REF!,G48,1)&gt;=1,B48=#REF!,OR($N48=#REF!,$O48=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T48" s="254" t="str">
+      <c r="T48" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G48,1)),"",IF((AND(LEFT(G48,2)=LEFT(#REF!,2),B48&lt;#REF!,$N48=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U48" s="254" t="str">
+      <c r="U48" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G48,1)),"",IF((AND(RIGHT(G48,2)=RIGHT(#REF!,2),B48&lt;#REF!,$O48=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V48" s="254"/>
-      <c r="W48" s="254" t="str">
+      <c r="V48" s="213"/>
+      <c r="W48" s="213" t="str">
         <f>IF(AND(MONTH(E48)='IN-NX'!$J$5,'IN-NX'!$D$7=D48),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A49" s="246" t="str">
+      <c r="A49" s="205" t="str">
         <f>IF(B49&lt;&gt;"",IF(AND(B49='IN-TC'!$S$4,OR(TH!N49="1111",TH!O49="1111")),TH!D49,""),"")</f>
         <v/>
       </c>
-      <c r="B49" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C49" s="260">
-        <f t="shared" si="4"/>
-        <v>42843</v>
-      </c>
-      <c r="D49" s="260" t="s">
-        <v>282</v>
-      </c>
-      <c r="E49" s="260">
-        <v>42843</v>
-      </c>
-      <c r="F49" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G49" s="261"/>
-      <c r="H49" s="170" t="s">
-        <v>192</v>
-      </c>
-      <c r="I49" s="201">
-        <v>22030</v>
-      </c>
-      <c r="J49" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K49" s="262"/>
-      <c r="L49" s="263"/>
-      <c r="M49" s="117">
-        <f t="shared" si="5"/>
-        <v>352480000</v>
-      </c>
-      <c r="N49" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O49" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P49" s="254" t="str">
+      <c r="B49" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C49" s="219"/>
+      <c r="D49" s="219"/>
+      <c r="E49" s="219"/>
+      <c r="F49" s="225"/>
+      <c r="G49" s="227"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="222"/>
+      <c r="K49" s="221"/>
+      <c r="L49" s="222"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="226"/>
+      <c r="O49" s="226"/>
+      <c r="P49" s="213" t="str">
         <f>IF(AND(B49='111'!$L$11,OR($N49=$P$7,$O49=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q49" s="254" t="str">
+      <c r="Q49" s="213" t="str">
         <f>IF(AND($N49=$P$7,$B49&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R49" s="254" t="str">
+      <c r="R49" s="213" t="str">
         <f>IF(AND($O49=$P$7,$B49&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S49" s="254" t="str">
+      <c r="S49" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G49,1)),"",IF((AND(FIND(#REF!,G49,1)&gt;=1,B49=#REF!,OR($N49=#REF!,$O49=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T49" s="254" t="str">
+      <c r="T49" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G49,1)),"",IF((AND(LEFT(G49,2)=LEFT(#REF!,2),B49&lt;#REF!,$N49=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U49" s="254" t="str">
+      <c r="U49" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G49,1)),"",IF((AND(RIGHT(G49,2)=RIGHT(#REF!,2),B49&lt;#REF!,$O49=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V49" s="254"/>
-      <c r="W49" s="254" t="str">
+      <c r="V49" s="213"/>
+      <c r="W49" s="213" t="str">
         <f>IF(AND(MONTH(E49)='IN-NX'!$J$5,'IN-NX'!$D$7=D49),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A50" s="246" t="str">
+      <c r="A50" s="205" t="str">
         <f>IF(B50&lt;&gt;"",IF(AND(B50='IN-TC'!$S$4,OR(TH!N50="1111",TH!O50="1111")),TH!D50,""),"")</f>
         <v/>
       </c>
-      <c r="B50" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C50" s="260">
-        <f t="shared" si="4"/>
-        <v>42843</v>
-      </c>
-      <c r="D50" s="260" t="s">
-        <v>283</v>
-      </c>
-      <c r="E50" s="260">
-        <v>42843</v>
-      </c>
-      <c r="F50" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G50" s="265"/>
-      <c r="H50" s="170" t="s">
-        <v>245</v>
-      </c>
-      <c r="I50" s="201">
-        <v>21380</v>
-      </c>
-      <c r="J50" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K50" s="262"/>
-      <c r="L50" s="263"/>
-      <c r="M50" s="117">
-        <f t="shared" si="5"/>
-        <v>342080000</v>
-      </c>
-      <c r="N50" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O50" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P50" s="254" t="str">
+      <c r="B50" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C50" s="219"/>
+      <c r="D50" s="219"/>
+      <c r="E50" s="219"/>
+      <c r="F50" s="225"/>
+      <c r="G50" s="227"/>
+      <c r="H50" s="169"/>
+      <c r="I50" s="222"/>
+      <c r="J50" s="222"/>
+      <c r="K50" s="221"/>
+      <c r="L50" s="222"/>
+      <c r="M50" s="117"/>
+      <c r="N50" s="226"/>
+      <c r="O50" s="226"/>
+      <c r="P50" s="213" t="str">
         <f>IF(AND(B50='111'!$L$11,OR($N50=$P$7,$O50=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q50" s="254" t="str">
+      <c r="Q50" s="213" t="str">
         <f>IF(AND($N50=$P$7,$B50&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R50" s="254" t="str">
+      <c r="R50" s="213" t="str">
         <f>IF(AND($O50=$P$7,$B50&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S50" s="254" t="str">
+      <c r="S50" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G50,1)),"",IF((AND(FIND(#REF!,G50,1)&gt;=1,B50=#REF!,OR($N50=#REF!,$O50=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T50" s="254" t="str">
+      <c r="T50" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G50,1)),"",IF((AND(LEFT(G50,2)=LEFT(#REF!,2),B50&lt;#REF!,$N50=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U50" s="254" t="str">
+      <c r="U50" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G50,1)),"",IF((AND(RIGHT(G50,2)=RIGHT(#REF!,2),B50&lt;#REF!,$O50=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V50" s="254"/>
-      <c r="W50" s="254" t="str">
+      <c r="V50" s="213"/>
+      <c r="W50" s="213" t="str">
         <f>IF(AND(MONTH(E50)='IN-NX'!$J$5,'IN-NX'!$D$7=D50),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A51" s="246" t="str">
+      <c r="A51" s="205" t="str">
         <f>IF(B51&lt;&gt;"",IF(AND(B51='IN-TC'!$S$4,OR(TH!N51="1111",TH!O51="1111")),TH!D51,""),"")</f>
         <v/>
       </c>
-      <c r="B51" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C51" s="260">
-        <f t="shared" si="4"/>
-        <v>42843</v>
-      </c>
-      <c r="D51" s="260" t="s">
-        <v>284</v>
-      </c>
-      <c r="E51" s="260">
-        <v>42843</v>
-      </c>
-      <c r="F51" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G51" s="265"/>
-      <c r="H51" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I51" s="201">
-        <v>21650</v>
-      </c>
-      <c r="J51" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K51" s="262"/>
-      <c r="L51" s="263"/>
-      <c r="M51" s="117">
-        <f t="shared" si="5"/>
-        <v>346400000</v>
-      </c>
-      <c r="N51" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O51" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P51" s="254" t="str">
+      <c r="B51" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C51" s="219"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="219"/>
+      <c r="F51" s="225"/>
+      <c r="G51" s="227"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="222"/>
+      <c r="J51" s="222"/>
+      <c r="K51" s="221"/>
+      <c r="L51" s="222"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="226"/>
+      <c r="O51" s="226"/>
+      <c r="P51" s="213" t="str">
         <f>IF(AND(B51='111'!$L$11,OR($N51=$P$7,$O51=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q51" s="254" t="str">
+      <c r="Q51" s="213" t="str">
         <f>IF(AND($N51=$P$7,$B51&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R51" s="254" t="str">
+      <c r="R51" s="213" t="str">
         <f>IF(AND($O51=$P$7,$B51&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S51" s="254" t="str">
+      <c r="S51" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G51,1)),"",IF((AND(FIND(#REF!,G51,1)&gt;=1,B51=#REF!,OR($N51=#REF!,$O51=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T51" s="254" t="str">
+      <c r="T51" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G51,1)),"",IF((AND(LEFT(G51,2)=LEFT(#REF!,2),B51&lt;#REF!,$N51=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U51" s="254" t="str">
+      <c r="U51" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G51,1)),"",IF((AND(RIGHT(G51,2)=RIGHT(#REF!,2),B51&lt;#REF!,$O51=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V51" s="254"/>
-      <c r="W51" s="254" t="str">
+      <c r="V51" s="213"/>
+      <c r="W51" s="213" t="str">
         <f>IF(AND(MONTH(E51)='IN-NX'!$J$5,'IN-NX'!$D$7=D51),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A52" s="246" t="str">
+      <c r="A52" s="205" t="str">
         <f>IF(B52&lt;&gt;"",IF(AND(B52='IN-TC'!$S$4,OR(TH!N52="1111",TH!O52="1111")),TH!D52,""),"")</f>
         <v/>
       </c>
-      <c r="B52" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C52" s="260">
-        <f t="shared" si="4"/>
-        <v>42843</v>
-      </c>
-      <c r="D52" s="260" t="s">
-        <v>285</v>
-      </c>
-      <c r="E52" s="260">
-        <v>42843</v>
-      </c>
-      <c r="F52" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G52" s="265"/>
-      <c r="H52" s="170" t="s">
-        <v>196</v>
-      </c>
-      <c r="I52" s="201">
-        <v>20760</v>
-      </c>
-      <c r="J52" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K52" s="262"/>
-      <c r="L52" s="263"/>
-      <c r="M52" s="117">
-        <f t="shared" si="5"/>
-        <v>332160000</v>
-      </c>
-      <c r="N52" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O52" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P52" s="254" t="str">
+      <c r="B52" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C52" s="219"/>
+      <c r="D52" s="219"/>
+      <c r="E52" s="219"/>
+      <c r="F52" s="225"/>
+      <c r="G52" s="227"/>
+      <c r="H52" s="169"/>
+      <c r="I52" s="222"/>
+      <c r="J52" s="222"/>
+      <c r="K52" s="221"/>
+      <c r="L52" s="222"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="226"/>
+      <c r="O52" s="226"/>
+      <c r="P52" s="213" t="str">
         <f>IF(AND(B52='111'!$L$11,OR($N52=$P$7,$O52=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q52" s="254" t="str">
+      <c r="Q52" s="213" t="str">
         <f>IF(AND($N52=$P$7,$B52&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R52" s="254" t="str">
+      <c r="R52" s="213" t="str">
         <f>IF(AND($O52=$P$7,$B52&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S52" s="254" t="str">
+      <c r="S52" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G52,1)),"",IF((AND(FIND(#REF!,G52,1)&gt;=1,B52=#REF!,OR($N52=#REF!,$O52=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T52" s="254" t="str">
+      <c r="T52" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G52,1)),"",IF((AND(LEFT(G52,2)=LEFT(#REF!,2),B52&lt;#REF!,$N52=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U52" s="254" t="str">
+      <c r="U52" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G52,1)),"",IF((AND(RIGHT(G52,2)=RIGHT(#REF!,2),B52&lt;#REF!,$O52=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V52" s="254"/>
-      <c r="W52" s="254" t="str">
+      <c r="V52" s="213"/>
+      <c r="W52" s="213" t="str">
         <f>IF(AND(MONTH(E52)='IN-NX'!$J$5,'IN-NX'!$D$7=D52),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A53" s="246" t="str">
+      <c r="A53" s="205" t="str">
         <f>IF(B53&lt;&gt;"",IF(AND(B53='IN-TC'!$S$4,OR(TH!N53="1111",TH!O53="1111")),TH!D53,""),"")</f>
         <v/>
       </c>
-      <c r="B53" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C53" s="260">
-        <f t="shared" si="4"/>
-        <v>42843</v>
-      </c>
-      <c r="D53" s="260" t="s">
-        <v>286</v>
-      </c>
-      <c r="E53" s="260">
-        <v>42843</v>
-      </c>
-      <c r="F53" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G53" s="265"/>
-      <c r="H53" s="170" t="s">
-        <v>193</v>
-      </c>
-      <c r="I53" s="201">
-        <v>22450</v>
-      </c>
-      <c r="J53" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K53" s="262"/>
-      <c r="L53" s="263"/>
-      <c r="M53" s="117">
-        <f t="shared" si="5"/>
-        <v>359200000</v>
-      </c>
-      <c r="N53" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O53" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P53" s="254" t="str">
+      <c r="B53" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C53" s="219"/>
+      <c r="D53" s="219"/>
+      <c r="E53" s="219"/>
+      <c r="F53" s="225"/>
+      <c r="G53" s="227"/>
+      <c r="H53" s="169"/>
+      <c r="I53" s="222"/>
+      <c r="J53" s="222"/>
+      <c r="K53" s="221"/>
+      <c r="L53" s="222"/>
+      <c r="M53" s="117"/>
+      <c r="N53" s="226"/>
+      <c r="O53" s="226"/>
+      <c r="P53" s="213" t="str">
         <f>IF(AND(B53='111'!$L$11,OR($N53=$P$7,$O53=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q53" s="254" t="str">
+      <c r="Q53" s="213" t="str">
         <f>IF(AND($N53=$P$7,$B53&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R53" s="254" t="str">
+      <c r="R53" s="213" t="str">
         <f>IF(AND($O53=$P$7,$B53&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S53" s="254" t="str">
+      <c r="S53" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G53,1)),"",IF((AND(FIND(#REF!,G53,1)&gt;=1,B53=#REF!,OR($N53=#REF!,$O53=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T53" s="254" t="str">
+      <c r="T53" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G53,1)),"",IF((AND(LEFT(G53,2)=LEFT(#REF!,2),B53&lt;#REF!,$N53=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U53" s="254" t="str">
+      <c r="U53" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G53,1)),"",IF((AND(RIGHT(G53,2)=RIGHT(#REF!,2),B53&lt;#REF!,$O53=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V53" s="254"/>
-      <c r="W53" s="254" t="str">
+      <c r="V53" s="213"/>
+      <c r="W53" s="213" t="str">
         <f>IF(AND(MONTH(E53)='IN-NX'!$J$5,'IN-NX'!$D$7=D53),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A54" s="246" t="str">
+      <c r="A54" s="205" t="str">
         <f>IF(B54&lt;&gt;"",IF(AND(B54='IN-TC'!$S$4,OR(TH!N54="1111",TH!O54="1111")),TH!D54,""),"")</f>
         <v/>
       </c>
-      <c r="B54" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C54" s="260">
-        <f t="shared" si="4"/>
-        <v>42844</v>
-      </c>
-      <c r="D54" s="260" t="s">
-        <v>287</v>
-      </c>
-      <c r="E54" s="260">
-        <v>42844</v>
-      </c>
-      <c r="F54" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G54" s="265"/>
-      <c r="H54" s="170" t="s">
-        <v>194</v>
-      </c>
-      <c r="I54" s="201">
-        <v>21540</v>
-      </c>
-      <c r="J54" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K54" s="262"/>
-      <c r="L54" s="263"/>
-      <c r="M54" s="117">
-        <f t="shared" si="5"/>
-        <v>344640000</v>
-      </c>
-      <c r="N54" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O54" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P54" s="254" t="str">
+      <c r="B54" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C54" s="219"/>
+      <c r="D54" s="219"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="225"/>
+      <c r="G54" s="227"/>
+      <c r="H54" s="169"/>
+      <c r="I54" s="222"/>
+      <c r="J54" s="222"/>
+      <c r="K54" s="221"/>
+      <c r="L54" s="222"/>
+      <c r="M54" s="117"/>
+      <c r="N54" s="226"/>
+      <c r="O54" s="226"/>
+      <c r="P54" s="213" t="str">
         <f>IF(AND(B54='111'!$L$11,OR($N54=$P$7,$O54=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q54" s="254" t="str">
+      <c r="Q54" s="213" t="str">
         <f>IF(AND($N54=$P$7,$B54&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R54" s="254" t="str">
+      <c r="R54" s="213" t="str">
         <f>IF(AND($O54=$P$7,$B54&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S54" s="254" t="str">
+      <c r="S54" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G54,1)),"",IF((AND(FIND(#REF!,G54,1)&gt;=1,B54=#REF!,OR($N54=#REF!,$O54=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T54" s="254" t="str">
+      <c r="T54" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G54,1)),"",IF((AND(LEFT(G54,2)=LEFT(#REF!,2),B54&lt;#REF!,$N54=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U54" s="254" t="str">
+      <c r="U54" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G54,1)),"",IF((AND(RIGHT(G54,2)=RIGHT(#REF!,2),B54&lt;#REF!,$O54=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V54" s="254"/>
-      <c r="W54" s="254" t="str">
+      <c r="V54" s="213"/>
+      <c r="W54" s="213" t="str">
         <f>IF(AND(MONTH(E54)='IN-NX'!$J$5,'IN-NX'!$D$7=D54),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A55" s="246" t="str">
+      <c r="A55" s="205" t="str">
         <f>IF(B55&lt;&gt;"",IF(AND(B55='IN-TC'!$S$4,OR(TH!N55="1111",TH!O55="1111")),TH!D55,""),"")</f>
         <v/>
       </c>
-      <c r="B55" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C55" s="260">
-        <f t="shared" si="4"/>
-        <v>42844</v>
-      </c>
-      <c r="D55" s="260" t="s">
-        <v>288</v>
-      </c>
-      <c r="E55" s="260">
-        <v>42844</v>
-      </c>
-      <c r="F55" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G55" s="261"/>
-      <c r="H55" s="170" t="s">
-        <v>195</v>
-      </c>
-      <c r="I55" s="201">
-        <v>20380</v>
-      </c>
-      <c r="J55" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K55" s="262"/>
-      <c r="L55" s="263"/>
-      <c r="M55" s="117">
-        <f t="shared" si="5"/>
-        <v>326080000</v>
-      </c>
-      <c r="N55" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O55" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P55" s="254" t="str">
+      <c r="B55" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="219"/>
+      <c r="F55" s="225"/>
+      <c r="G55" s="227"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="222"/>
+      <c r="J55" s="222"/>
+      <c r="K55" s="221"/>
+      <c r="L55" s="222"/>
+      <c r="M55" s="117"/>
+      <c r="N55" s="226"/>
+      <c r="O55" s="226"/>
+      <c r="P55" s="213" t="str">
         <f>IF(AND(B55='111'!$L$11,OR($N55=$P$7,$O55=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q55" s="254" t="str">
+      <c r="Q55" s="213" t="str">
         <f>IF(AND($N55=$P$7,$B55&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R55" s="254" t="str">
+      <c r="R55" s="213" t="str">
         <f>IF(AND($O55=$P$7,$B55&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S55" s="254" t="str">
+      <c r="S55" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G55,1)),"",IF((AND(FIND(#REF!,G55,1)&gt;=1,B55=#REF!,OR($N55=#REF!,$O55=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T55" s="254" t="str">
+      <c r="T55" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G55,1)),"",IF((AND(LEFT(G55,2)=LEFT(#REF!,2),B55&lt;#REF!,$N55=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U55" s="254" t="str">
+      <c r="U55" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G55,1)),"",IF((AND(RIGHT(G55,2)=RIGHT(#REF!,2),B55&lt;#REF!,$O55=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V55" s="254"/>
-      <c r="W55" s="254" t="str">
+      <c r="V55" s="213"/>
+      <c r="W55" s="213" t="str">
         <f>IF(AND(MONTH(E55)='IN-NX'!$J$5,'IN-NX'!$D$7=D55),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A56" s="246" t="str">
+      <c r="A56" s="205" t="str">
         <f>IF(B56&lt;&gt;"",IF(AND(B56='IN-TC'!$S$4,OR(TH!N56="1111",TH!O56="1111")),TH!D56,""),"")</f>
         <v/>
       </c>
-      <c r="B56" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C56" s="260">
-        <f t="shared" si="4"/>
-        <v>42844</v>
-      </c>
-      <c r="D56" s="260" t="s">
-        <v>289</v>
-      </c>
-      <c r="E56" s="260">
-        <v>42844</v>
-      </c>
-      <c r="F56" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G56" s="261"/>
-      <c r="H56" s="170" t="s">
-        <v>245</v>
-      </c>
-      <c r="I56" s="201">
-        <v>21540</v>
-      </c>
-      <c r="J56" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K56" s="262"/>
-      <c r="L56" s="263"/>
-      <c r="M56" s="117">
-        <f t="shared" si="5"/>
-        <v>344640000</v>
-      </c>
-      <c r="N56" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O56" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P56" s="254" t="str">
+      <c r="B56" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C56" s="219"/>
+      <c r="D56" s="219"/>
+      <c r="E56" s="219"/>
+      <c r="F56" s="225"/>
+      <c r="G56" s="227"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="222"/>
+      <c r="J56" s="222"/>
+      <c r="K56" s="221"/>
+      <c r="L56" s="222"/>
+      <c r="M56" s="117"/>
+      <c r="N56" s="226"/>
+      <c r="O56" s="226"/>
+      <c r="P56" s="213" t="str">
         <f>IF(AND(B56='111'!$L$11,OR($N56=$P$7,$O56=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q56" s="254" t="str">
+      <c r="Q56" s="213" t="str">
         <f>IF(AND($N56=$P$7,$B56&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R56" s="254" t="str">
+      <c r="R56" s="213" t="str">
         <f>IF(AND($O56=$P$7,$B56&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S56" s="254" t="str">
+      <c r="S56" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G56,1)),"",IF((AND(FIND(#REF!,G56,1)&gt;=1,B56=#REF!,OR($N56=#REF!,$O56=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T56" s="254" t="str">
+      <c r="T56" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G56,1)),"",IF((AND(LEFT(G56,2)=LEFT(#REF!,2),B56&lt;#REF!,$N56=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U56" s="254" t="str">
+      <c r="U56" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G56,1)),"",IF((AND(RIGHT(G56,2)=RIGHT(#REF!,2),B56&lt;#REF!,$O56=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V56" s="254"/>
-      <c r="W56" s="254" t="str">
+      <c r="V56" s="213"/>
+      <c r="W56" s="213" t="str">
         <f>IF(AND(MONTH(E56)='IN-NX'!$J$5,'IN-NX'!$D$7=D56),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A57" s="246" t="str">
+      <c r="A57" s="205" t="str">
         <f>IF(B57&lt;&gt;"",IF(AND(B57='IN-TC'!$S$4,OR(TH!N57="1111",TH!O57="1111")),TH!D57,""),"")</f>
         <v/>
       </c>
-      <c r="B57" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C57" s="260">
-        <f t="shared" si="4"/>
-        <v>42844</v>
-      </c>
-      <c r="D57" s="260" t="s">
-        <v>290</v>
-      </c>
-      <c r="E57" s="260">
-        <v>42844</v>
-      </c>
-      <c r="F57" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G57" s="261"/>
-      <c r="H57" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I57" s="201">
-        <v>21040</v>
-      </c>
-      <c r="J57" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K57" s="262"/>
-      <c r="L57" s="263"/>
-      <c r="M57" s="117">
-        <f t="shared" si="5"/>
-        <v>336640000</v>
-      </c>
-      <c r="N57" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O57" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P57" s="254" t="str">
+      <c r="B57" s="206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C57" s="219"/>
+      <c r="D57" s="219"/>
+      <c r="E57" s="219"/>
+      <c r="F57" s="225"/>
+      <c r="G57" s="227"/>
+      <c r="H57" s="169"/>
+      <c r="I57" s="222"/>
+      <c r="J57" s="222"/>
+      <c r="K57" s="221"/>
+      <c r="L57" s="222"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="226"/>
+      <c r="O57" s="226"/>
+      <c r="P57" s="213" t="str">
         <f>IF(AND(B57='111'!$L$11,OR($N57=$P$7,$O57=$P$7)),"x","")</f>
         <v/>
       </c>
-      <c r="Q57" s="254" t="str">
+      <c r="Q57" s="213" t="str">
         <f>IF(AND($N57=$P$7,$B57&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="R57" s="254" t="str">
+      <c r="R57" s="213" t="str">
         <f>IF(AND($O57=$P$7,$B57&lt;'111'!$L$11),"x","")</f>
         <v/>
       </c>
-      <c r="S57" s="254" t="str">
+      <c r="S57" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G57,1)),"",IF((AND(FIND(#REF!,G57,1)&gt;=1,B57=#REF!,OR($N57=#REF!,$O57=#REF!))),"x",""))</f>
         <v/>
       </c>
-      <c r="T57" s="254" t="str">
+      <c r="T57" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G57,1)),"",IF((AND(LEFT(G57,2)=LEFT(#REF!,2),B57&lt;#REF!,$N57=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="U57" s="254" t="str">
+      <c r="U57" s="213" t="str">
         <f>IF(ISERROR(FIND(#REF!,G57,1)),"",IF((AND(RIGHT(G57,2)=RIGHT(#REF!,2),B57&lt;#REF!,$O57=#REF!)),"x",""))</f>
         <v/>
       </c>
-      <c r="V57" s="254"/>
-      <c r="W57" s="254" t="str">
+      <c r="V57" s="213"/>
+      <c r="W57" s="213" t="str">
         <f>IF(AND(MONTH(E57)='IN-NX'!$J$5,'IN-NX'!$D$7=D57),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A58" s="246" t="str">
-        <f>IF(B58&lt;&gt;"",IF(AND(B58='IN-TC'!$S$4,OR(TH!N58="1111",TH!O58="1111")),TH!D58,""),"")</f>
-        <v/>
-      </c>
-      <c r="B58" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C58" s="260">
-        <f t="shared" si="4"/>
-        <v>42844</v>
-      </c>
-      <c r="D58" s="260" t="s">
-        <v>291</v>
-      </c>
-      <c r="E58" s="260">
-        <v>42844</v>
-      </c>
-      <c r="F58" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G58" s="261"/>
-      <c r="H58" s="170" t="s">
-        <v>193</v>
-      </c>
-      <c r="I58" s="201">
-        <v>22350</v>
-      </c>
-      <c r="J58" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K58" s="262"/>
-      <c r="L58" s="263"/>
-      <c r="M58" s="117">
-        <f t="shared" si="5"/>
-        <v>357600000</v>
-      </c>
-      <c r="N58" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O58" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P58" s="254" t="str">
-        <f>IF(AND(B58='111'!$L$11,OR($N58=$P$7,$O58=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q58" s="254" t="str">
-        <f>IF(AND($N58=$P$7,$B58&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R58" s="254" t="str">
-        <f>IF(AND($O58=$P$7,$B58&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S58" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G58,1)),"",IF((AND(FIND(#REF!,G58,1)&gt;=1,B58=#REF!,OR($N58=#REF!,$O58=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T58" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G58,1)),"",IF((AND(LEFT(G58,2)=LEFT(#REF!,2),B58&lt;#REF!,$N58=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U58" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G58,1)),"",IF((AND(RIGHT(G58,2)=RIGHT(#REF!,2),B58&lt;#REF!,$O58=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V58" s="254"/>
-      <c r="W58" s="254" t="str">
-        <f>IF(AND(MONTH(E58)='IN-NX'!$J$5,'IN-NX'!$D$7=D58),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A59" s="246" t="str">
-        <f>IF(B59&lt;&gt;"",IF(AND(B59='IN-TC'!$S$4,OR(TH!N59="1111",TH!O59="1111")),TH!D59,""),"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C59" s="260">
-        <f t="shared" si="4"/>
-        <v>42844</v>
-      </c>
-      <c r="D59" s="260" t="s">
-        <v>292</v>
-      </c>
-      <c r="E59" s="260">
-        <v>42844</v>
-      </c>
-      <c r="F59" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="G59" s="261"/>
-      <c r="H59" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="I59" s="201">
-        <f>554190-SUM(I34:I58)</f>
-        <v>21765</v>
-      </c>
-      <c r="J59" s="202">
-        <v>16000</v>
-      </c>
-      <c r="K59" s="262"/>
-      <c r="L59" s="263"/>
-      <c r="M59" s="117">
-        <f t="shared" si="5"/>
-        <v>348240000</v>
-      </c>
-      <c r="N59" s="264" t="s">
-        <v>160</v>
-      </c>
-      <c r="O59" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="P59" s="254" t="str">
-        <f>IF(AND(B59='111'!$L$11,OR($N59=$P$7,$O59=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q59" s="254" t="str">
-        <f>IF(AND($N59=$P$7,$B59&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R59" s="254" t="str">
-        <f>IF(AND($O59=$P$7,$B59&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S59" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G59,1)),"",IF((AND(FIND(#REF!,G59,1)&gt;=1,B59=#REF!,OR($N59=#REF!,$O59=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T59" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G59,1)),"",IF((AND(LEFT(G59,2)=LEFT(#REF!,2),B59&lt;#REF!,$N59=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U59" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G59,1)),"",IF((AND(RIGHT(G59,2)=RIGHT(#REF!,2),B59&lt;#REF!,$O59=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V59" s="254"/>
-      <c r="W59" s="254" t="str">
-        <f>IF(AND(MONTH(E59)='IN-NX'!$J$5,'IN-NX'!$D$7=D59),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A60" s="246" t="str">
-        <f>IF(B60&lt;&gt;"",IF(AND(B60='IN-TC'!$S$4,OR(TH!N60="1111",TH!O60="1111")),TH!D60,""),"")</f>
-        <v>C01</v>
-      </c>
-      <c r="B60" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C60" s="260">
-        <f t="shared" si="4"/>
-        <v>42845</v>
-      </c>
-      <c r="D60" s="260" t="s">
-        <v>271</v>
-      </c>
-      <c r="E60" s="260">
-        <v>42845</v>
-      </c>
-      <c r="F60" s="261" t="s">
-        <v>270</v>
-      </c>
-      <c r="G60" s="261"/>
-      <c r="H60" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I60" s="263"/>
-      <c r="J60" s="263"/>
-      <c r="K60" s="262"/>
-      <c r="L60" s="263"/>
-      <c r="M60" s="117">
-        <f>SUMIF($H$25:$H$43,H60,$M$25:$M$43)</f>
-        <v>953950000</v>
-      </c>
-      <c r="N60" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="O60" s="264" t="s">
-        <v>41</v>
-      </c>
-      <c r="P60" s="254" t="str">
-        <f>IF(AND(B60='111'!$L$11,OR($N60=$P$7,$O60=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q60" s="254" t="str">
-        <f>IF(AND($N60=$P$7,$B60&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R60" s="254" t="str">
-        <f>IF(AND($O60=$P$7,$B60&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S60" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G60,1)),"",IF((AND(FIND(#REF!,G60,1)&gt;=1,B60=#REF!,OR($N60=#REF!,$O60=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T60" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G60,1)),"",IF((AND(LEFT(G60,2)=LEFT(#REF!,2),B60&lt;#REF!,$N60=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U60" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G60,1)),"",IF((AND(RIGHT(G60,2)=RIGHT(#REF!,2),B60&lt;#REF!,$O60=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V60" s="254"/>
-      <c r="W60" s="254" t="str">
-        <f>IF(AND(MONTH(E60)='IN-NX'!$J$5,'IN-NX'!$D$7=D60),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A61" s="246" t="str">
-        <f>IF(B61&lt;&gt;"",IF(AND(B61='IN-TC'!$S$4,OR(TH!N61="1111",TH!O61="1111")),TH!D61,""),"")</f>
-        <v>C02</v>
-      </c>
-      <c r="B61" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C61" s="260">
-        <f t="shared" si="4"/>
-        <v>42845</v>
-      </c>
-      <c r="D61" s="260" t="s">
-        <v>272</v>
-      </c>
-      <c r="E61" s="260">
-        <v>42845</v>
-      </c>
-      <c r="F61" s="261" t="s">
-        <v>270</v>
-      </c>
-      <c r="G61" s="265"/>
-      <c r="H61" s="170" t="s">
-        <v>192</v>
-      </c>
-      <c r="I61" s="263"/>
-      <c r="J61" s="263"/>
-      <c r="K61" s="262"/>
-      <c r="L61" s="263"/>
-      <c r="M61" s="117">
-        <f t="shared" ref="M61:M67" si="10">SUMIF($H$25:$H$43,H61,$M$25:$M$43)</f>
-        <v>532610000</v>
-      </c>
-      <c r="N61" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="O61" s="264" t="s">
-        <v>41</v>
-      </c>
-      <c r="P61" s="254" t="str">
-        <f>IF(AND(B61='111'!$L$11,OR($N61=$P$7,$O61=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q61" s="254" t="str">
-        <f>IF(AND($N61=$P$7,$B61&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R61" s="254" t="str">
-        <f>IF(AND($O61=$P$7,$B61&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S61" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G61,1)),"",IF((AND(FIND(#REF!,G61,1)&gt;=1,B61=#REF!,OR($N61=#REF!,$O61=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T61" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G61,1)),"",IF((AND(LEFT(G61,2)=LEFT(#REF!,2),B61&lt;#REF!,$N61=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U61" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G61,1)),"",IF((AND(RIGHT(G61,2)=RIGHT(#REF!,2),B61&lt;#REF!,$O61=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V61" s="254"/>
-      <c r="W61" s="254" t="str">
-        <f>IF(AND(MONTH(E61)='IN-NX'!$J$5,'IN-NX'!$D$7=D61),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A62" s="246" t="str">
-        <f>IF(B62&lt;&gt;"",IF(AND(B62='IN-TC'!$S$4,OR(TH!N62="1111",TH!O62="1111")),TH!D62,""),"")</f>
-        <v>C03</v>
-      </c>
-      <c r="B62" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C62" s="260">
-        <f t="shared" si="4"/>
-        <v>42845</v>
-      </c>
-      <c r="D62" s="260" t="s">
-        <v>273</v>
-      </c>
-      <c r="E62" s="260">
-        <v>42845</v>
-      </c>
-      <c r="F62" s="261" t="s">
-        <v>270</v>
-      </c>
-      <c r="G62" s="265"/>
-      <c r="H62" s="170" t="s">
-        <v>245</v>
-      </c>
-      <c r="I62" s="263"/>
-      <c r="J62" s="263"/>
-      <c r="K62" s="262"/>
-      <c r="L62" s="263"/>
-      <c r="M62" s="117">
-        <f t="shared" si="10"/>
-        <v>951450000</v>
-      </c>
-      <c r="N62" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="O62" s="264" t="s">
-        <v>41</v>
-      </c>
-      <c r="P62" s="254" t="str">
-        <f>IF(AND(B62='111'!$L$11,OR($N62=$P$7,$O62=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q62" s="254" t="str">
-        <f>IF(AND($N62=$P$7,$B62&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R62" s="254" t="str">
-        <f>IF(AND($O62=$P$7,$B62&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S62" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G62,1)),"",IF((AND(FIND(#REF!,G62,1)&gt;=1,B62=#REF!,OR($N62=#REF!,$O62=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T62" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G62,1)),"",IF((AND(LEFT(G62,2)=LEFT(#REF!,2),B62&lt;#REF!,$N62=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U62" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G62,1)),"",IF((AND(RIGHT(G62,2)=RIGHT(#REF!,2),B62&lt;#REF!,$O62=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V62" s="254"/>
-      <c r="W62" s="254" t="str">
-        <f>IF(AND(MONTH(E62)='IN-NX'!$J$5,'IN-NX'!$D$7=D62),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A63" s="246" t="str">
-        <f>IF(B63&lt;&gt;"",IF(AND(B63='IN-TC'!$S$4,OR(TH!N63="1111",TH!O63="1111")),TH!D63,""),"")</f>
-        <v>C04</v>
-      </c>
-      <c r="B63" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C63" s="260">
-        <f t="shared" si="4"/>
-        <v>42852</v>
-      </c>
-      <c r="D63" s="260" t="s">
-        <v>274</v>
-      </c>
-      <c r="E63" s="260">
-        <v>42852</v>
-      </c>
-      <c r="F63" s="261" t="s">
-        <v>270</v>
-      </c>
-      <c r="G63" s="265"/>
-      <c r="H63" s="170" t="s">
-        <v>196</v>
-      </c>
-      <c r="I63" s="263"/>
-      <c r="J63" s="263"/>
-      <c r="K63" s="262"/>
-      <c r="L63" s="263"/>
-      <c r="M63" s="117">
-        <f t="shared" si="10"/>
-        <v>963674000</v>
-      </c>
-      <c r="N63" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="O63" s="264" t="s">
-        <v>41</v>
-      </c>
-      <c r="P63" s="254" t="str">
-        <f>IF(AND(B63='111'!$L$11,OR($N63=$P$7,$O63=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q63" s="254" t="str">
-        <f>IF(AND($N63=$P$7,$B63&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R63" s="254" t="str">
-        <f>IF(AND($O63=$P$7,$B63&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S63" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G63,1)),"",IF((AND(FIND(#REF!,G63,1)&gt;=1,B63=#REF!,OR($N63=#REF!,$O63=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T63" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G63,1)),"",IF((AND(LEFT(G63,2)=LEFT(#REF!,2),B63&lt;#REF!,$N63=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U63" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G63,1)),"",IF((AND(RIGHT(G63,2)=RIGHT(#REF!,2),B63&lt;#REF!,$O63=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V63" s="254"/>
-      <c r="W63" s="254" t="str">
-        <f>IF(AND(MONTH(E63)='IN-NX'!$J$5,'IN-NX'!$D$7=D63),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A64" s="246" t="str">
-        <f>IF(B64&lt;&gt;"",IF(AND(B64='IN-TC'!$S$4,OR(TH!N64="1111",TH!O64="1111")),TH!D64,""),"")</f>
-        <v>C05</v>
-      </c>
-      <c r="B64" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C64" s="260">
-        <f t="shared" si="4"/>
-        <v>42852</v>
-      </c>
-      <c r="D64" s="260" t="s">
-        <v>275</v>
-      </c>
-      <c r="E64" s="260">
-        <v>42852</v>
-      </c>
-      <c r="F64" s="261" t="s">
-        <v>270</v>
-      </c>
-      <c r="G64" s="265"/>
-      <c r="H64" s="170" t="s">
-        <v>193</v>
-      </c>
-      <c r="I64" s="263"/>
-      <c r="J64" s="263"/>
-      <c r="K64" s="262"/>
-      <c r="L64" s="263"/>
-      <c r="M64" s="117">
-        <f t="shared" si="10"/>
-        <v>574470000</v>
-      </c>
-      <c r="N64" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="O64" s="264" t="s">
-        <v>41</v>
-      </c>
-      <c r="P64" s="254" t="str">
-        <f>IF(AND(B64='111'!$L$11,OR($N64=$P$7,$O64=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q64" s="254" t="str">
-        <f>IF(AND($N64=$P$7,$B64&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R64" s="254" t="str">
-        <f>IF(AND($O64=$P$7,$B64&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S64" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G64,1)),"",IF((AND(FIND(#REF!,G64,1)&gt;=1,B64=#REF!,OR($N64=#REF!,$O64=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T64" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G64,1)),"",IF((AND(LEFT(G64,2)=LEFT(#REF!,2),B64&lt;#REF!,$N64=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U64" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G64,1)),"",IF((AND(RIGHT(G64,2)=RIGHT(#REF!,2),B64&lt;#REF!,$O64=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V64" s="254"/>
-      <c r="W64" s="254" t="str">
-        <f>IF(AND(MONTH(E64)='IN-NX'!$J$5,'IN-NX'!$D$7=D64),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A65" s="246" t="str">
-        <f>IF(B65&lt;&gt;"",IF(AND(B65='IN-TC'!$S$4,OR(TH!N65="1111",TH!O65="1111")),TH!D65,""),"")</f>
-        <v>C06</v>
-      </c>
-      <c r="B65" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C65" s="260">
-        <f t="shared" si="4"/>
-        <v>42852</v>
-      </c>
-      <c r="D65" s="260" t="s">
-        <v>276</v>
-      </c>
-      <c r="E65" s="260">
-        <v>42852</v>
-      </c>
-      <c r="F65" s="261" t="s">
-        <v>270</v>
-      </c>
-      <c r="G65" s="265"/>
-      <c r="H65" s="170" t="s">
-        <v>194</v>
-      </c>
-      <c r="I65" s="263"/>
-      <c r="J65" s="263"/>
-      <c r="K65" s="262"/>
-      <c r="L65" s="263"/>
-      <c r="M65" s="117">
-        <f t="shared" si="10"/>
-        <v>610460000</v>
-      </c>
-      <c r="N65" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="O65" s="264" t="s">
-        <v>41</v>
-      </c>
-      <c r="P65" s="254" t="str">
-        <f>IF(AND(B65='111'!$L$11,OR($N65=$P$7,$O65=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q65" s="254" t="str">
-        <f>IF(AND($N65=$P$7,$B65&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R65" s="254" t="str">
-        <f>IF(AND($O65=$P$7,$B65&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S65" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G65,1)),"",IF((AND(FIND(#REF!,G65,1)&gt;=1,B65=#REF!,OR($N65=#REF!,$O65=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T65" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G65,1)),"",IF((AND(LEFT(G65,2)=LEFT(#REF!,2),B65&lt;#REF!,$N65=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U65" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G65,1)),"",IF((AND(RIGHT(G65,2)=RIGHT(#REF!,2),B65&lt;#REF!,$O65=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V65" s="254"/>
-      <c r="W65" s="254" t="str">
-        <f>IF(AND(MONTH(E65)='IN-NX'!$J$5,'IN-NX'!$D$7=D65),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A66" s="246" t="str">
-        <f>IF(B66&lt;&gt;"",IF(AND(B66='IN-TC'!$S$4,OR(TH!N66="1111",TH!O66="1111")),TH!D66,""),"")</f>
-        <v>C07</v>
-      </c>
-      <c r="B66" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C66" s="260">
-        <f t="shared" si="4"/>
-        <v>42853</v>
-      </c>
-      <c r="D66" s="260" t="s">
-        <v>293</v>
-      </c>
-      <c r="E66" s="260">
-        <v>42853</v>
-      </c>
-      <c r="F66" s="261" t="s">
-        <v>270</v>
-      </c>
-      <c r="G66" s="265"/>
-      <c r="H66" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="I66" s="263"/>
-      <c r="J66" s="263"/>
-      <c r="K66" s="262"/>
-      <c r="L66" s="263"/>
-      <c r="M66" s="117">
-        <f t="shared" si="10"/>
-        <v>614281000</v>
-      </c>
-      <c r="N66" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="O66" s="264" t="s">
-        <v>41</v>
-      </c>
-      <c r="P66" s="254" t="str">
-        <f>IF(AND(B66='111'!$L$11,OR($N66=$P$7,$O66=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q66" s="254" t="str">
-        <f>IF(AND($N66=$P$7,$B66&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R66" s="254" t="str">
-        <f>IF(AND($O66=$P$7,$B66&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S66" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G66,1)),"",IF((AND(FIND(#REF!,G66,1)&gt;=1,B66=#REF!,OR($N66=#REF!,$O66=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T66" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G66,1)),"",IF((AND(LEFT(G66,2)=LEFT(#REF!,2),B66&lt;#REF!,$N66=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U66" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G66,1)),"",IF((AND(RIGHT(G66,2)=RIGHT(#REF!,2),B66&lt;#REF!,$O66=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V66" s="254"/>
-      <c r="W66" s="254" t="str">
-        <f>IF(AND(MONTH(E66)='IN-NX'!$J$5,'IN-NX'!$D$7=D66),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A67" s="246" t="str">
-        <f>IF(B67&lt;&gt;"",IF(AND(B67='IN-TC'!$S$4,OR(TH!N67="1111",TH!O67="1111")),TH!D67,""),"")</f>
-        <v>C08</v>
-      </c>
-      <c r="B67" s="247">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C67" s="260">
-        <f t="shared" si="4"/>
-        <v>42853</v>
-      </c>
-      <c r="D67" s="260" t="s">
-        <v>294</v>
-      </c>
-      <c r="E67" s="260">
-        <v>42853</v>
-      </c>
-      <c r="F67" s="261" t="s">
-        <v>270</v>
-      </c>
-      <c r="G67" s="265"/>
-      <c r="H67" s="170" t="s">
-        <v>195</v>
-      </c>
-      <c r="I67" s="263"/>
-      <c r="J67" s="263"/>
-      <c r="K67" s="262"/>
-      <c r="L67" s="263"/>
-      <c r="M67" s="117">
-        <f t="shared" si="10"/>
-        <v>601329000</v>
-      </c>
-      <c r="N67" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="O67" s="264" t="s">
-        <v>41</v>
-      </c>
-      <c r="P67" s="254" t="str">
-        <f>IF(AND(B67='111'!$L$11,OR($N67=$P$7,$O67=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q67" s="254" t="str">
-        <f>IF(AND($N67=$P$7,$B67&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R67" s="254" t="str">
-        <f>IF(AND($O67=$P$7,$B67&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S67" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G67,1)),"",IF((AND(FIND(#REF!,G67,1)&gt;=1,B67=#REF!,OR($N67=#REF!,$O67=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T67" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G67,1)),"",IF((AND(LEFT(G67,2)=LEFT(#REF!,2),B67&lt;#REF!,$N67=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U67" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G67,1)),"",IF((AND(RIGHT(G67,2)=RIGHT(#REF!,2),B67&lt;#REF!,$O67=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V67" s="254"/>
-      <c r="W67" s="254" t="str">
-        <f>IF(AND(MONTH(E67)='IN-NX'!$J$5,'IN-NX'!$D$7=D67),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A68" s="246" t="str">
-        <f>IF(B68&lt;&gt;"",IF(AND(B68='IN-TC'!$S$4,OR(TH!N68="1111",TH!O68="1111")),TH!D68,""),"")</f>
-        <v/>
-      </c>
-      <c r="B68" s="247" t="str">
-        <f t="shared" ref="B68:B80" si="11">IF(C68&lt;&gt;"",MONTH(C68),"")</f>
-        <v/>
-      </c>
-      <c r="C68" s="260"/>
-      <c r="D68" s="260"/>
-      <c r="E68" s="260"/>
-      <c r="F68" s="266"/>
-      <c r="G68" s="266"/>
-      <c r="H68" s="169"/>
-      <c r="I68" s="263"/>
-      <c r="J68" s="263"/>
-      <c r="K68" s="262"/>
-      <c r="L68" s="263"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="267"/>
-      <c r="O68" s="267"/>
-      <c r="P68" s="254" t="str">
-        <f>IF(AND(B68='111'!$L$11,OR($N68=$P$7,$O68=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q68" s="254" t="str">
-        <f>IF(AND($N68=$P$7,$B68&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R68" s="254" t="str">
-        <f>IF(AND($O68=$P$7,$B68&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S68" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G68,1)),"",IF((AND(FIND(#REF!,G68,1)&gt;=1,B68=#REF!,OR($N68=#REF!,$O68=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T68" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G68,1)),"",IF((AND(LEFT(G68,2)=LEFT(#REF!,2),B68&lt;#REF!,$N68=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U68" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G68,1)),"",IF((AND(RIGHT(G68,2)=RIGHT(#REF!,2),B68&lt;#REF!,$O68=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V68" s="254"/>
-      <c r="W68" s="254" t="str">
-        <f>IF(AND(MONTH(E68)='IN-NX'!$J$5,'IN-NX'!$D$7=D68),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A69" s="246" t="str">
-        <f>IF(B69&lt;&gt;"",IF(AND(B69='IN-TC'!$S$4,OR(TH!N69="1111",TH!O69="1111")),TH!D69,""),"")</f>
-        <v/>
-      </c>
-      <c r="B69" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C69" s="260"/>
-      <c r="D69" s="260"/>
-      <c r="E69" s="260"/>
-      <c r="F69" s="266"/>
-      <c r="G69" s="268"/>
-      <c r="H69" s="169"/>
-      <c r="I69" s="263"/>
-      <c r="J69" s="263"/>
-      <c r="K69" s="262"/>
-      <c r="L69" s="263"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="267"/>
-      <c r="O69" s="267"/>
-      <c r="P69" s="254" t="str">
-        <f>IF(AND(B69='111'!$L$11,OR($N69=$P$7,$O69=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q69" s="254" t="str">
-        <f>IF(AND($N69=$P$7,$B69&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R69" s="254" t="str">
-        <f>IF(AND($O69=$P$7,$B69&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S69" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G69,1)),"",IF((AND(FIND(#REF!,G69,1)&gt;=1,B69=#REF!,OR($N69=#REF!,$O69=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T69" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G69,1)),"",IF((AND(LEFT(G69,2)=LEFT(#REF!,2),B69&lt;#REF!,$N69=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U69" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G69,1)),"",IF((AND(RIGHT(G69,2)=RIGHT(#REF!,2),B69&lt;#REF!,$O69=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V69" s="254"/>
-      <c r="W69" s="254" t="str">
-        <f>IF(AND(MONTH(E69)='IN-NX'!$J$5,'IN-NX'!$D$7=D69),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A70" s="246" t="str">
-        <f>IF(B70&lt;&gt;"",IF(AND(B70='IN-TC'!$S$4,OR(TH!N70="1111",TH!O70="1111")),TH!D70,""),"")</f>
-        <v/>
-      </c>
-      <c r="B70" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C70" s="260"/>
-      <c r="D70" s="260"/>
-      <c r="E70" s="260"/>
-      <c r="F70" s="266"/>
-      <c r="G70" s="268"/>
-      <c r="H70" s="169"/>
-      <c r="I70" s="263"/>
-      <c r="J70" s="263"/>
-      <c r="K70" s="262"/>
-      <c r="L70" s="263"/>
-      <c r="M70" s="117"/>
-      <c r="N70" s="267"/>
-      <c r="O70" s="267"/>
-      <c r="P70" s="254" t="str">
-        <f>IF(AND(B70='111'!$L$11,OR($N70=$P$7,$O70=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q70" s="254" t="str">
-        <f>IF(AND($N70=$P$7,$B70&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R70" s="254" t="str">
-        <f>IF(AND($O70=$P$7,$B70&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S70" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G70,1)),"",IF((AND(FIND(#REF!,G70,1)&gt;=1,B70=#REF!,OR($N70=#REF!,$O70=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T70" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G70,1)),"",IF((AND(LEFT(G70,2)=LEFT(#REF!,2),B70&lt;#REF!,$N70=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U70" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G70,1)),"",IF((AND(RIGHT(G70,2)=RIGHT(#REF!,2),B70&lt;#REF!,$O70=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V70" s="254"/>
-      <c r="W70" s="254" t="str">
-        <f>IF(AND(MONTH(E70)='IN-NX'!$J$5,'IN-NX'!$D$7=D70),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A71" s="246" t="str">
-        <f>IF(B71&lt;&gt;"",IF(AND(B71='IN-TC'!$S$4,OR(TH!N71="1111",TH!O71="1111")),TH!D71,""),"")</f>
-        <v/>
-      </c>
-      <c r="B71" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C71" s="260"/>
-      <c r="D71" s="260"/>
-      <c r="E71" s="260"/>
-      <c r="F71" s="266"/>
-      <c r="G71" s="268"/>
-      <c r="H71" s="169"/>
-      <c r="I71" s="263"/>
-      <c r="J71" s="263"/>
-      <c r="K71" s="262"/>
-      <c r="L71" s="263"/>
-      <c r="M71" s="117"/>
-      <c r="N71" s="267"/>
-      <c r="O71" s="267"/>
-      <c r="P71" s="254" t="str">
-        <f>IF(AND(B71='111'!$L$11,OR($N71=$P$7,$O71=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q71" s="254" t="str">
-        <f>IF(AND($N71=$P$7,$B71&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R71" s="254" t="str">
-        <f>IF(AND($O71=$P$7,$B71&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S71" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G71,1)),"",IF((AND(FIND(#REF!,G71,1)&gt;=1,B71=#REF!,OR($N71=#REF!,$O71=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T71" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G71,1)),"",IF((AND(LEFT(G71,2)=LEFT(#REF!,2),B71&lt;#REF!,$N71=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U71" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G71,1)),"",IF((AND(RIGHT(G71,2)=RIGHT(#REF!,2),B71&lt;#REF!,$O71=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V71" s="254"/>
-      <c r="W71" s="254" t="str">
-        <f>IF(AND(MONTH(E71)='IN-NX'!$J$5,'IN-NX'!$D$7=D71),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A72" s="246" t="str">
-        <f>IF(B72&lt;&gt;"",IF(AND(B72='IN-TC'!$S$4,OR(TH!N72="1111",TH!O72="1111")),TH!D72,""),"")</f>
-        <v/>
-      </c>
-      <c r="B72" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C72" s="260"/>
-      <c r="D72" s="260"/>
-      <c r="E72" s="260"/>
-      <c r="F72" s="266"/>
-      <c r="G72" s="268"/>
-      <c r="H72" s="169"/>
-      <c r="I72" s="263"/>
-      <c r="J72" s="263"/>
-      <c r="K72" s="262"/>
-      <c r="L72" s="263"/>
-      <c r="M72" s="117"/>
-      <c r="N72" s="267"/>
-      <c r="O72" s="267"/>
-      <c r="P72" s="254" t="str">
-        <f>IF(AND(B72='111'!$L$11,OR($N72=$P$7,$O72=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q72" s="254" t="str">
-        <f>IF(AND($N72=$P$7,$B72&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R72" s="254" t="str">
-        <f>IF(AND($O72=$P$7,$B72&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S72" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G72,1)),"",IF((AND(FIND(#REF!,G72,1)&gt;=1,B72=#REF!,OR($N72=#REF!,$O72=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T72" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G72,1)),"",IF((AND(LEFT(G72,2)=LEFT(#REF!,2),B72&lt;#REF!,$N72=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U72" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G72,1)),"",IF((AND(RIGHT(G72,2)=RIGHT(#REF!,2),B72&lt;#REF!,$O72=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V72" s="254"/>
-      <c r="W72" s="254" t="str">
-        <f>IF(AND(MONTH(E72)='IN-NX'!$J$5,'IN-NX'!$D$7=D72),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A73" s="246" t="str">
-        <f>IF(B73&lt;&gt;"",IF(AND(B73='IN-TC'!$S$4,OR(TH!N73="1111",TH!O73="1111")),TH!D73,""),"")</f>
-        <v/>
-      </c>
-      <c r="B73" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C73" s="260"/>
-      <c r="D73" s="260"/>
-      <c r="E73" s="260"/>
-      <c r="F73" s="266"/>
-      <c r="G73" s="268"/>
-      <c r="H73" s="169"/>
-      <c r="I73" s="263"/>
-      <c r="J73" s="263"/>
-      <c r="K73" s="262"/>
-      <c r="L73" s="263"/>
-      <c r="M73" s="117"/>
-      <c r="N73" s="267"/>
-      <c r="O73" s="267"/>
-      <c r="P73" s="254" t="str">
-        <f>IF(AND(B73='111'!$L$11,OR($N73=$P$7,$O73=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q73" s="254" t="str">
-        <f>IF(AND($N73=$P$7,$B73&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R73" s="254" t="str">
-        <f>IF(AND($O73=$P$7,$B73&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S73" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G73,1)),"",IF((AND(FIND(#REF!,G73,1)&gt;=1,B73=#REF!,OR($N73=#REF!,$O73=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T73" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G73,1)),"",IF((AND(LEFT(G73,2)=LEFT(#REF!,2),B73&lt;#REF!,$N73=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U73" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G73,1)),"",IF((AND(RIGHT(G73,2)=RIGHT(#REF!,2),B73&lt;#REF!,$O73=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V73" s="254"/>
-      <c r="W73" s="254" t="str">
-        <f>IF(AND(MONTH(E73)='IN-NX'!$J$5,'IN-NX'!$D$7=D73),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A74" s="246" t="str">
-        <f>IF(B74&lt;&gt;"",IF(AND(B74='IN-TC'!$S$4,OR(TH!N74="1111",TH!O74="1111")),TH!D74,""),"")</f>
-        <v/>
-      </c>
-      <c r="B74" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C74" s="260"/>
-      <c r="D74" s="260"/>
-      <c r="E74" s="260"/>
-      <c r="F74" s="266"/>
-      <c r="G74" s="268"/>
-      <c r="H74" s="169"/>
-      <c r="I74" s="263"/>
-      <c r="J74" s="263"/>
-      <c r="K74" s="262"/>
-      <c r="L74" s="263"/>
-      <c r="M74" s="117"/>
-      <c r="N74" s="267"/>
-      <c r="O74" s="267"/>
-      <c r="P74" s="254" t="str">
-        <f>IF(AND(B74='111'!$L$11,OR($N74=$P$7,$O74=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q74" s="254" t="str">
-        <f>IF(AND($N74=$P$7,$B74&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R74" s="254" t="str">
-        <f>IF(AND($O74=$P$7,$B74&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S74" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G74,1)),"",IF((AND(FIND(#REF!,G74,1)&gt;=1,B74=#REF!,OR($N74=#REF!,$O74=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T74" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G74,1)),"",IF((AND(LEFT(G74,2)=LEFT(#REF!,2),B74&lt;#REF!,$N74=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U74" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G74,1)),"",IF((AND(RIGHT(G74,2)=RIGHT(#REF!,2),B74&lt;#REF!,$O74=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V74" s="254"/>
-      <c r="W74" s="254" t="str">
-        <f>IF(AND(MONTH(E74)='IN-NX'!$J$5,'IN-NX'!$D$7=D74),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A75" s="246" t="str">
-        <f>IF(B75&lt;&gt;"",IF(AND(B75='IN-TC'!$S$4,OR(TH!N75="1111",TH!O75="1111")),TH!D75,""),"")</f>
-        <v/>
-      </c>
-      <c r="B75" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C75" s="260"/>
-      <c r="D75" s="260"/>
-      <c r="E75" s="260"/>
-      <c r="F75" s="266"/>
-      <c r="G75" s="268"/>
-      <c r="H75" s="169"/>
-      <c r="I75" s="263"/>
-      <c r="J75" s="263"/>
-      <c r="K75" s="262"/>
-      <c r="L75" s="263"/>
-      <c r="M75" s="117"/>
-      <c r="N75" s="267"/>
-      <c r="O75" s="267"/>
-      <c r="P75" s="254" t="str">
-        <f>IF(AND(B75='111'!$L$11,OR($N75=$P$7,$O75=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q75" s="254" t="str">
-        <f>IF(AND($N75=$P$7,$B75&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R75" s="254" t="str">
-        <f>IF(AND($O75=$P$7,$B75&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S75" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G75,1)),"",IF((AND(FIND(#REF!,G75,1)&gt;=1,B75=#REF!,OR($N75=#REF!,$O75=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T75" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G75,1)),"",IF((AND(LEFT(G75,2)=LEFT(#REF!,2),B75&lt;#REF!,$N75=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U75" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G75,1)),"",IF((AND(RIGHT(G75,2)=RIGHT(#REF!,2),B75&lt;#REF!,$O75=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V75" s="254"/>
-      <c r="W75" s="254" t="str">
-        <f>IF(AND(MONTH(E75)='IN-NX'!$J$5,'IN-NX'!$D$7=D75),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A76" s="246" t="str">
-        <f>IF(B76&lt;&gt;"",IF(AND(B76='IN-TC'!$S$4,OR(TH!N76="1111",TH!O76="1111")),TH!D76,""),"")</f>
-        <v/>
-      </c>
-      <c r="B76" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C76" s="260"/>
-      <c r="D76" s="260"/>
-      <c r="E76" s="260"/>
-      <c r="F76" s="266"/>
-      <c r="G76" s="268"/>
-      <c r="H76" s="169"/>
-      <c r="I76" s="263"/>
-      <c r="J76" s="263"/>
-      <c r="K76" s="262"/>
-      <c r="L76" s="263"/>
-      <c r="M76" s="117"/>
-      <c r="N76" s="267"/>
-      <c r="O76" s="267"/>
-      <c r="P76" s="254" t="str">
-        <f>IF(AND(B76='111'!$L$11,OR($N76=$P$7,$O76=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q76" s="254" t="str">
-        <f>IF(AND($N76=$P$7,$B76&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R76" s="254" t="str">
-        <f>IF(AND($O76=$P$7,$B76&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S76" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G76,1)),"",IF((AND(FIND(#REF!,G76,1)&gt;=1,B76=#REF!,OR($N76=#REF!,$O76=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T76" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G76,1)),"",IF((AND(LEFT(G76,2)=LEFT(#REF!,2),B76&lt;#REF!,$N76=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U76" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G76,1)),"",IF((AND(RIGHT(G76,2)=RIGHT(#REF!,2),B76&lt;#REF!,$O76=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V76" s="254"/>
-      <c r="W76" s="254" t="str">
-        <f>IF(AND(MONTH(E76)='IN-NX'!$J$5,'IN-NX'!$D$7=D76),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A77" s="246" t="str">
-        <f>IF(B77&lt;&gt;"",IF(AND(B77='IN-TC'!$S$4,OR(TH!N77="1111",TH!O77="1111")),TH!D77,""),"")</f>
-        <v/>
-      </c>
-      <c r="B77" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C77" s="260"/>
-      <c r="D77" s="260"/>
-      <c r="E77" s="260"/>
-      <c r="F77" s="266"/>
-      <c r="G77" s="268"/>
-      <c r="H77" s="169"/>
-      <c r="I77" s="263"/>
-      <c r="J77" s="263"/>
-      <c r="K77" s="262"/>
-      <c r="L77" s="263"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="267"/>
-      <c r="O77" s="267"/>
-      <c r="P77" s="254" t="str">
-        <f>IF(AND(B77='111'!$L$11,OR($N77=$P$7,$O77=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q77" s="254" t="str">
-        <f>IF(AND($N77=$P$7,$B77&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R77" s="254" t="str">
-        <f>IF(AND($O77=$P$7,$B77&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S77" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G77,1)),"",IF((AND(FIND(#REF!,G77,1)&gt;=1,B77=#REF!,OR($N77=#REF!,$O77=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T77" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G77,1)),"",IF((AND(LEFT(G77,2)=LEFT(#REF!,2),B77&lt;#REF!,$N77=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U77" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G77,1)),"",IF((AND(RIGHT(G77,2)=RIGHT(#REF!,2),B77&lt;#REF!,$O77=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V77" s="254"/>
-      <c r="W77" s="254" t="str">
-        <f>IF(AND(MONTH(E77)='IN-NX'!$J$5,'IN-NX'!$D$7=D77),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A78" s="246" t="str">
-        <f>IF(B78&lt;&gt;"",IF(AND(B78='IN-TC'!$S$4,OR(TH!N78="1111",TH!O78="1111")),TH!D78,""),"")</f>
-        <v/>
-      </c>
-      <c r="B78" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C78" s="260"/>
-      <c r="D78" s="260"/>
-      <c r="E78" s="260"/>
-      <c r="F78" s="266"/>
-      <c r="G78" s="268"/>
-      <c r="H78" s="169"/>
-      <c r="I78" s="263"/>
-      <c r="J78" s="263"/>
-      <c r="K78" s="262"/>
-      <c r="L78" s="263"/>
-      <c r="M78" s="117"/>
-      <c r="N78" s="267"/>
-      <c r="O78" s="267"/>
-      <c r="P78" s="254" t="str">
-        <f>IF(AND(B78='111'!$L$11,OR($N78=$P$7,$O78=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q78" s="254" t="str">
-        <f>IF(AND($N78=$P$7,$B78&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R78" s="254" t="str">
-        <f>IF(AND($O78=$P$7,$B78&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S78" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G78,1)),"",IF((AND(FIND(#REF!,G78,1)&gt;=1,B78=#REF!,OR($N78=#REF!,$O78=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T78" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G78,1)),"",IF((AND(LEFT(G78,2)=LEFT(#REF!,2),B78&lt;#REF!,$N78=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U78" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G78,1)),"",IF((AND(RIGHT(G78,2)=RIGHT(#REF!,2),B78&lt;#REF!,$O78=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V78" s="254"/>
-      <c r="W78" s="254" t="str">
-        <f>IF(AND(MONTH(E78)='IN-NX'!$J$5,'IN-NX'!$D$7=D78),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A79" s="246" t="str">
-        <f>IF(B79&lt;&gt;"",IF(AND(B79='IN-TC'!$S$4,OR(TH!N79="1111",TH!O79="1111")),TH!D79,""),"")</f>
-        <v/>
-      </c>
-      <c r="B79" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C79" s="260"/>
-      <c r="D79" s="260"/>
-      <c r="E79" s="260"/>
-      <c r="F79" s="266"/>
-      <c r="G79" s="268"/>
-      <c r="H79" s="169"/>
-      <c r="I79" s="263"/>
-      <c r="J79" s="263"/>
-      <c r="K79" s="262"/>
-      <c r="L79" s="263"/>
-      <c r="M79" s="117"/>
-      <c r="N79" s="267"/>
-      <c r="O79" s="267"/>
-      <c r="P79" s="254" t="str">
-        <f>IF(AND(B79='111'!$L$11,OR($N79=$P$7,$O79=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q79" s="254" t="str">
-        <f>IF(AND($N79=$P$7,$B79&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R79" s="254" t="str">
-        <f>IF(AND($O79=$P$7,$B79&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S79" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G79,1)),"",IF((AND(FIND(#REF!,G79,1)&gt;=1,B79=#REF!,OR($N79=#REF!,$O79=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T79" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G79,1)),"",IF((AND(LEFT(G79,2)=LEFT(#REF!,2),B79&lt;#REF!,$N79=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U79" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G79,1)),"",IF((AND(RIGHT(G79,2)=RIGHT(#REF!,2),B79&lt;#REF!,$O79=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V79" s="254"/>
-      <c r="W79" s="254" t="str">
-        <f>IF(AND(MONTH(E79)='IN-NX'!$J$5,'IN-NX'!$D$7=D79),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A80" s="246" t="str">
-        <f>IF(B80&lt;&gt;"",IF(AND(B80='IN-TC'!$S$4,OR(TH!N80="1111",TH!O80="1111")),TH!D80,""),"")</f>
-        <v/>
-      </c>
-      <c r="B80" s="247" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C80" s="260"/>
-      <c r="D80" s="260"/>
-      <c r="E80" s="260"/>
-      <c r="F80" s="266"/>
-      <c r="G80" s="268"/>
-      <c r="H80" s="169"/>
-      <c r="I80" s="263"/>
-      <c r="J80" s="263"/>
-      <c r="K80" s="262"/>
-      <c r="L80" s="263"/>
-      <c r="M80" s="117"/>
-      <c r="N80" s="267"/>
-      <c r="O80" s="267"/>
-      <c r="P80" s="254" t="str">
-        <f>IF(AND(B80='111'!$L$11,OR($N80=$P$7,$O80=$P$7)),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q80" s="254" t="str">
-        <f>IF(AND($N80=$P$7,$B80&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="R80" s="254" t="str">
-        <f>IF(AND($O80=$P$7,$B80&lt;'111'!$L$11),"x","")</f>
-        <v/>
-      </c>
-      <c r="S80" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G80,1)),"",IF((AND(FIND(#REF!,G80,1)&gt;=1,B80=#REF!,OR($N80=#REF!,$O80=#REF!))),"x",""))</f>
-        <v/>
-      </c>
-      <c r="T80" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G80,1)),"",IF((AND(LEFT(G80,2)=LEFT(#REF!,2),B80&lt;#REF!,$N80=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="U80" s="254" t="str">
-        <f>IF(ISERROR(FIND(#REF!,G80,1)),"",IF((AND(RIGHT(G80,2)=RIGHT(#REF!,2),B80&lt;#REF!,$O80=#REF!)),"x",""))</f>
-        <v/>
-      </c>
-      <c r="V80" s="254"/>
-      <c r="W80" s="254" t="str">
-        <f>IF(AND(MONTH(E80)='IN-NX'!$J$5,'IN-NX'!$D$7=D80),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="13:13">
-      <c r="M90" s="271">
-        <f>SUBTOTAL(9,M10:M80)</f>
-        <v>17302241894.599998</v>
+    <row r="67" spans="13:13">
+      <c r="M67" s="230">
+        <f>SUBTOTAL(9,M10:M57)</f>
+        <v>5175567394.6000004</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:W80"/>
+  <autoFilter ref="A9:W57"/>
   <sortState ref="A149:AE180">
     <sortCondition ref="C149:C180"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="P7:R8"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="C4:O4"/>
     <mergeCell ref="C5:O5"/>
@@ -10694,13 +8899,6 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="S7:U8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="P7:R8"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10744,12 +8942,12 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="188" t="s">
+      <c r="G1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="71" t="s">
@@ -10759,12 +8957,12 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="G2" s="189" t="s">
+      <c r="G2" s="254" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="3"/>
@@ -10772,10 +8970,10 @@
       <c r="C3" s="84"/>
       <c r="D3" s="84"/>
       <c r="E3" s="4"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="4"/>
@@ -10789,61 +8987,61 @@
       <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="255" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="193"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="255"/>
+      <c r="I5" s="255"/>
+      <c r="J5" s="255"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="195" t="str">
+      <c r="A6" s="257" t="str">
         <f>$L$11&amp;" / 2015"</f>
         <v>1 / 2015</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
+      <c r="B6" s="257"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="257"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="256" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="256"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="256" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="256"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="87"/>
@@ -10852,53 +9050,53 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" customHeight="1" thickBot="1">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="259" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="258" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="191" t="s">
+      <c r="D10" s="258"/>
+      <c r="E10" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="190" t="s">
+      <c r="G10" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190" t="s">
+      <c r="H10" s="258"/>
+      <c r="I10" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="J10" s="190" t="s">
+      <c r="J10" s="258" t="s">
         <v>128</v>
       </c>
       <c r="L10" s="113"/>
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1" thickBot="1">
-      <c r="A11" s="192"/>
-      <c r="B11" s="192"/>
+      <c r="A11" s="260"/>
+      <c r="B11" s="260"/>
       <c r="C11" s="88" t="s">
         <v>129</v>
       </c>
       <c r="D11" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="190"/>
-      <c r="F11" s="192"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="260"/>
       <c r="G11" s="88" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="190"/>
-      <c r="J11" s="190"/>
+      <c r="I11" s="258"/>
+      <c r="J11" s="258"/>
       <c r="L11" s="115">
         <v>1</v>
       </c>
@@ -14673,12 +12871,6 @@
     <sortCondition ref="A13:A167"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A6:J6"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
@@ -14687,6 +12879,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <conditionalFormatting sqref="A14:H104">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
@@ -14716,7 +12914,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="27" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1:B2"/>
-      <selection pane="bottomLeft" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14772,7 +12970,7 @@
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
       <c r="B2" s="45" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="35"/>
@@ -14815,7 +13013,7 @@
       <c r="Q3" s="165"/>
       <c r="R3" s="119"/>
       <c r="S3" s="120" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="T3" s="119"/>
       <c r="U3" s="120" t="s">
@@ -14845,7 +13043,7 @@
       <c r="Q4" s="166"/>
       <c r="R4" s="56"/>
       <c r="S4" s="115">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T4" s="56"/>
       <c r="U4" s="167" t="s">
@@ -14864,7 +13062,7 @@
       <c r="G5" s="52"/>
       <c r="H5" s="57" t="str">
         <f>IF(ISNA(VLOOKUP($M$7,TM,3,0)),"","Ngày  "&amp;DAY(VLOOKUP($M$7,TM,3,0))&amp;"  tháng  "&amp;MONTH(VLOOKUP($M$7,TM,3,0))&amp;"  năm  "&amp;YEAR(VLOOKUP($M$7,TM,3,0)))</f>
-        <v>Ngày  20  tháng  4  năm  2017</v>
+        <v>Ngày  7  tháng  9  năm  2017</v>
       </c>
       <c r="J5" s="52"/>
       <c r="K5" s="54"/>
@@ -14890,7 +13088,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="62" t="str">
         <f>"Quyển số: 0"&amp;$S$4</f>
-        <v>Quyển số: 04</v>
+        <v>Quyển số: 09</v>
       </c>
       <c r="M6" s="60"/>
       <c r="N6" s="60"/>
@@ -15000,7 +13198,7 @@
       <c r="B10" s="60"/>
       <c r="C10" s="71" t="str">
         <f>IF($U$4="T","Họ tên người nộp tiền :","Họ và tên người nhận tiền :")&amp;" "&amp;IF(ISNA(VLOOKUP($M$7,TM,8,0)),"",VLOOKUP($M$7,TM,8,0))</f>
-        <v>Họ và tên người nhận tiền : Nguyễn Văn Nhân</v>
+        <v>Họ và tên người nhận tiền : Nguyễn Thị Hội</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="60"/>
@@ -15064,7 +13262,7 @@
       </c>
       <c r="D13" s="73">
         <f ca="1">SUMIF(TM,$M$7,TH)</f>
-        <v>953950000</v>
+        <v>357352500</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>106</v>
@@ -15076,7 +13274,7 @@
     <row r="14" spans="1:23">
       <c r="C14" s="36" t="str">
         <f ca="1">"Viết bằng chữ: " &amp;[2]!VND('IN-TC'!D13, TRUE)</f>
-        <v>Viết bằng chữ: Chín trăm năm mươi ba triệu, chín trăm năm mươi ngàn đồng</v>
+        <v>Viết bằng chữ: Ba trăm năm mươi bảy triệu, ba trăm năm mươi hai ngàn, năm trăm đồng</v>
       </c>
       <c r="P14" s="51"/>
     </row>
@@ -15103,7 +13301,7 @@
       <c r="L16" s="75"/>
       <c r="M16" s="83" t="str">
         <f>H5</f>
-        <v>Ngày  20  tháng  4  năm  2017</v>
+        <v>Ngày  7  tháng  9  năm  2017</v>
       </c>
       <c r="N16" s="75"/>
       <c r="O16" s="75"/>
@@ -15319,12 +13517,12 @@
   <sheetPr>
     <tabColor indexed="33"/>
   </sheetPr>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="36" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="33" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -15359,7 +13557,7 @@
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1">
       <c r="A3" s="45" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G3" s="46" t="s">
         <v>190</v>
@@ -15374,7 +13572,7 @@
         <v>146</v>
       </c>
       <c r="J4" s="139" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M4" s="140"/>
       <c r="N4" s="49" t="s">
@@ -15388,11 +13586,11 @@
         <v>PHIẾU NHẬP KHO</v>
       </c>
       <c r="J5" s="142">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K5" s="143"/>
       <c r="L5" s="144" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="M5" s="145"/>
       <c r="N5" s="146">
@@ -15404,7 +13602,7 @@
     <row r="6" spans="1:16" s="147" customFormat="1" ht="10.5" customHeight="1">
       <c r="D6" s="148" t="str">
         <f ca="1">"Ngày  " &amp;DAY(IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!C$1,SMALL(Dong10,ROWS($1:1)),)))&amp;"  tháng  " &amp; MONTH(IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!C$1,SMALL(Dong10,ROWS($1:1)),)))&amp;"  năm  "&amp;YEAR(IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!C$1,SMALL(Dong10,ROWS($1:1)),)))</f>
-        <v>Ngày  8  tháng  4  năm  2017</v>
+        <v>Ngày  12  tháng  8  năm  2017</v>
       </c>
       <c r="E6" s="149"/>
       <c r="M6" s="150"/>
@@ -15438,7 +13636,7 @@
     <row r="9" spans="1:16" s="147" customFormat="1" ht="10.5" customHeight="1">
       <c r="A9" s="147" t="str">
         <f ca="1">+IF(MID($D$7,4,1)="N","Họ và tên người giao :   ","Họ và tên người nhận hàng :   ")&amp;IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!H$1,SMALL(Dong10,ROWS($1:1)),)) &amp;IF(MID($D$7,4,1)="N","","                                         Địa chỉ (bộ phận) :     Sản Xuất ")</f>
-        <v>Họ và tên người giao :   Nguyễn Văn Nhân</v>
+        <v>Họ và tên người giao :   Nguyễn Thanh Bình</v>
       </c>
       <c r="M9" s="150"/>
     </row>
@@ -15462,43 +13660,43 @@
     </row>
     <row r="13" spans="1:16" s="147" customFormat="1" ht="2.25" customHeight="1"/>
     <row r="14" spans="1:16" s="147" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A14" s="196" t="s">
+      <c r="A14" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="261" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="261" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="261" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="264" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="196" t="s">
+      <c r="F14" s="264"/>
+      <c r="G14" s="261" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="196" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="199" t="s">
+      <c r="H14" s="261" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="199"/>
-      <c r="G14" s="196" t="s">
+    </row>
+    <row r="15" spans="1:16" s="147" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A15" s="262"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="262"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="155" t="s">
         <v>203</v>
-      </c>
-      <c r="H14" s="196" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="147" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A15" s="197"/>
-      <c r="B15" s="197"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="155" t="s">
-        <v>205</v>
       </c>
       <c r="F15" s="155" t="str">
         <f>IF(LEFT($D$7,1)="N","Thực nhập","Thực xuất")</f>
         <v>Thực nhập</v>
       </c>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
+      <c r="G15" s="262"/>
+      <c r="H15" s="262"/>
     </row>
     <row r="16" spans="1:16" s="157" customFormat="1" ht="8.25" customHeight="1">
       <c r="A16" s="156" t="s">
@@ -15533,7 +13731,7 @@
       </c>
       <c r="B17" s="172" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!F$1,SMALL(Dong10,ROWS($1:1)),))</f>
-        <v xml:space="preserve">Cá cơm trắng NL </v>
+        <v>Cá cơm NL</v>
       </c>
       <c r="C17" s="173"/>
       <c r="D17" s="174" t="str">
@@ -15543,15 +13741,15 @@
       <c r="E17" s="175"/>
       <c r="F17" s="176">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!I$1,SMALL(Dong10,ROWS($1:1)),))</f>
-        <v>20470</v>
+        <v>11020</v>
       </c>
       <c r="G17" s="177">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!J$1,SMALL(Dong10,ROWS($1:1)),))</f>
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="H17" s="175">
         <f t="shared" ref="H17:H18" ca="1" si="0">IF(F17&lt;&gt;"",ROUND(F17*G17,0),"")</f>
-        <v>266110000</v>
+        <v>170810000</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
@@ -15565,7 +13763,7 @@
       </c>
       <c r="C18" s="173"/>
       <c r="D18" s="174" t="str">
-        <f t="shared" ref="D18:D22" ca="1" si="2">IF(B18&lt;&gt;"","kg","")</f>
+        <f t="shared" ref="D18:D20" ca="1" si="2">IF(B18&lt;&gt;"","kg","")</f>
         <v/>
       </c>
       <c r="E18" s="175"/>
@@ -15584,7 +13782,7 @@
     </row>
     <row r="19" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="171" t="str">
-        <f t="shared" ref="A19:A22" ca="1" si="3">IF(B19="","",A18+1)</f>
+        <f t="shared" ref="A19:A20" ca="1" si="3">IF(B19="","",A18+1)</f>
         <v/>
       </c>
       <c r="B19" s="172" t="str">
@@ -15606,7 +13804,7 @@
         <v/>
       </c>
       <c r="H19" s="175" t="str">
-        <f t="shared" ref="H19:H22" ca="1" si="4">IF(F19&lt;&gt;"",ROUND(F19*G19,0),"")</f>
+        <f t="shared" ref="H19:H20" ca="1" si="4">IF(F19&lt;&gt;"",ROUND(F19*G19,0),"")</f>
         <v/>
       </c>
     </row>
@@ -15639,155 +13837,94 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="171" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="B21" s="172" t="str">
-        <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong10),"",OFFSET(TH!F$1,SMALL(Dong10,ROWS($1:5)),))</f>
-        <v/>
-      </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="174" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E21" s="175"/>
-      <c r="F21" s="176" t="str">
-        <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong10),"",OFFSET(TH!I$1,SMALL(Dong10,ROWS($1:5)),))</f>
-        <v/>
-      </c>
-      <c r="G21" s="177" t="str">
-        <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong10),"",OFFSET(TH!J$1,SMALL(Dong10,ROWS($1:5)),))</f>
-        <v/>
-      </c>
-      <c r="H21" s="175" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="171" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="B22" s="172" t="str">
-        <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong10),"",OFFSET(TH!F$1,SMALL(Dong10,ROWS($1:6)),))</f>
-        <v/>
-      </c>
-      <c r="C22" s="173"/>
-      <c r="D22" s="174" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E22" s="175"/>
-      <c r="F22" s="176" t="str">
-        <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong10),"",OFFSET(TH!I$1,SMALL(Dong10,ROWS($1:6)),))</f>
-        <v/>
-      </c>
-      <c r="G22" s="177" t="str">
-        <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong10),"",OFFSET(TH!J$1,SMALL(Dong10,ROWS($1:6)),))</f>
-        <v/>
-      </c>
-      <c r="H22" s="175" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+      <c r="A21" s="263" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="263"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179">
+        <f ca="1">SUM(H17:H20)</f>
+        <v>170810000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="147" customFormat="1" ht="3" customHeight="1">
+      <c r="A22" s="158"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
     </row>
     <row r="23" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="178"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="182"/>
+      <c r="A23" s="147" t="str">
+        <f ca="1">"Tổng số tiền (viết bằng chữ):  "&amp; [2]!VND(H21, TRUE)</f>
+        <v>Tổng số tiền (viết bằng chữ):  Một trăm bảy mươi triệu, tám trăm mười ngàn đồng</v>
+      </c>
     </row>
     <row r="24" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="198" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="198"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186">
-        <f ca="1">SUM(H17:H23)</f>
-        <v>266110000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="147" customFormat="1" ht="3" customHeight="1">
-      <c r="A25" s="158"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-    </row>
-    <row r="26" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="147" t="str">
-        <f ca="1">"Tổng số tiền (viết bằng chữ):  "&amp; [2]!VND(H24, TRUE)</f>
-        <v>Tổng số tiền (viết bằng chữ):  Hai trăm sáu mươi sáu triệu, một trăm mười ngàn đồng</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="147" t="str">
+      <c r="A24" s="147" t="str">
         <f>"Số chứng từ gốc kèm theo :  "</f>
         <v xml:space="preserve">Số chứng từ gốc kèm theo :  </v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
-      <c r="F28" s="57" t="str">
+    <row r="25" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
+      <c r="F25" s="57" t="str">
         <f ca="1">+IF(LEFT($D$7,1)="N","                                                          "&amp;D6,"                                                                                           "&amp;D6)</f>
-        <v xml:space="preserve">                                                          Ngày  8  tháng  4  năm  2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="161" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A29" s="160" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162" t="str">
+        <v xml:space="preserve">                                                          Ngày  12  tháng  8  năm  2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="161" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A26" s="160" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162" t="str">
         <f>+IF(MID($D$7,4,1)="N","                                                       Người giao hàng","                                          Người nhận hàng                           Giám đốc")</f>
         <v xml:space="preserve">                                                       Người giao hàng</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="147" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A30" s="153" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57" t="str">
+    <row r="27" spans="1:8" s="147" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A27" s="153" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57" t="str">
         <f>+IF(LEFT($D$7,1)="N","                                                     (Ký, họ tên)","                (Ký, họ tên)                ")</f>
         <v xml:space="preserve">                                                     (Ký, họ tên)</v>
       </c>
-      <c r="H30" s="153" t="str">
+      <c r="H27" s="153" t="str">
         <f>+IF(LEFT($D$7,1)="N","","  (Ký, họ tên)")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" s="147" customFormat="1" ht="12.75" customHeight="1">
-      <c r="G31" s="57"/>
-    </row>
+    <row r="28" spans="1:8" s="147" customFormat="1" ht="12.75" customHeight="1">
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" spans="1:8" s="147" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="30" spans="1:8" s="147" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="31" spans="1:8" s="147" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="32" spans="1:8" s="147" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="33" spans="1:6" s="147" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="34" spans="1:6" s="147" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="35" spans="1:6" s="147" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="36" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A36" s="163"/>
-      <c r="F36" s="164"/>
+    <row r="33" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A33" s="163" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="164" t="str">
+        <f>+IF(LEFT($D$7,1)="N","","                                                                                                    Nguyễn Thiện Duy")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -15795,7 +13932,7 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:G15"/>
   </mergeCells>
-  <conditionalFormatting sqref="B17:B23 F17:G23">
+  <conditionalFormatting sqref="B17:B20 F17:G20">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$B17&lt;&gt;""</formula>
     </cfRule>

--- a/NH Q11 - Q4 - PV/TRÀ VINH/KU 88.000USD/NKSC16 - NHTV.xlsx
+++ b/NH Q11 - Q4 - PV/TRÀ VINH/KU 88.000USD/NKSC16 - NHTV.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="272">
   <si>
     <t>Diễn giải</t>
   </si>
@@ -899,18 +899,6 @@
     <t>Cá cơm NL</t>
   </si>
   <si>
-    <t>NL/N01</t>
-  </si>
-  <si>
-    <t>NL/N02</t>
-  </si>
-  <si>
-    <t>NL/N03</t>
-  </si>
-  <si>
-    <t>NL/N04</t>
-  </si>
-  <si>
     <t>NL/N05</t>
   </si>
   <si>
@@ -962,16 +950,34 @@
     <t>C06</t>
   </si>
   <si>
-    <t>NNL</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Người lập phiếu                 Kế toán trưởng                    Thủ kho</t>
   </si>
   <si>
     <t>Địa chỉ: Số 20 Lô E, KCN Long Đức, TP. Trà Vinh, Tỉnh Trà Vinh</t>
   </si>
   <si>
-    <t xml:space="preserve">       Võ Uyên Phương                                                      Trần Minh Nghĩa</t>
+    <t>TP/X01</t>
+  </si>
+  <si>
+    <t>TP/X02</t>
+  </si>
+  <si>
+    <t>TP/X03</t>
+  </si>
+  <si>
+    <t>TP/X04</t>
+  </si>
+  <si>
+    <t>Cá cơm TP</t>
+  </si>
+  <si>
+    <t>Cty TNHH Hải Sản An Lạc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Đặng Vũ Thụy                                                     Võ Hoàng Phong</t>
+  </si>
+  <si>
+    <t>XTP</t>
   </si>
 </sst>
 </file>
@@ -3559,11 +3565,11 @@
       </c>
       <c r="F10" s="17">
         <f t="array" ref="F10">SUM(IF(A10=KHC,TH))</f>
-        <v>2479046750</v>
+        <v>1595740500</v>
       </c>
       <c r="G10" s="18">
         <f>MAX(C10+E10-D10-F10,0)</f>
-        <v>1225992345</v>
+        <v>2109298595</v>
       </c>
       <c r="H10" s="18">
         <f>MAX(D10+F10-E10-C10,0)</f>
@@ -3591,11 +3597,11 @@
       </c>
       <c r="F11" s="22">
         <f>F10</f>
-        <v>2479046750</v>
+        <v>1595740500</v>
       </c>
       <c r="G11" s="22">
         <f>G10</f>
-        <v>1225992345</v>
+        <v>2109298595</v>
       </c>
       <c r="H11" s="22">
         <f>H10</f>
@@ -3711,7 +3717,7 @@
       </c>
       <c r="E15" s="32">
         <f t="array" ref="E15">SUM(IF(A15=KHN,TH))</f>
-        <v>0</v>
+        <v>2907190000</v>
       </c>
       <c r="F15" s="32">
         <f t="array" ref="F15">SUM(IF(A15=KHC,TH))</f>
@@ -3719,7 +3725,7 @@
       </c>
       <c r="G15" s="22">
         <f>MAX(C15+E15-D15-F15,0)</f>
-        <v>3343381600</v>
+        <v>6250571600</v>
       </c>
       <c r="H15" s="22">
         <f>MAX(D15+F15-E15-C15,0)</f>
@@ -3889,7 +3895,7 @@
       </c>
       <c r="E21" s="17">
         <f t="array" ref="E21">SUM(IF(A21=KHN,TH))</f>
-        <v>2479046750</v>
+        <v>1595740500</v>
       </c>
       <c r="F21" s="17">
         <f t="array" ref="F21">SUM(IF(A21=KHC,TH))</f>
@@ -3897,7 +3903,7 @@
       </c>
       <c r="G21" s="18">
         <f t="shared" si="0"/>
-        <v>5251446750</v>
+        <v>4368140500</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="1"/>
@@ -3951,7 +3957,7 @@
       </c>
       <c r="E23" s="22">
         <f>E21+E22</f>
-        <v>2479046750</v>
+        <v>1595740500</v>
       </c>
       <c r="F23" s="22">
         <f>F21+F22</f>
@@ -3959,7 +3965,7 @@
       </c>
       <c r="G23" s="22">
         <f t="shared" si="0"/>
-        <v>5777966637</v>
+        <v>4894660387</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
@@ -4397,11 +4403,11 @@
       </c>
       <c r="E38" s="32">
         <f t="array" ref="E38">SUM(IF(A38=KHN,TH))</f>
-        <v>2479046750</v>
+        <v>1595740500</v>
       </c>
       <c r="F38" s="32">
         <f t="array" ref="F38">SUM(IF(A38=KHC,TH))</f>
-        <v>2479046750</v>
+        <v>1595740500</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="0"/>
@@ -5120,11 +5126,11 @@
       <c r="D63" s="22"/>
       <c r="E63" s="32">
         <f t="array" ref="E63">SUM(IF(A63=KHN,TH))</f>
-        <v>0</v>
+        <v>2907190000</v>
       </c>
       <c r="F63" s="32">
         <f t="array" ref="F63">SUM(IF(A63=KHC,TH))</f>
-        <v>0</v>
+        <v>2907190000</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
@@ -5314,13 +5320,13 @@
       </c>
       <c r="F71" s="33">
         <f t="array" ref="F71">SUM(IF(A71=TH!$O$10:$O$57,TH!$M$10:$M$57))</f>
-        <v>187313010.59999943</v>
+        <v>3094503010.5999994</v>
       </c>
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
       <c r="I71" s="6">
         <f t="shared" si="9"/>
-        <v>-187313010.59999943</v>
+        <v>-3094503010.5999994</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="6" customFormat="1">
@@ -5338,15 +5344,15 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="10"/>
-        <v>13713553667.6</v>
+        <v>17761321167.599998</v>
       </c>
       <c r="F72" s="28">
         <f t="shared" si="10"/>
-        <v>13713553667.599998</v>
+        <v>17761321167.599998</v>
       </c>
       <c r="G72" s="28">
         <f t="shared" si="10"/>
-        <v>44338756537.599998</v>
+        <v>47245946537.599998</v>
       </c>
       <c r="H72" s="28">
         <f t="shared" si="10"/>
@@ -5369,7 +5375,7 @@
       <c r="E74" s="30"/>
       <c r="H74" s="30">
         <f>G72-H72</f>
-        <v>187313010.59999847</v>
+        <v>3094503010.5999985</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5407,7 +5413,7 @@
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39:D44"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6164,7 +6170,7 @@
       <c r="L16" s="210"/>
       <c r="M16" s="212">
         <f>SUMIF(KHC,N16,TH)</f>
-        <v>0</v>
+        <v>2907190000</v>
       </c>
       <c r="N16" s="215" t="s">
         <v>27</v>
@@ -6745,42 +6751,42 @@
       </c>
       <c r="B25" s="206">
         <f t="shared" ref="B25:B30" si="3">IF(C25&lt;&gt;"",MONTH(C25),"")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C25" s="219">
         <f t="shared" ref="C25:C44" si="4">E25</f>
-        <v>42959</v>
+        <v>43041</v>
       </c>
       <c r="D25" s="219" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="E25" s="219">
-        <v>42959</v>
+        <v>43041</v>
       </c>
       <c r="F25" s="180" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G25" s="220"/>
       <c r="H25" s="170" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="I25" s="181">
-        <v>11020</v>
+        <v>13676</v>
       </c>
       <c r="J25" s="182">
-        <v>15500</v>
+        <v>55000</v>
       </c>
       <c r="K25" s="221"/>
       <c r="L25" s="222"/>
       <c r="M25" s="117">
         <f t="shared" ref="M25:M38" si="5">ROUND(I25*J25,0)</f>
-        <v>170810000</v>
+        <v>752180000</v>
       </c>
       <c r="N25" s="223" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="O25" s="223" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="P25" s="213" t="str">
         <f>IF(AND(B25='111'!$L$11,OR($N25=$P$7,$O25=$P$7)),"x","")</f>
@@ -6809,7 +6815,7 @@
       <c r="V25" s="213"/>
       <c r="W25" s="213" t="str">
         <f>IF(AND(MONTH(E25)='IN-NX'!$J$5,'IN-NX'!$D$7=D25),"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
@@ -6819,42 +6825,42 @@
       </c>
       <c r="B26" s="206">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26" s="219">
         <f t="shared" si="4"/>
-        <v>42959</v>
+        <v>43041</v>
       </c>
       <c r="D26" s="219" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="E26" s="219">
-        <v>42959</v>
+        <v>43041</v>
       </c>
       <c r="F26" s="180" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G26" s="220"/>
       <c r="H26" s="170" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="I26" s="181">
-        <v>11470</v>
+        <v>13260</v>
       </c>
       <c r="J26" s="182">
-        <v>15500</v>
+        <v>55000</v>
       </c>
       <c r="K26" s="221"/>
       <c r="L26" s="222"/>
       <c r="M26" s="117">
         <f t="shared" si="5"/>
-        <v>177785000</v>
+        <v>729300000</v>
       </c>
       <c r="N26" s="223" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="O26" s="223" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="P26" s="213" t="str">
         <f>IF(AND(B26='111'!$L$11,OR($N26=$P$7,$O26=$P$7)),"x","")</f>
@@ -6893,42 +6899,42 @@
       </c>
       <c r="B27" s="206">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" s="219">
         <f t="shared" si="4"/>
-        <v>42959</v>
+        <v>43042</v>
       </c>
       <c r="D27" s="219" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="E27" s="219">
-        <v>42959</v>
+        <v>43042</v>
       </c>
       <c r="F27" s="180" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G27" s="220"/>
       <c r="H27" s="170" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="I27" s="181">
-        <v>11250.5</v>
+        <v>12636</v>
       </c>
       <c r="J27" s="182">
-        <v>15500</v>
+        <v>55000</v>
       </c>
       <c r="K27" s="221"/>
       <c r="L27" s="222"/>
       <c r="M27" s="117">
         <f t="shared" si="5"/>
-        <v>174382750</v>
+        <v>694980000</v>
       </c>
       <c r="N27" s="223" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="O27" s="223" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="P27" s="213" t="str">
         <f>IF(AND(B27='111'!$L$11,OR($N27=$P$7,$O27=$P$7)),"x","")</f>
@@ -6967,42 +6973,42 @@
       </c>
       <c r="B28" s="206">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C28" s="219">
         <f t="shared" si="4"/>
-        <v>42962</v>
+        <v>43042</v>
       </c>
       <c r="D28" s="219" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="E28" s="219">
-        <v>42962</v>
+        <v>43042</v>
       </c>
       <c r="F28" s="180" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G28" s="220"/>
       <c r="H28" s="170" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="I28" s="181">
-        <v>11465</v>
+        <v>13286</v>
       </c>
       <c r="J28" s="182">
-        <v>15500</v>
+        <v>55000</v>
       </c>
       <c r="K28" s="221"/>
       <c r="L28" s="222"/>
       <c r="M28" s="117">
         <f t="shared" si="5"/>
-        <v>177707500</v>
+        <v>730730000</v>
       </c>
       <c r="N28" s="223" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="O28" s="223" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="P28" s="213" t="str">
         <f>IF(AND(B28='111'!$L$11,OR($N28=$P$7,$O28=$P$7)),"x","")</f>
@@ -7031,7 +7037,7 @@
       <c r="V28" s="213"/>
       <c r="W28" s="213" t="str">
         <f>IF(AND(MONTH(E28)='IN-NX'!$J$5,'IN-NX'!$D$7=D28),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1">
@@ -7048,7 +7054,7 @@
         <v>42962</v>
       </c>
       <c r="D29" s="219" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E29" s="219">
         <v>42962</v>
@@ -7063,14 +7069,12 @@
       <c r="I29" s="181">
         <v>11782</v>
       </c>
-      <c r="J29" s="182">
-        <v>15500</v>
-      </c>
+      <c r="J29" s="182"/>
       <c r="K29" s="221"/>
       <c r="L29" s="222"/>
       <c r="M29" s="117">
         <f t="shared" si="5"/>
-        <v>182621000</v>
+        <v>0</v>
       </c>
       <c r="N29" s="223" t="s">
         <v>160</v>
@@ -7122,7 +7126,7 @@
         <v>42964</v>
       </c>
       <c r="D30" s="219" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E30" s="219">
         <v>42964</v>
@@ -7196,7 +7200,7 @@
         <v>42964</v>
       </c>
       <c r="D31" s="219" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E31" s="219">
         <v>42964</v>
@@ -7270,7 +7274,7 @@
         <v>42967</v>
       </c>
       <c r="D32" s="219" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E32" s="219">
         <v>42967</v>
@@ -7344,7 +7348,7 @@
         <v>42967</v>
       </c>
       <c r="D33" s="219" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E33" s="219">
         <v>42967</v>
@@ -7418,7 +7422,7 @@
         <v>42972</v>
       </c>
       <c r="D34" s="219" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E34" s="219">
         <v>42972</v>
@@ -7492,7 +7496,7 @@
         <v>42972</v>
       </c>
       <c r="D35" s="219" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E35" s="219">
         <v>42972</v>
@@ -7566,7 +7570,7 @@
         <v>42972</v>
       </c>
       <c r="D36" s="219" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E36" s="219">
         <v>42972</v>
@@ -7640,7 +7644,7 @@
         <v>42977</v>
       </c>
       <c r="D37" s="219" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E37" s="219">
         <v>42977</v>
@@ -7714,7 +7718,7 @@
         <v>42977</v>
       </c>
       <c r="D38" s="219" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E38" s="219">
         <v>42977</v>
@@ -7788,13 +7792,13 @@
         <v>42985</v>
       </c>
       <c r="D39" s="219" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E39" s="219">
         <v>42985</v>
       </c>
       <c r="F39" s="220" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G39" s="224"/>
       <c r="H39" s="170" t="s">
@@ -7858,13 +7862,13 @@
         <v>42985</v>
       </c>
       <c r="D40" s="219" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E40" s="219">
         <v>42985</v>
       </c>
       <c r="F40" s="220" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G40" s="224"/>
       <c r="H40" s="170" t="s">
@@ -7876,7 +7880,7 @@
       <c r="L40" s="222"/>
       <c r="M40" s="117">
         <f t="shared" si="10"/>
-        <v>537958500</v>
+        <v>177552500</v>
       </c>
       <c r="N40" s="223" t="s">
         <v>7</v>
@@ -7928,13 +7932,13 @@
         <v>42985</v>
       </c>
       <c r="D41" s="219" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E41" s="219">
         <v>42985</v>
       </c>
       <c r="F41" s="220" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G41" s="224"/>
       <c r="H41" s="170" t="s">
@@ -7998,13 +8002,13 @@
         <v>42986</v>
       </c>
       <c r="D42" s="219" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E42" s="219">
         <v>42986</v>
       </c>
       <c r="F42" s="220" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G42" s="224"/>
       <c r="H42" s="170" t="s">
@@ -8016,7 +8020,7 @@
       <c r="L42" s="222"/>
       <c r="M42" s="117">
         <f t="shared" si="10"/>
-        <v>351772500</v>
+        <v>174065000</v>
       </c>
       <c r="N42" s="223" t="s">
         <v>7</v>
@@ -8068,13 +8072,13 @@
         <v>42986</v>
       </c>
       <c r="D43" s="219" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E43" s="219">
         <v>42986</v>
       </c>
       <c r="F43" s="220" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G43" s="224"/>
       <c r="H43" s="170" t="s">
@@ -8086,7 +8090,7 @@
       <c r="L43" s="222"/>
       <c r="M43" s="117">
         <f t="shared" si="10"/>
-        <v>707350250</v>
+        <v>532967500</v>
       </c>
       <c r="N43" s="223" t="s">
         <v>7</v>
@@ -8138,13 +8142,13 @@
         <v>42986</v>
       </c>
       <c r="D44" s="219" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E44" s="219">
         <v>42986</v>
       </c>
       <c r="F44" s="220" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G44" s="224"/>
       <c r="H44" s="170" t="s">
@@ -8156,7 +8160,7 @@
       <c r="L44" s="222"/>
       <c r="M44" s="117">
         <f t="shared" si="10"/>
-        <v>347138000</v>
+        <v>176328000</v>
       </c>
       <c r="N44" s="223" t="s">
         <v>7</v>
@@ -8873,7 +8877,7 @@
     <row r="67" spans="13:13">
       <c r="M67" s="230">
         <f>SUBTOTAL(9,M10:M57)</f>
-        <v>5175567394.6000004</v>
+        <v>9223334894.6000004</v>
       </c>
     </row>
   </sheetData>
@@ -12970,7 +12974,7 @@
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
       <c r="B2" s="45" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="35"/>
@@ -13552,12 +13556,12 @@
       </c>
       <c r="G2" s="49" t="str">
         <f>+IF(LEFT($D$7,1)="N","Mẫu số 01 - VT","Mẫu số 02 - VT")</f>
-        <v>Mẫu số 01 - VT</v>
+        <v>Mẫu số 02 - VT</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1">
       <c r="A3" s="45" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G3" s="46" t="s">
         <v>190</v>
@@ -13583,18 +13587,18 @@
     <row r="5" spans="1:16" ht="18" customHeight="1">
       <c r="D5" s="141" t="str">
         <f>+IF(LEFT($L$5,1)="N","PHIẾU NHẬP KHO","PHIẾU XUẤT KHO")</f>
-        <v>PHIẾU NHẬP KHO</v>
+        <v>PHIẾU XUẤT KHO</v>
       </c>
       <c r="J5" s="142">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K5" s="143"/>
       <c r="L5" s="144" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M5" s="145"/>
       <c r="N5" s="146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O5" s="138"/>
       <c r="P5" s="138"/>
@@ -13602,7 +13606,7 @@
     <row r="6" spans="1:16" s="147" customFormat="1" ht="10.5" customHeight="1">
       <c r="D6" s="148" t="str">
         <f ca="1">"Ngày  " &amp;DAY(IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!C$1,SMALL(Dong10,ROWS($1:1)),)))&amp;"  tháng  " &amp; MONTH(IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!C$1,SMALL(Dong10,ROWS($1:1)),)))&amp;"  năm  "&amp;YEAR(IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!C$1,SMALL(Dong10,ROWS($1:1)),)))</f>
-        <v>Ngày  12  tháng  8  năm  2017</v>
+        <v>Ngày  3  tháng  11  năm  2017</v>
       </c>
       <c r="E6" s="149"/>
       <c r="M6" s="150"/>
@@ -13615,11 +13619,11 @@
       </c>
       <c r="D7" s="153" t="str">
         <f xml:space="preserve"> RIGHT($L$5,2)&amp;"/"&amp;LEFT($L$5,1)&amp;IF($N$5&gt;=10,$N$5,"0"&amp;$N$5)</f>
-        <v>NL/N01</v>
+        <v>TP/X04</v>
       </c>
       <c r="G7" s="147" t="str">
         <f ca="1">"Nợ:  "&amp;IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!N$1,SMALL(Dong10,ROWS($1:1)),))</f>
-        <v>Nợ:  1521</v>
+        <v>Nợ:  131</v>
       </c>
       <c r="M7" s="150"/>
       <c r="O7" s="151"/>
@@ -13628,7 +13632,7 @@
       <c r="D8" s="46"/>
       <c r="G8" s="147" t="str">
         <f ca="1">"Có:  "&amp;IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!O$1,SMALL(Dong10,ROWS($1:1)),))</f>
-        <v>Có:  331</v>
+        <v>Có:  515</v>
       </c>
       <c r="M8" s="150"/>
       <c r="O8" s="154"/>
@@ -13636,20 +13640,20 @@
     <row r="9" spans="1:16" s="147" customFormat="1" ht="10.5" customHeight="1">
       <c r="A9" s="147" t="str">
         <f ca="1">+IF(MID($D$7,4,1)="N","Họ và tên người giao :   ","Họ và tên người nhận hàng :   ")&amp;IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!H$1,SMALL(Dong10,ROWS($1:1)),)) &amp;IF(MID($D$7,4,1)="N","","                                         Địa chỉ (bộ phận) :     Sản Xuất ")</f>
-        <v>Họ và tên người giao :   Nguyễn Thanh Bình</v>
+        <v xml:space="preserve">Họ và tên người nhận hàng :   Cty TNHH Hải Sản An Lạc                                         Địa chỉ (bộ phận) :     Sản Xuất </v>
       </c>
       <c r="M9" s="150"/>
     </row>
     <row r="10" spans="1:16" s="147" customFormat="1" ht="10.5" customHeight="1">
       <c r="A10" s="147" t="str">
         <f>+IF(MID($D$7,4,1)="N","Theo……………………………………....…………..số………….…………….……ngày……...tháng…......năm……....","Lý do xuất :                                 Xuất bán ")</f>
-        <v>Theo……………………………………....…………..số………….…………….……ngày……...tháng…......năm……....</v>
+        <v xml:space="preserve">Lý do xuất :                                 Xuất bán </v>
       </c>
     </row>
     <row r="11" spans="1:16" s="147" customFormat="1" ht="10.5" customHeight="1">
       <c r="A11" s="147" t="str">
-        <f>+IF(MID($D$7,4,1)="N","của………………………………………………………………………………………………………………………………....","Xuất tại kho (ngăn lô) :            Công ty TNHH Hải Sản An Lạc                      Địa điểm :  Đức Hòa, Long An.")</f>
-        <v>của………………………………………………………………………………………………………………………………....</v>
+        <f>+IF(MID($D$7,4,1)="N","của………………………………………………………………………………………………………………………………....","Xuất tại kho (ngăn lô) :            Công ty TNHH Hải Sản An Lạc Trà Vinh                   Địa điểm :  Trà Vinh.")</f>
+        <v>Xuất tại kho (ngăn lô) :            Công ty TNHH Hải Sản An Lạc Trà Vinh                   Địa điểm :  Trà Vinh.</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="147" customFormat="1" ht="10.5" customHeight="1">
@@ -13693,7 +13697,7 @@
       </c>
       <c r="F15" s="155" t="str">
         <f>IF(LEFT($D$7,1)="N","Thực nhập","Thực xuất")</f>
-        <v>Thực nhập</v>
+        <v>Thực xuất</v>
       </c>
       <c r="G15" s="262"/>
       <c r="H15" s="262"/>
@@ -13731,7 +13735,7 @@
       </c>
       <c r="B17" s="172" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!F$1,SMALL(Dong10,ROWS($1:1)),))</f>
-        <v>Cá cơm NL</v>
+        <v>Cá cơm TP</v>
       </c>
       <c r="C17" s="173"/>
       <c r="D17" s="174" t="str">
@@ -13741,15 +13745,15 @@
       <c r="E17" s="175"/>
       <c r="F17" s="176">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!I$1,SMALL(Dong10,ROWS($1:1)),))</f>
-        <v>11020</v>
+        <v>13286</v>
       </c>
       <c r="G17" s="177">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong10),"",OFFSET(TH!J$1,SMALL(Dong10,ROWS($1:1)),))</f>
-        <v>15500</v>
+        <v>55000</v>
       </c>
       <c r="H17" s="175">
         <f t="shared" ref="H17:H18" ca="1" si="0">IF(F17&lt;&gt;"",ROUND(F17*G17,0),"")</f>
-        <v>170810000</v>
+        <v>730730000</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
@@ -13848,7 +13852,7 @@
       <c r="G21" s="179"/>
       <c r="H21" s="179">
         <f ca="1">SUM(H17:H20)</f>
-        <v>170810000</v>
+        <v>730730000</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="147" customFormat="1" ht="3" customHeight="1">
@@ -13864,7 +13868,7 @@
     <row r="23" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="147" t="str">
         <f ca="1">"Tổng số tiền (viết bằng chữ):  "&amp; [2]!VND(H21, TRUE)</f>
-        <v>Tổng số tiền (viết bằng chữ):  Một trăm bảy mươi triệu, tám trăm mười ngàn đồng</v>
+        <v>Tổng số tiền (viết bằng chữ):  Bảy trăm ba mươi triệu, bảy trăm ba mươi ngàn đồng</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
@@ -13875,19 +13879,19 @@
     </row>
     <row r="25" spans="1:8" s="147" customFormat="1" ht="13.5" customHeight="1">
       <c r="F25" s="57" t="str">
-        <f ca="1">+IF(LEFT($D$7,1)="N","                                                          "&amp;D6,"                                                                                           "&amp;D6)</f>
-        <v xml:space="preserve">                                                          Ngày  12  tháng  8  năm  2017</v>
+        <f ca="1">+IF(MID($D$7,4,1)="N","                                                          "&amp;D6,"                                                                                           "&amp;D6)</f>
+        <v xml:space="preserve">                                                                                           Ngày  3  tháng  11  năm  2017</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="161" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="160" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C26" s="162"/>
       <c r="E26" s="162"/>
       <c r="F26" s="162" t="str">
         <f>+IF(MID($D$7,4,1)="N","                                                       Người giao hàng","                                          Người nhận hàng                           Giám đốc")</f>
-        <v xml:space="preserve">                                                       Người giao hàng</v>
+        <v xml:space="preserve">                                          Người nhận hàng                           Giám đốc</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="147" customFormat="1" ht="12.75" customHeight="1">
@@ -13898,11 +13902,11 @@
       <c r="E27" s="57"/>
       <c r="F27" s="57" t="str">
         <f>+IF(LEFT($D$7,1)="N","                                                     (Ký, họ tên)","                (Ký, họ tên)                ")</f>
-        <v xml:space="preserve">                                                     (Ký, họ tên)</v>
+        <v xml:space="preserve">                (Ký, họ tên)                </v>
       </c>
       <c r="H27" s="153" t="str">
         <f>+IF(LEFT($D$7,1)="N","","  (Ký, họ tên)")</f>
-        <v/>
+        <v xml:space="preserve">  (Ký, họ tên)</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="147" customFormat="1" ht="12.75" customHeight="1">
@@ -13914,11 +13918,11 @@
     <row r="32" spans="1:8" s="147" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="33" spans="1:6" ht="11.25" customHeight="1">
       <c r="A33" s="163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F33" s="164" t="str">
         <f>+IF(LEFT($D$7,1)="N","","                                                                                                    Nguyễn Thiện Duy")</f>
-        <v/>
+        <v xml:space="preserve">                                                                                                    Nguyễn Thiện Duy</v>
       </c>
     </row>
   </sheetData>
